--- a/06_Jun/DGAIGAT_junio_DPCIIT.xlsx
+++ b/06_Jun/DGAIGAT_junio_DPCIIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual\06_Jun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\06_Jun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C5AED-E8BE-4B98-9FBA-33E99FC03138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A31F73-9F12-4BCB-A0CA-87B22CA972CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="junio" sheetId="1" r:id="rId1"/>
@@ -1189,13 +1189,13 @@
 SEMARNAT / El pasado 12 de marzo se llevó a cabo una reunión entre la SEMARNAT y el INEGI para conocer a mayor detalle el Subsistema de Información para el Ordenamiento Ecológico (SIORE), con la finalidad de ir definiendo el mecanismo para vincularlo al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano (SCIEGOTDU) del INEGI/SNIEG.</t>
   </si>
   <si>
-    <t>Se continuó con el desarrollo del módulo principal, además, se comenzó con el desarrollo del módulo de búsqueda de términos que contendrá el instrumento para la difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
-  </si>
-  <si>
-    <t>A la par del desarrollo de los módulos principal y de búsqueda, se realizan las pruebas de funcionalidad de ambos módulos.</t>
-  </si>
-  <si>
     <t>Se comenzó con la preparación de los términos del glosario de la letra "A" a la "C", necesarios para la migración de la información de la publicación al instrumento de difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
+  </si>
+  <si>
+    <t>Se continuó con el desarrollo del módulo de búsquedas específicas de términos que contendrá el instrumento además, se comenzó con la investigación documental con el fin de ampliar las búsquedas para localizar términos por medio de las letras del alfabeto para la difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
+  </si>
+  <si>
+    <t>Se comenzaron a realizar pruebas de funcionalidad del módulo de búsquedas específicas desarrollo de los módulos principal y de búsqueda, se realizan las pruebas de funcionalidad de ambos módulos.</t>
   </si>
 </sst>
 </file>
@@ -2384,289 +2384,316 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,35 +2707,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4194,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E154" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D158" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4238,11 +4238,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="221" t="s">
+      <c r="G3" s="295" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -4316,13 +4316,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="202" t="s">
+      <c r="A7" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="262" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="204" t="s">
+      <c r="C7" s="258" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -4346,9 +4346,9 @@
       <c r="M7" s="147"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="209"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="205"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="106" t="s">
         <v>155</v>
       </c>
@@ -4356,20 +4356,20 @@
       <c r="F8" s="74">
         <v>1</v>
       </c>
-      <c r="G8" s="276" t="s">
+      <c r="G8" s="206" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="277"/>
-      <c r="I8" s="278"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="208"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
-      <c r="A9" s="209"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="205"/>
+      <c r="A9" s="243"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="107" t="s">
         <v>156</v>
       </c>
@@ -4388,28 +4388,28 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A10" s="209"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="205"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="106" t="s">
         <v>328</v>
       </c>
       <c r="E10" s="98"/>
-      <c r="F10" s="291" t="s">
+      <c r="F10" s="224" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="275"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="226"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="209"/>
-      <c r="B11" s="203"/>
-      <c r="C11" s="204" t="s">
+      <c r="A11" s="243"/>
+      <c r="B11" s="276"/>
+      <c r="C11" s="258" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="136" t="s">
@@ -4433,9 +4433,9 @@
       <c r="M11" s="147"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1">
-      <c r="A12" s="209"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="205"/>
+      <c r="A12" s="243"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="259"/>
       <c r="D12" s="117" t="s">
         <v>158</v>
       </c>
@@ -4443,20 +4443,20 @@
       <c r="F12" s="74">
         <v>1</v>
       </c>
-      <c r="G12" s="292" t="s">
+      <c r="G12" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="293"/>
-      <c r="I12" s="294"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="231"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="209"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="205"/>
+      <c r="A13" s="243"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="259"/>
       <c r="D13" s="117" t="s">
         <v>159</v>
       </c>
@@ -4464,18 +4464,18 @@
       <c r="F13" s="74">
         <v>1</v>
       </c>
-      <c r="G13" s="295"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="297"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="234"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A14" s="209"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="205"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="259"/>
       <c r="D14" s="107" t="s">
         <v>160</v>
       </c>
@@ -4494,11 +4494,11 @@
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A15" s="209"/>
-      <c r="B15" s="211" t="s">
+      <c r="A15" s="243"/>
+      <c r="B15" s="245" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="204" t="s">
+      <c r="C15" s="258" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="137" t="s">
@@ -4522,9 +4522,9 @@
       <c r="M15" s="147"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A16" s="209"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="205"/>
+      <c r="A16" s="243"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="259"/>
       <c r="D16" s="117" t="s">
         <v>75</v>
       </c>
@@ -4543,9 +4543,9 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A17" s="209"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="205"/>
+      <c r="A17" s="243"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="117" t="s">
         <v>76</v>
       </c>
@@ -4564,9 +4564,9 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A18" s="209"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="205"/>
+      <c r="A18" s="243"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="117" t="s">
         <v>77</v>
       </c>
@@ -4585,9 +4585,9 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A19" s="209"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="205"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="117" t="s">
         <v>78</v>
       </c>
@@ -4606,9 +4606,9 @@
       <c r="M19" s="93"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="209"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213" t="s">
+      <c r="A20" s="243"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="255" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="136" t="s">
@@ -4632,9 +4632,9 @@
       <c r="M20" s="147"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A21" s="209"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="214"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="256"/>
       <c r="D21" s="117" t="s">
         <v>80</v>
       </c>
@@ -4653,9 +4653,9 @@
       <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A22" s="209"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="214"/>
+      <c r="A22" s="243"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="256"/>
       <c r="D22" s="117" t="s">
         <v>81</v>
       </c>
@@ -4674,9 +4674,9 @@
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A23" s="209"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="214"/>
+      <c r="A23" s="243"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="256"/>
       <c r="D23" s="117" t="s">
         <v>329</v>
       </c>
@@ -4695,9 +4695,9 @@
       <c r="M23" s="93"/>
     </row>
     <row r="24" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A24" s="209"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="214"/>
+      <c r="A24" s="243"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="256"/>
       <c r="D24" s="117" t="s">
         <v>83</v>
       </c>
@@ -4716,9 +4716,9 @@
       <c r="M24" s="93"/>
     </row>
     <row r="25" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A25" s="210"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="215"/>
+      <c r="A25" s="300"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="257"/>
       <c r="D25" s="107" t="s">
         <v>162</v>
       </c>
@@ -4737,13 +4737,13 @@
       <c r="M25" s="93"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="211" t="s">
+      <c r="A26" s="242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="206" t="s">
+      <c r="C26" s="248" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="137" t="s">
@@ -4767,9 +4767,9 @@
       <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="A27" s="209"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="217"/>
+      <c r="A27" s="243"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="301"/>
       <c r="D27" s="112" t="s">
         <v>85</v>
       </c>
@@ -4788,9 +4788,9 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="A28" s="209"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="217"/>
+      <c r="A28" s="243"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="301"/>
       <c r="D28" s="112" t="s">
         <v>164</v>
       </c>
@@ -4809,9 +4809,9 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="209"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="217"/>
+      <c r="A29" s="243"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="301"/>
       <c r="D29" s="112" t="s">
         <v>165</v>
       </c>
@@ -4830,9 +4830,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A30" s="209"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="204" t="s">
+      <c r="A30" s="243"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="258" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="137" t="s">
@@ -4856,9 +4856,9 @@
       <c r="M30" s="147"/>
     </row>
     <row r="31" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A31" s="209"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="205"/>
+      <c r="A31" s="243"/>
+      <c r="B31" s="246"/>
+      <c r="C31" s="259"/>
       <c r="D31" s="112" t="s">
         <v>295</v>
       </c>
@@ -4877,9 +4877,9 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A32" s="209"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="205"/>
+      <c r="A32" s="243"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="259"/>
       <c r="D32" s="112" t="s">
         <v>294</v>
       </c>
@@ -4898,9 +4898,9 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="42" customHeight="1">
-      <c r="A33" s="209"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="205"/>
+      <c r="A33" s="243"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="259"/>
       <c r="D33" s="112" t="s">
         <v>330</v>
       </c>
@@ -4919,9 +4919,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="209"/>
-      <c r="B34" s="212"/>
-      <c r="C34" s="218" t="s">
+      <c r="A34" s="243"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="250" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="137" t="s">
@@ -4945,9 +4945,9 @@
       <c r="M34" s="147"/>
     </row>
     <row r="35" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A35" s="209"/>
-      <c r="B35" s="212"/>
-      <c r="C35" s="219"/>
+      <c r="A35" s="243"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="251"/>
       <c r="D35" s="116" t="s">
         <v>296</v>
       </c>
@@ -4966,9 +4966,9 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="209"/>
-      <c r="B36" s="212"/>
-      <c r="C36" s="219"/>
+      <c r="A36" s="243"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="251"/>
       <c r="D36" s="116" t="s">
         <v>297</v>
       </c>
@@ -4987,9 +4987,9 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A37" s="209"/>
-      <c r="B37" s="212"/>
-      <c r="C37" s="219"/>
+      <c r="A37" s="243"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="251"/>
       <c r="D37" s="116" t="s">
         <v>55</v>
       </c>
@@ -5008,9 +5008,9 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="209"/>
-      <c r="B38" s="212"/>
-      <c r="C38" s="220"/>
+      <c r="A38" s="243"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="252"/>
       <c r="D38" s="116" t="s">
         <v>298</v>
       </c>
@@ -5029,9 +5029,9 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A39" s="209"/>
-      <c r="B39" s="212"/>
-      <c r="C39" s="204" t="s">
+      <c r="A39" s="243"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="258" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="137" t="s">
@@ -5055,9 +5055,9 @@
       <c r="M39" s="147"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="209"/>
-      <c r="B40" s="212"/>
-      <c r="C40" s="205"/>
+      <c r="A40" s="243"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="259"/>
       <c r="D40" s="112" t="s">
         <v>56</v>
       </c>
@@ -5076,9 +5076,9 @@
       <c r="M40" s="93"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="209"/>
-      <c r="B41" s="212"/>
-      <c r="C41" s="205"/>
+      <c r="A41" s="243"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="259"/>
       <c r="D41" s="112" t="s">
         <v>92</v>
       </c>
@@ -5097,45 +5097,45 @@
       <c r="M41" s="93"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="209"/>
-      <c r="B42" s="212"/>
-      <c r="C42" s="205"/>
+      <c r="A42" s="243"/>
+      <c r="B42" s="246"/>
+      <c r="C42" s="259"/>
       <c r="D42" s="112" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="184"/>
-      <c r="F42" s="279" t="s">
+      <c r="F42" s="209" t="s">
         <v>364</v>
       </c>
-      <c r="G42" s="280"/>
-      <c r="H42" s="280"/>
-      <c r="I42" s="281"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="211"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="209"/>
-      <c r="B43" s="212"/>
-      <c r="C43" s="205"/>
+      <c r="A43" s="243"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="259"/>
       <c r="D43" s="112" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="184"/>
-      <c r="F43" s="282"/>
-      <c r="G43" s="283"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="284"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="214"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="93"/>
     </row>
     <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="209"/>
-      <c r="B44" s="212"/>
-      <c r="C44" s="204" t="s">
+      <c r="A44" s="243"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="258" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="149" t="s">
@@ -5159,9 +5159,9 @@
       <c r="M44" s="147"/>
     </row>
     <row r="45" spans="1:13" ht="21" customHeight="1">
-      <c r="A45" s="209"/>
-      <c r="B45" s="212"/>
-      <c r="C45" s="205"/>
+      <c r="A45" s="243"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="259"/>
       <c r="D45" s="116" t="s">
         <v>338</v>
       </c>
@@ -5180,49 +5180,49 @@
       <c r="M45" s="93"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A46" s="209"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="205"/>
+      <c r="A46" s="243"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="259"/>
       <c r="D46" s="116" t="s">
         <v>339</v>
       </c>
       <c r="E46" s="186"/>
       <c r="F46" s="186"/>
-      <c r="G46" s="272" t="s">
+      <c r="G46" s="227" t="s">
         <v>283</v>
       </c>
-      <c r="H46" s="272"/>
-      <c r="I46" s="273"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="228"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A47" s="209"/>
-      <c r="B47" s="212"/>
-      <c r="C47" s="205"/>
+      <c r="A47" s="243"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="259"/>
       <c r="D47" s="116" t="s">
         <v>172</v>
       </c>
       <c r="E47" s="186"/>
       <c r="F47" s="186"/>
-      <c r="G47" s="272" t="s">
+      <c r="G47" s="227" t="s">
         <v>284</v>
       </c>
-      <c r="H47" s="272"/>
-      <c r="I47" s="273"/>
+      <c r="H47" s="227"/>
+      <c r="I47" s="228"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="93"/>
     </row>
     <row r="48" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A48" s="209"/>
-      <c r="B48" s="253" t="s">
+      <c r="A48" s="243"/>
+      <c r="B48" s="239" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="204" t="s">
+      <c r="C48" s="258" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="136" t="s">
@@ -5246,9 +5246,9 @@
       <c r="M48" s="147"/>
     </row>
     <row r="49" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A49" s="209"/>
-      <c r="B49" s="253"/>
-      <c r="C49" s="205"/>
+      <c r="A49" s="243"/>
+      <c r="B49" s="239"/>
+      <c r="C49" s="259"/>
       <c r="D49" s="116" t="s">
         <v>300</v>
       </c>
@@ -5267,9 +5267,9 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A50" s="209"/>
-      <c r="B50" s="253"/>
-      <c r="C50" s="205"/>
+      <c r="A50" s="243"/>
+      <c r="B50" s="239"/>
+      <c r="C50" s="259"/>
       <c r="D50" s="116" t="s">
         <v>299</v>
       </c>
@@ -5288,9 +5288,9 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A51" s="209"/>
-      <c r="B51" s="253"/>
-      <c r="C51" s="205"/>
+      <c r="A51" s="243"/>
+      <c r="B51" s="239"/>
+      <c r="C51" s="259"/>
       <c r="D51" s="116" t="s">
         <v>68</v>
       </c>
@@ -5309,11 +5309,11 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="209"/>
-      <c r="B52" s="202" t="s">
+      <c r="A52" s="243"/>
+      <c r="B52" s="262" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="204" t="s">
+      <c r="C52" s="258" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="136" t="s">
@@ -5337,9 +5337,9 @@
       <c r="M52" s="147"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A53" s="209"/>
-      <c r="B53" s="203"/>
-      <c r="C53" s="205"/>
+      <c r="A53" s="243"/>
+      <c r="B53" s="276"/>
+      <c r="C53" s="259"/>
       <c r="D53" s="116" t="s">
         <v>303</v>
       </c>
@@ -5358,9 +5358,9 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A54" s="209"/>
-      <c r="B54" s="203"/>
-      <c r="C54" s="205"/>
+      <c r="A54" s="243"/>
+      <c r="B54" s="276"/>
+      <c r="C54" s="259"/>
       <c r="D54" s="112" t="s">
         <v>304</v>
       </c>
@@ -5379,9 +5379,9 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="209"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="205"/>
+      <c r="A55" s="243"/>
+      <c r="B55" s="276"/>
+      <c r="C55" s="259"/>
       <c r="D55" s="107" t="s">
         <v>305</v>
       </c>
@@ -5400,9 +5400,9 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="25.5">
-      <c r="A56" s="209"/>
-      <c r="B56" s="203"/>
-      <c r="C56" s="204" t="s">
+      <c r="A56" s="243"/>
+      <c r="B56" s="276"/>
+      <c r="C56" s="258" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="137" t="s">
@@ -5422,81 +5422,81 @@
       <c r="M56" s="96"/>
     </row>
     <row r="57" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A57" s="209"/>
-      <c r="B57" s="203"/>
-      <c r="C57" s="205"/>
+      <c r="A57" s="243"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="259"/>
       <c r="D57" s="107" t="s">
         <v>308</v>
       </c>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
-      <c r="G57" s="262" t="s">
+      <c r="G57" s="264" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="262"/>
-      <c r="I57" s="263"/>
+      <c r="H57" s="264"/>
+      <c r="I57" s="265"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="209"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="205"/>
+      <c r="A58" s="243"/>
+      <c r="B58" s="276"/>
+      <c r="C58" s="259"/>
       <c r="D58" s="107" t="s">
         <v>309</v>
       </c>
       <c r="E58" s="187"/>
       <c r="F58" s="187"/>
-      <c r="G58" s="264"/>
-      <c r="H58" s="264"/>
-      <c r="I58" s="265"/>
+      <c r="G58" s="266"/>
+      <c r="H58" s="266"/>
+      <c r="I58" s="267"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A59" s="209"/>
-      <c r="B59" s="203"/>
-      <c r="C59" s="205"/>
+      <c r="A59" s="243"/>
+      <c r="B59" s="276"/>
+      <c r="C59" s="259"/>
       <c r="D59" s="107" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="187"/>
       <c r="F59" s="187"/>
-      <c r="G59" s="264"/>
-      <c r="H59" s="264"/>
-      <c r="I59" s="265"/>
+      <c r="G59" s="266"/>
+      <c r="H59" s="266"/>
+      <c r="I59" s="267"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="209"/>
-      <c r="B60" s="203"/>
-      <c r="C60" s="205"/>
+      <c r="A60" s="243"/>
+      <c r="B60" s="276"/>
+      <c r="C60" s="259"/>
       <c r="D60" s="106" t="s">
         <v>307</v>
       </c>
       <c r="E60" s="187"/>
       <c r="F60" s="187"/>
-      <c r="G60" s="266"/>
-      <c r="H60" s="266"/>
-      <c r="I60" s="267"/>
+      <c r="G60" s="268"/>
+      <c r="H60" s="268"/>
+      <c r="I60" s="269"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="38.25">
-      <c r="A61" s="209"/>
-      <c r="B61" s="202" t="s">
+      <c r="A61" s="243"/>
+      <c r="B61" s="262" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="213" t="s">
+      <c r="C61" s="255" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="135" t="s">
@@ -5520,9 +5520,9 @@
       <c r="M61" s="147"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="209"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="214"/>
+      <c r="A62" s="243"/>
+      <c r="B62" s="276"/>
+      <c r="C62" s="256"/>
       <c r="D62" s="107" t="s">
         <v>312</v>
       </c>
@@ -5530,20 +5530,20 @@
       <c r="F62" s="75">
         <v>1</v>
       </c>
-      <c r="G62" s="234" t="s">
+      <c r="G62" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H62" s="235"/>
-      <c r="I62" s="236"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="221"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="209"/>
-      <c r="B63" s="203"/>
-      <c r="C63" s="214"/>
+      <c r="A63" s="243"/>
+      <c r="B63" s="276"/>
+      <c r="C63" s="256"/>
       <c r="D63" s="117" t="s">
         <v>313</v>
       </c>
@@ -5562,9 +5562,9 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="209"/>
-      <c r="B64" s="203"/>
-      <c r="C64" s="214"/>
+      <c r="A64" s="243"/>
+      <c r="B64" s="276"/>
+      <c r="C64" s="256"/>
       <c r="D64" s="107" t="s">
         <v>314</v>
       </c>
@@ -5583,9 +5583,9 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="209"/>
-      <c r="B65" s="203"/>
-      <c r="C65" s="225"/>
+      <c r="A65" s="243"/>
+      <c r="B65" s="276"/>
+      <c r="C65" s="299"/>
       <c r="D65" s="107" t="s">
         <v>315</v>
       </c>
@@ -5604,47 +5604,47 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="209"/>
-      <c r="B66" s="203"/>
-      <c r="C66" s="225"/>
+      <c r="A66" s="243"/>
+      <c r="B66" s="276"/>
+      <c r="C66" s="299"/>
       <c r="D66" s="117" t="s">
         <v>316</v>
       </c>
       <c r="E66" s="194"/>
       <c r="F66" s="194"/>
-      <c r="G66" s="268" t="s">
+      <c r="G66" s="270" t="s">
         <v>285</v>
       </c>
-      <c r="H66" s="268"/>
-      <c r="I66" s="269"/>
+      <c r="H66" s="270"/>
+      <c r="I66" s="271"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="209"/>
-      <c r="B67" s="203"/>
-      <c r="C67" s="215"/>
+      <c r="A67" s="243"/>
+      <c r="B67" s="276"/>
+      <c r="C67" s="257"/>
       <c r="D67" s="117" t="s">
         <v>317</v>
       </c>
       <c r="E67" s="195"/>
       <c r="F67" s="195"/>
-      <c r="G67" s="270" t="s">
+      <c r="G67" s="272" t="s">
         <v>285</v>
       </c>
-      <c r="H67" s="270"/>
-      <c r="I67" s="271"/>
+      <c r="H67" s="272"/>
+      <c r="I67" s="273"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="209"/>
-      <c r="B68" s="203"/>
-      <c r="C68" s="259" t="s">
+      <c r="A68" s="243"/>
+      <c r="B68" s="276"/>
+      <c r="C68" s="260" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="136" t="s">
@@ -5668,9 +5668,9 @@
       <c r="M68" s="147"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="209"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="260"/>
+      <c r="A69" s="243"/>
+      <c r="B69" s="276"/>
+      <c r="C69" s="261"/>
       <c r="D69" s="106" t="s">
         <v>319</v>
       </c>
@@ -5678,20 +5678,20 @@
       <c r="F69" s="75">
         <v>1</v>
       </c>
-      <c r="G69" s="234" t="s">
+      <c r="G69" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="H69" s="235"/>
-      <c r="I69" s="236"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="221"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="209"/>
-      <c r="B70" s="203"/>
-      <c r="C70" s="260"/>
+      <c r="A70" s="243"/>
+      <c r="B70" s="276"/>
+      <c r="C70" s="261"/>
       <c r="D70" s="107" t="s">
         <v>320</v>
       </c>
@@ -5710,9 +5710,9 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="209"/>
-      <c r="B71" s="203"/>
-      <c r="C71" s="260"/>
+      <c r="A71" s="243"/>
+      <c r="B71" s="276"/>
+      <c r="C71" s="261"/>
       <c r="D71" s="107" t="s">
         <v>321</v>
       </c>
@@ -5731,9 +5731,9 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="209"/>
-      <c r="B72" s="203"/>
-      <c r="C72" s="204" t="s">
+      <c r="A72" s="243"/>
+      <c r="B72" s="276"/>
+      <c r="C72" s="258" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="137" t="s">
@@ -5757,9 +5757,9 @@
       <c r="M72" s="147"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="209"/>
-      <c r="B73" s="203"/>
-      <c r="C73" s="205"/>
+      <c r="A73" s="243"/>
+      <c r="B73" s="276"/>
+      <c r="C73" s="259"/>
       <c r="D73" s="107" t="s">
         <v>323</v>
       </c>
@@ -5767,20 +5767,20 @@
       <c r="F73" s="133">
         <v>1</v>
       </c>
-      <c r="G73" s="228" t="s">
+      <c r="G73" s="277" t="s">
         <v>354</v>
       </c>
-      <c r="H73" s="229"/>
-      <c r="I73" s="230"/>
+      <c r="H73" s="278"/>
+      <c r="I73" s="279"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1">
-      <c r="A74" s="209"/>
-      <c r="B74" s="203"/>
-      <c r="C74" s="205"/>
+      <c r="A74" s="243"/>
+      <c r="B74" s="276"/>
+      <c r="C74" s="259"/>
       <c r="D74" s="117" t="s">
         <v>316</v>
       </c>
@@ -5788,18 +5788,18 @@
       <c r="F74" s="133">
         <v>1</v>
       </c>
-      <c r="G74" s="231"/>
-      <c r="H74" s="232"/>
-      <c r="I74" s="233"/>
+      <c r="G74" s="280"/>
+      <c r="H74" s="281"/>
+      <c r="I74" s="282"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A75" s="216"/>
-      <c r="B75" s="203"/>
-      <c r="C75" s="205"/>
+      <c r="A75" s="244"/>
+      <c r="B75" s="276"/>
+      <c r="C75" s="259"/>
       <c r="D75" s="107" t="s">
         <v>324</v>
       </c>
@@ -5818,13 +5818,13 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="208" t="s">
+      <c r="A76" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="202" t="s">
+      <c r="B76" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="204" t="s">
+      <c r="C76" s="258" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="136" t="s">
@@ -5848,9 +5848,9 @@
       <c r="M76" s="147"/>
     </row>
     <row r="77" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A77" s="209"/>
-      <c r="B77" s="203"/>
-      <c r="C77" s="205"/>
+      <c r="A77" s="243"/>
+      <c r="B77" s="276"/>
+      <c r="C77" s="259"/>
       <c r="D77" s="119" t="s">
         <v>193</v>
       </c>
@@ -5869,9 +5869,9 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A78" s="209"/>
-      <c r="B78" s="203"/>
-      <c r="C78" s="205"/>
+      <c r="A78" s="243"/>
+      <c r="B78" s="276"/>
+      <c r="C78" s="259"/>
       <c r="D78" s="119" t="s">
         <v>103</v>
       </c>
@@ -5890,9 +5890,9 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1">
-      <c r="A79" s="209"/>
-      <c r="B79" s="203"/>
-      <c r="C79" s="205"/>
+      <c r="A79" s="243"/>
+      <c r="B79" s="276"/>
+      <c r="C79" s="259"/>
       <c r="D79" s="119" t="s">
         <v>104</v>
       </c>
@@ -5911,9 +5911,9 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" ht="15.75">
-      <c r="A80" s="209"/>
-      <c r="B80" s="203"/>
-      <c r="C80" s="204" t="s">
+      <c r="A80" s="243"/>
+      <c r="B80" s="276"/>
+      <c r="C80" s="258" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="136" t="s">
@@ -5937,9 +5937,9 @@
       <c r="M80" s="96"/>
     </row>
     <row r="81" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A81" s="209"/>
-      <c r="B81" s="203"/>
-      <c r="C81" s="205"/>
+      <c r="A81" s="243"/>
+      <c r="B81" s="276"/>
+      <c r="C81" s="259"/>
       <c r="D81" s="119" t="s">
         <v>59</v>
       </c>
@@ -5958,9 +5958,9 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A82" s="209"/>
-      <c r="B82" s="203"/>
-      <c r="C82" s="205"/>
+      <c r="A82" s="243"/>
+      <c r="B82" s="276"/>
+      <c r="C82" s="259"/>
       <c r="D82" s="119" t="s">
         <v>106</v>
       </c>
@@ -5979,28 +5979,28 @@
       <c r="M82" s="93"/>
     </row>
     <row r="83" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A83" s="209"/>
-      <c r="B83" s="203"/>
-      <c r="C83" s="205"/>
+      <c r="A83" s="243"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="259"/>
       <c r="D83" s="119" t="s">
         <v>107</v>
       </c>
       <c r="E83" s="185"/>
       <c r="F83" s="185"/>
-      <c r="G83" s="237" t="s">
+      <c r="G83" s="283" t="s">
         <v>282</v>
       </c>
-      <c r="H83" s="237"/>
-      <c r="I83" s="238"/>
+      <c r="H83" s="283"/>
+      <c r="I83" s="284"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="93"/>
     </row>
     <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="209"/>
-      <c r="B84" s="203"/>
-      <c r="C84" s="206" t="s">
+      <c r="A84" s="243"/>
+      <c r="B84" s="276"/>
+      <c r="C84" s="248" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="138" t="s">
@@ -6024,9 +6024,9 @@
       <c r="M84" s="147"/>
     </row>
     <row r="85" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A85" s="209"/>
-      <c r="B85" s="203"/>
-      <c r="C85" s="207"/>
+      <c r="A85" s="243"/>
+      <c r="B85" s="276"/>
+      <c r="C85" s="249"/>
       <c r="D85" s="119" t="s">
         <v>331</v>
       </c>
@@ -6045,28 +6045,28 @@
       <c r="M85" s="93"/>
     </row>
     <row r="86" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A86" s="209"/>
-      <c r="B86" s="203"/>
-      <c r="C86" s="207"/>
+      <c r="A86" s="243"/>
+      <c r="B86" s="276"/>
+      <c r="C86" s="249"/>
       <c r="D86" s="119" t="s">
         <v>195</v>
       </c>
       <c r="E86" s="187"/>
       <c r="F86" s="187"/>
-      <c r="G86" s="239" t="s">
+      <c r="G86" s="235" t="s">
         <v>282</v>
       </c>
-      <c r="H86" s="239"/>
-      <c r="I86" s="240"/>
+      <c r="H86" s="235"/>
+      <c r="I86" s="236"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="93"/>
     </row>
     <row r="87" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A87" s="209"/>
-      <c r="B87" s="203"/>
-      <c r="C87" s="207"/>
+      <c r="A87" s="243"/>
+      <c r="B87" s="276"/>
+      <c r="C87" s="249"/>
       <c r="D87" s="107" t="s">
         <v>196</v>
       </c>
@@ -6085,9 +6085,9 @@
       <c r="M87" s="93"/>
     </row>
     <row r="88" spans="1:13" ht="42" customHeight="1">
-      <c r="A88" s="209"/>
-      <c r="B88" s="203"/>
-      <c r="C88" s="207"/>
+      <c r="A88" s="243"/>
+      <c r="B88" s="276"/>
+      <c r="C88" s="249"/>
       <c r="D88" s="117" t="s">
         <v>58</v>
       </c>
@@ -6106,9 +6106,9 @@
       <c r="M88" s="93"/>
     </row>
     <row r="89" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A89" s="209"/>
-      <c r="B89" s="203"/>
-      <c r="C89" s="207"/>
+      <c r="A89" s="243"/>
+      <c r="B89" s="276"/>
+      <c r="C89" s="249"/>
       <c r="D89" s="107" t="s">
         <v>197</v>
       </c>
@@ -6127,13 +6127,13 @@
       <c r="M89" s="93"/>
     </row>
     <row r="90" spans="1:13" ht="25.5">
-      <c r="A90" s="208" t="s">
+      <c r="A90" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="202" t="s">
+      <c r="B90" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="206" t="s">
+      <c r="C90" s="248" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="137" t="s">
@@ -6157,9 +6157,9 @@
       <c r="M90" s="147"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="209"/>
-      <c r="B91" s="203"/>
-      <c r="C91" s="207"/>
+      <c r="A91" s="243"/>
+      <c r="B91" s="276"/>
+      <c r="C91" s="249"/>
       <c r="D91" s="117" t="s">
         <v>110</v>
       </c>
@@ -6167,20 +6167,20 @@
       <c r="F91" s="75">
         <v>1</v>
       </c>
-      <c r="G91" s="234" t="s">
+      <c r="G91" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H91" s="235"/>
-      <c r="I91" s="236"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="221"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="93"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A92" s="209"/>
-      <c r="B92" s="203"/>
-      <c r="C92" s="207"/>
+      <c r="A92" s="243"/>
+      <c r="B92" s="276"/>
+      <c r="C92" s="249"/>
       <c r="D92" s="117" t="s">
         <v>198</v>
       </c>
@@ -6199,9 +6199,9 @@
       <c r="M92" s="93"/>
     </row>
     <row r="93" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A93" s="209"/>
-      <c r="B93" s="203"/>
-      <c r="C93" s="207"/>
+      <c r="A93" s="243"/>
+      <c r="B93" s="276"/>
+      <c r="C93" s="249"/>
       <c r="D93" s="117" t="s">
         <v>60</v>
       </c>
@@ -6220,9 +6220,9 @@
       <c r="M93" s="93"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="209"/>
-      <c r="B94" s="203"/>
-      <c r="C94" s="206" t="s">
+      <c r="A94" s="243"/>
+      <c r="B94" s="276"/>
+      <c r="C94" s="248" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="137" t="s">
@@ -6246,9 +6246,9 @@
       <c r="M94" s="147"/>
     </row>
     <row r="95" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A95" s="209"/>
-      <c r="B95" s="203"/>
-      <c r="C95" s="207"/>
+      <c r="A95" s="243"/>
+      <c r="B95" s="276"/>
+      <c r="C95" s="249"/>
       <c r="D95" s="117" t="s">
         <v>200</v>
       </c>
@@ -6256,20 +6256,20 @@
       <c r="F95" s="75">
         <v>1</v>
       </c>
-      <c r="G95" s="234" t="s">
+      <c r="G95" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="235"/>
-      <c r="I95" s="236"/>
+      <c r="H95" s="220"/>
+      <c r="I95" s="221"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="93"/>
     </row>
     <row r="96" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A96" s="209"/>
-      <c r="B96" s="203"/>
-      <c r="C96" s="207"/>
+      <c r="A96" s="243"/>
+      <c r="B96" s="276"/>
+      <c r="C96" s="249"/>
       <c r="D96" s="117" t="s">
         <v>201</v>
       </c>
@@ -6288,28 +6288,28 @@
       <c r="M96" s="93"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1">
-      <c r="A97" s="209"/>
-      <c r="B97" s="203"/>
-      <c r="C97" s="207"/>
+      <c r="A97" s="243"/>
+      <c r="B97" s="276"/>
+      <c r="C97" s="249"/>
       <c r="D97" s="117" t="s">
         <v>202</v>
       </c>
       <c r="E97" s="187"/>
       <c r="F97" s="187"/>
-      <c r="G97" s="239" t="s">
+      <c r="G97" s="235" t="s">
         <v>286</v>
       </c>
-      <c r="H97" s="239"/>
-      <c r="I97" s="240"/>
+      <c r="H97" s="235"/>
+      <c r="I97" s="236"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="93"/>
     </row>
     <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="209"/>
-      <c r="B98" s="203"/>
-      <c r="C98" s="206" t="s">
+      <c r="A98" s="243"/>
+      <c r="B98" s="276"/>
+      <c r="C98" s="248" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="137" t="s">
@@ -6333,9 +6333,9 @@
       <c r="M98" s="147"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1">
-      <c r="A99" s="209"/>
-      <c r="B99" s="203"/>
-      <c r="C99" s="207"/>
+      <c r="A99" s="243"/>
+      <c r="B99" s="276"/>
+      <c r="C99" s="249"/>
       <c r="D99" s="117" t="s">
         <v>61</v>
       </c>
@@ -6343,20 +6343,20 @@
       <c r="F99" s="75">
         <v>1</v>
       </c>
-      <c r="G99" s="234" t="s">
+      <c r="G99" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="235"/>
-      <c r="I99" s="236"/>
+      <c r="H99" s="220"/>
+      <c r="I99" s="221"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="93"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1">
-      <c r="A100" s="209"/>
-      <c r="B100" s="203"/>
-      <c r="C100" s="207"/>
+      <c r="A100" s="243"/>
+      <c r="B100" s="276"/>
+      <c r="C100" s="249"/>
       <c r="D100" s="117" t="s">
         <v>62</v>
       </c>
@@ -6375,28 +6375,28 @@
       <c r="M100" s="93"/>
     </row>
     <row r="101" spans="1:13" ht="42" customHeight="1">
-      <c r="A101" s="209"/>
-      <c r="B101" s="203"/>
-      <c r="C101" s="207"/>
+      <c r="A101" s="243"/>
+      <c r="B101" s="276"/>
+      <c r="C101" s="249"/>
       <c r="D101" s="117" t="s">
         <v>63</v>
       </c>
       <c r="E101" s="189"/>
       <c r="F101" s="189"/>
-      <c r="G101" s="289" t="s">
+      <c r="G101" s="222" t="s">
         <v>285</v>
       </c>
-      <c r="H101" s="289"/>
-      <c r="I101" s="290"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="223"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="51">
-      <c r="A102" s="209"/>
-      <c r="B102" s="203"/>
-      <c r="C102" s="206" t="s">
+      <c r="A102" s="243"/>
+      <c r="B102" s="276"/>
+      <c r="C102" s="248" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="137" t="s">
@@ -6420,9 +6420,9 @@
       <c r="M102" s="147"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="209"/>
-      <c r="B103" s="203"/>
-      <c r="C103" s="207"/>
+      <c r="A103" s="243"/>
+      <c r="B103" s="276"/>
+      <c r="C103" s="249"/>
       <c r="D103" s="117" t="s">
         <v>204</v>
       </c>
@@ -6441,45 +6441,45 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A104" s="209"/>
-      <c r="B104" s="203"/>
-      <c r="C104" s="207"/>
+      <c r="A104" s="243"/>
+      <c r="B104" s="276"/>
+      <c r="C104" s="249"/>
       <c r="D104" s="117" t="s">
         <v>205</v>
       </c>
       <c r="E104" s="190"/>
       <c r="F104" s="190"/>
-      <c r="G104" s="285" t="s">
+      <c r="G104" s="215" t="s">
         <v>364</v>
       </c>
-      <c r="H104" s="280"/>
-      <c r="I104" s="281"/>
+      <c r="H104" s="210"/>
+      <c r="I104" s="211"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="93"/>
     </row>
     <row r="105" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A105" s="209"/>
-      <c r="B105" s="203"/>
-      <c r="C105" s="207"/>
+      <c r="A105" s="243"/>
+      <c r="B105" s="276"/>
+      <c r="C105" s="249"/>
       <c r="D105" s="117" t="s">
         <v>206</v>
       </c>
       <c r="E105" s="190"/>
       <c r="F105" s="190"/>
-      <c r="G105" s="282"/>
-      <c r="H105" s="283"/>
-      <c r="I105" s="284"/>
+      <c r="G105" s="212"/>
+      <c r="H105" s="213"/>
+      <c r="I105" s="214"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="93"/>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="209"/>
-      <c r="B106" s="203"/>
-      <c r="C106" s="204" t="s">
+      <c r="A106" s="243"/>
+      <c r="B106" s="276"/>
+      <c r="C106" s="258" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="136" t="s">
@@ -6503,9 +6503,9 @@
       <c r="M106" s="147"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="209"/>
-      <c r="B107" s="203"/>
-      <c r="C107" s="205"/>
+      <c r="A107" s="243"/>
+      <c r="B107" s="276"/>
+      <c r="C107" s="259"/>
       <c r="D107" s="119" t="s">
         <v>325</v>
       </c>
@@ -6524,9 +6524,9 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A108" s="209"/>
-      <c r="B108" s="203"/>
-      <c r="C108" s="205"/>
+      <c r="A108" s="243"/>
+      <c r="B108" s="276"/>
+      <c r="C108" s="259"/>
       <c r="D108" s="119" t="s">
         <v>64</v>
       </c>
@@ -6545,9 +6545,9 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A109" s="209"/>
-      <c r="B109" s="203"/>
-      <c r="C109" s="205"/>
+      <c r="A109" s="243"/>
+      <c r="B109" s="276"/>
+      <c r="C109" s="259"/>
       <c r="D109" s="119" t="s">
         <v>113</v>
       </c>
@@ -6566,9 +6566,9 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="38.25">
-      <c r="A110" s="209"/>
-      <c r="B110" s="203"/>
-      <c r="C110" s="204" t="s">
+      <c r="A110" s="243"/>
+      <c r="B110" s="276"/>
+      <c r="C110" s="258" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="137" t="s">
@@ -6590,9 +6590,9 @@
       <c r="M110" s="147"/>
     </row>
     <row r="111" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A111" s="209"/>
-      <c r="B111" s="203"/>
-      <c r="C111" s="205"/>
+      <c r="A111" s="243"/>
+      <c r="B111" s="276"/>
+      <c r="C111" s="259"/>
       <c r="D111" s="107" t="s">
         <v>208</v>
       </c>
@@ -6600,20 +6600,20 @@
       <c r="F111" s="75">
         <v>0.1</v>
       </c>
-      <c r="G111" s="241" t="s">
+      <c r="G111" s="285" t="s">
         <v>359</v>
       </c>
-      <c r="H111" s="242"/>
-      <c r="I111" s="243"/>
+      <c r="H111" s="286"/>
+      <c r="I111" s="287"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="42" customHeight="1">
-      <c r="A112" s="209"/>
-      <c r="B112" s="203"/>
-      <c r="C112" s="205"/>
+      <c r="A112" s="243"/>
+      <c r="B112" s="276"/>
+      <c r="C112" s="259"/>
       <c r="D112" s="107" t="s">
         <v>209</v>
       </c>
@@ -6621,18 +6621,18 @@
       <c r="F112" s="75">
         <v>0.1</v>
       </c>
-      <c r="G112" s="244"/>
-      <c r="H112" s="245"/>
-      <c r="I112" s="246"/>
+      <c r="G112" s="288"/>
+      <c r="H112" s="289"/>
+      <c r="I112" s="290"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A113" s="209"/>
-      <c r="B113" s="203"/>
-      <c r="C113" s="205"/>
+      <c r="A113" s="243"/>
+      <c r="B113" s="276"/>
+      <c r="C113" s="259"/>
       <c r="D113" s="107" t="s">
         <v>210</v>
       </c>
@@ -6640,22 +6640,22 @@
       <c r="F113" s="75">
         <v>0.1</v>
       </c>
-      <c r="G113" s="247"/>
-      <c r="H113" s="248"/>
-      <c r="I113" s="249"/>
+      <c r="G113" s="291"/>
+      <c r="H113" s="292"/>
+      <c r="I113" s="293"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="208" t="s">
+      <c r="A114" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="211" t="s">
+      <c r="B114" s="245" t="s">
         <v>355</v>
       </c>
-      <c r="C114" s="204" t="s">
+      <c r="C114" s="258" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="136" t="s">
@@ -6679,9 +6679,9 @@
       <c r="M114" s="147"/>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1">
-      <c r="A115" s="209"/>
-      <c r="B115" s="212"/>
-      <c r="C115" s="205"/>
+      <c r="A115" s="243"/>
+      <c r="B115" s="246"/>
+      <c r="C115" s="259"/>
       <c r="D115" s="119" t="s">
         <v>327</v>
       </c>
@@ -6700,9 +6700,9 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A116" s="209"/>
-      <c r="B116" s="212"/>
-      <c r="C116" s="205"/>
+      <c r="A116" s="243"/>
+      <c r="B116" s="246"/>
+      <c r="C116" s="259"/>
       <c r="D116" s="119" t="s">
         <v>211</v>
       </c>
@@ -6721,9 +6721,9 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A117" s="209"/>
-      <c r="B117" s="212"/>
-      <c r="C117" s="205"/>
+      <c r="A117" s="243"/>
+      <c r="B117" s="246"/>
+      <c r="C117" s="259"/>
       <c r="D117" s="119" t="s">
         <v>212</v>
       </c>
@@ -6742,9 +6742,9 @@
       <c r="M117" s="93"/>
     </row>
     <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="209"/>
-      <c r="B118" s="212"/>
-      <c r="C118" s="206" t="s">
+      <c r="A118" s="243"/>
+      <c r="B118" s="246"/>
+      <c r="C118" s="248" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="136" t="s">
@@ -6768,9 +6768,9 @@
       <c r="M118" s="147"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A119" s="209"/>
-      <c r="B119" s="212"/>
-      <c r="C119" s="207"/>
+      <c r="A119" s="243"/>
+      <c r="B119" s="246"/>
+      <c r="C119" s="249"/>
       <c r="D119" s="121" t="s">
         <v>117</v>
       </c>
@@ -6789,9 +6789,9 @@
       <c r="M119" s="93"/>
     </row>
     <row r="120" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A120" s="209"/>
-      <c r="B120" s="212"/>
-      <c r="C120" s="207"/>
+      <c r="A120" s="243"/>
+      <c r="B120" s="246"/>
+      <c r="C120" s="249"/>
       <c r="D120" s="121" t="s">
         <v>118</v>
       </c>
@@ -6810,9 +6810,9 @@
       <c r="M120" s="93"/>
     </row>
     <row r="121" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A121" s="209"/>
-      <c r="B121" s="212"/>
-      <c r="C121" s="207"/>
+      <c r="A121" s="243"/>
+      <c r="B121" s="246"/>
+      <c r="C121" s="249"/>
       <c r="D121" s="117" t="s">
         <v>213</v>
       </c>
@@ -6831,9 +6831,9 @@
       <c r="M121" s="93"/>
     </row>
     <row r="122" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A122" s="209"/>
-      <c r="B122" s="212"/>
-      <c r="C122" s="207"/>
+      <c r="A122" s="243"/>
+      <c r="B122" s="246"/>
+      <c r="C122" s="249"/>
       <c r="D122" s="198" t="s">
         <v>208</v>
       </c>
@@ -6852,28 +6852,28 @@
       <c r="M122" s="93"/>
     </row>
     <row r="123" spans="1:13" ht="42" customHeight="1">
-      <c r="A123" s="209"/>
-      <c r="B123" s="212"/>
-      <c r="C123" s="207"/>
+      <c r="A123" s="243"/>
+      <c r="B123" s="246"/>
+      <c r="C123" s="249"/>
       <c r="D123" s="120" t="s">
         <v>209</v>
       </c>
       <c r="E123" s="98"/>
       <c r="F123" s="75"/>
-      <c r="G123" s="250" t="s">
+      <c r="G123" s="294" t="s">
         <v>358</v>
       </c>
-      <c r="H123" s="239"/>
-      <c r="I123" s="240"/>
+      <c r="H123" s="235"/>
+      <c r="I123" s="236"/>
       <c r="J123" s="83"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="93"/>
     </row>
     <row r="124" spans="1:13" ht="38.25">
-      <c r="A124" s="209"/>
-      <c r="B124" s="212"/>
-      <c r="C124" s="213" t="s">
+      <c r="A124" s="243"/>
+      <c r="B124" s="246"/>
+      <c r="C124" s="255" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="136" t="s">
@@ -6897,9 +6897,9 @@
       <c r="M124" s="147"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="209"/>
-      <c r="B125" s="212"/>
-      <c r="C125" s="214"/>
+      <c r="A125" s="243"/>
+      <c r="B125" s="246"/>
+      <c r="C125" s="256"/>
       <c r="D125" s="123" t="s">
         <v>215</v>
       </c>
@@ -6907,20 +6907,20 @@
       <c r="F125" s="75">
         <v>1</v>
       </c>
-      <c r="G125" s="234" t="s">
+      <c r="G125" s="219" t="s">
         <v>353</v>
       </c>
-      <c r="H125" s="254"/>
-      <c r="I125" s="255"/>
+      <c r="H125" s="240"/>
+      <c r="I125" s="241"/>
       <c r="J125" s="83"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="93"/>
     </row>
     <row r="126" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A126" s="209"/>
-      <c r="B126" s="212"/>
-      <c r="C126" s="214"/>
+      <c r="A126" s="243"/>
+      <c r="B126" s="246"/>
+      <c r="C126" s="256"/>
       <c r="D126" s="117" t="s">
         <v>216</v>
       </c>
@@ -6939,9 +6939,9 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="209"/>
-      <c r="B127" s="212"/>
-      <c r="C127" s="214"/>
+      <c r="A127" s="243"/>
+      <c r="B127" s="246"/>
+      <c r="C127" s="256"/>
       <c r="D127" s="117" t="s">
         <v>119</v>
       </c>
@@ -6960,9 +6960,9 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A128" s="209"/>
-      <c r="B128" s="212"/>
-      <c r="C128" s="215"/>
+      <c r="A128" s="243"/>
+      <c r="B128" s="246"/>
+      <c r="C128" s="257"/>
       <c r="D128" s="107" t="s">
         <v>217</v>
       </c>
@@ -6981,9 +6981,9 @@
       <c r="M128" s="93"/>
     </row>
     <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="209"/>
-      <c r="B129" s="212"/>
-      <c r="C129" s="213" t="s">
+      <c r="A129" s="243"/>
+      <c r="B129" s="246"/>
+      <c r="C129" s="255" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="148" t="s">
@@ -7007,9 +7007,9 @@
       <c r="M129" s="147"/>
     </row>
     <row r="130" spans="1:13" ht="15.75">
-      <c r="A130" s="209"/>
-      <c r="B130" s="212"/>
-      <c r="C130" s="223"/>
+      <c r="A130" s="243"/>
+      <c r="B130" s="246"/>
+      <c r="C130" s="297"/>
       <c r="D130" s="117" t="s">
         <v>351</v>
       </c>
@@ -7017,20 +7017,20 @@
       <c r="F130" s="134">
         <v>1</v>
       </c>
-      <c r="G130" s="286" t="s">
+      <c r="G130" s="216" t="s">
         <v>363</v>
       </c>
-      <c r="H130" s="287"/>
-      <c r="I130" s="288"/>
+      <c r="H130" s="217"/>
+      <c r="I130" s="218"/>
       <c r="J130" s="85"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="93"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="209"/>
-      <c r="B131" s="212"/>
-      <c r="C131" s="223"/>
+      <c r="A131" s="243"/>
+      <c r="B131" s="246"/>
+      <c r="C131" s="297"/>
       <c r="D131" s="117" t="s">
         <v>220</v>
       </c>
@@ -7049,28 +7049,28 @@
       <c r="M131" s="93"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="209"/>
-      <c r="B132" s="212"/>
-      <c r="C132" s="223"/>
+      <c r="A132" s="243"/>
+      <c r="B132" s="246"/>
+      <c r="C132" s="297"/>
       <c r="D132" s="117" t="s">
         <v>221</v>
       </c>
       <c r="E132" s="187"/>
       <c r="F132" s="187"/>
-      <c r="G132" s="239" t="s">
+      <c r="G132" s="235" t="s">
         <v>285</v>
       </c>
-      <c r="H132" s="239"/>
-      <c r="I132" s="240"/>
+      <c r="H132" s="235"/>
+      <c r="I132" s="236"/>
       <c r="J132" s="85"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="93"/>
     </row>
     <row r="133" spans="1:13" ht="25.5">
-      <c r="A133" s="209"/>
-      <c r="B133" s="212"/>
-      <c r="C133" s="206" t="s">
+      <c r="A133" s="243"/>
+      <c r="B133" s="246"/>
+      <c r="C133" s="248" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="136" t="s">
@@ -7094,9 +7094,9 @@
       <c r="M133" s="147"/>
     </row>
     <row r="134" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A134" s="209"/>
-      <c r="B134" s="212"/>
-      <c r="C134" s="207"/>
+      <c r="A134" s="243"/>
+      <c r="B134" s="246"/>
+      <c r="C134" s="249"/>
       <c r="D134" s="124" t="s">
         <v>222</v>
       </c>
@@ -7115,9 +7115,9 @@
       <c r="M134" s="93"/>
     </row>
     <row r="135" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A135" s="209"/>
-      <c r="B135" s="212"/>
-      <c r="C135" s="207"/>
+      <c r="A135" s="243"/>
+      <c r="B135" s="246"/>
+      <c r="C135" s="249"/>
       <c r="D135" s="124" t="s">
         <v>223</v>
       </c>
@@ -7136,9 +7136,9 @@
       <c r="M135" s="93"/>
     </row>
     <row r="136" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A136" s="209"/>
-      <c r="B136" s="212"/>
-      <c r="C136" s="207"/>
+      <c r="A136" s="243"/>
+      <c r="B136" s="246"/>
+      <c r="C136" s="249"/>
       <c r="D136" s="124" t="s">
         <v>224</v>
       </c>
@@ -7157,9 +7157,9 @@
       <c r="M136" s="93"/>
     </row>
     <row r="137" spans="1:13" ht="38.25">
-      <c r="A137" s="209"/>
-      <c r="B137" s="212"/>
-      <c r="C137" s="218" t="s">
+      <c r="A137" s="243"/>
+      <c r="B137" s="246"/>
+      <c r="C137" s="250" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="139" t="s">
@@ -7183,9 +7183,9 @@
       <c r="M137" s="147"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="209"/>
-      <c r="B138" s="212"/>
-      <c r="C138" s="219"/>
+      <c r="A138" s="243"/>
+      <c r="B138" s="246"/>
+      <c r="C138" s="251"/>
       <c r="D138" s="119" t="s">
         <v>226</v>
       </c>
@@ -7204,9 +7204,9 @@
       <c r="M138" s="93"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="209"/>
-      <c r="B139" s="212"/>
-      <c r="C139" s="219"/>
+      <c r="A139" s="243"/>
+      <c r="B139" s="246"/>
+      <c r="C139" s="251"/>
       <c r="D139" s="119" t="s">
         <v>352</v>
       </c>
@@ -7225,9 +7225,9 @@
       <c r="M139" s="93"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="209"/>
-      <c r="B140" s="212"/>
-      <c r="C140" s="219"/>
+      <c r="A140" s="243"/>
+      <c r="B140" s="246"/>
+      <c r="C140" s="251"/>
       <c r="D140" s="119" t="s">
         <v>228</v>
       </c>
@@ -7246,32 +7246,32 @@
       <c r="M140" s="93"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1">
-      <c r="A141" s="209"/>
-      <c r="B141" s="212"/>
-      <c r="C141" s="220"/>
+      <c r="A141" s="243"/>
+      <c r="B141" s="246"/>
+      <c r="C141" s="252"/>
       <c r="D141" s="140" t="s">
         <v>229</v>
       </c>
       <c r="E141" s="186"/>
       <c r="F141" s="186"/>
-      <c r="G141" s="272" t="s">
+      <c r="G141" s="227" t="s">
         <v>284</v>
       </c>
-      <c r="H141" s="272"/>
-      <c r="I141" s="273"/>
+      <c r="H141" s="227"/>
+      <c r="I141" s="228"/>
       <c r="J141" s="86"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="93"/>
     </row>
     <row r="142" spans="1:13" ht="51">
-      <c r="A142" s="224" t="s">
+      <c r="A142" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="202" t="s">
+      <c r="B142" s="262" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="204" t="s">
+      <c r="C142" s="258" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="136" t="s">
@@ -7295,9 +7295,9 @@
       <c r="M142" s="147"/>
     </row>
     <row r="143" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A143" s="224"/>
-      <c r="B143" s="261"/>
-      <c r="C143" s="205"/>
+      <c r="A143" s="298"/>
+      <c r="B143" s="263"/>
+      <c r="C143" s="259"/>
       <c r="D143" s="123" t="s">
         <v>230</v>
       </c>
@@ -7311,7 +7311,7 @@
       <c r="H143" s="74">
         <v>0.25</v>
       </c>
-      <c r="I143" s="308" t="s">
+      <c r="I143" s="202" t="s">
         <v>365</v>
       </c>
       <c r="J143" s="5"/>
@@ -7320,9 +7320,9 @@
       <c r="M143" s="93"/>
     </row>
     <row r="144" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A144" s="224"/>
-      <c r="B144" s="261"/>
-      <c r="C144" s="205"/>
+      <c r="A144" s="298"/>
+      <c r="B144" s="263"/>
+      <c r="C144" s="259"/>
       <c r="D144" s="121" t="s">
         <v>65</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="H144" s="74">
         <v>0.25</v>
       </c>
-      <c r="I144" s="308" t="s">
+      <c r="I144" s="202" t="s">
         <v>366</v>
       </c>
       <c r="J144" s="86"/>
@@ -7345,9 +7345,9 @@
       <c r="M144" s="93"/>
     </row>
     <row r="145" spans="1:13" ht="78" customHeight="1">
-      <c r="A145" s="224"/>
-      <c r="B145" s="261"/>
-      <c r="C145" s="205"/>
+      <c r="A145" s="298"/>
+      <c r="B145" s="263"/>
+      <c r="C145" s="259"/>
       <c r="D145" s="117" t="s">
         <v>66</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="H145" s="74">
         <v>0.25</v>
       </c>
-      <c r="I145" s="309" t="s">
+      <c r="I145" s="203" t="s">
         <v>367</v>
       </c>
       <c r="J145" s="5"/>
@@ -7370,9 +7370,9 @@
       <c r="M145" s="93"/>
     </row>
     <row r="146" spans="1:13" ht="143.25" customHeight="1">
-      <c r="A146" s="224"/>
-      <c r="B146" s="261"/>
-      <c r="C146" s="205"/>
+      <c r="A146" s="298"/>
+      <c r="B146" s="263"/>
+      <c r="C146" s="259"/>
       <c r="D146" s="117" t="s">
         <v>67</v>
       </c>
@@ -7386,7 +7386,7 @@
       <c r="H146" s="74">
         <v>0.25</v>
       </c>
-      <c r="I146" s="309" t="s">
+      <c r="I146" s="203" t="s">
         <v>371</v>
       </c>
       <c r="J146" s="86"/>
@@ -7395,9 +7395,9 @@
       <c r="M146" s="93"/>
     </row>
     <row r="147" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A147" s="224"/>
-      <c r="B147" s="261"/>
-      <c r="C147" s="204" t="s">
+      <c r="A147" s="298"/>
+      <c r="B147" s="263"/>
+      <c r="C147" s="258" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="136" t="s">
@@ -7423,9 +7423,9 @@
       <c r="M147" s="147"/>
     </row>
     <row r="148" spans="1:13" ht="42" customHeight="1">
-      <c r="A148" s="224"/>
-      <c r="B148" s="261"/>
-      <c r="C148" s="205"/>
+      <c r="A148" s="298"/>
+      <c r="B148" s="263"/>
+      <c r="C148" s="259"/>
       <c r="D148" s="121" t="s">
         <v>124</v>
       </c>
@@ -7446,9 +7446,9 @@
       <c r="M148" s="93"/>
     </row>
     <row r="149" spans="1:13" ht="45" customHeight="1">
-      <c r="A149" s="224"/>
-      <c r="B149" s="261"/>
-      <c r="C149" s="205"/>
+      <c r="A149" s="298"/>
+      <c r="B149" s="263"/>
+      <c r="C149" s="259"/>
       <c r="D149" s="121" t="s">
         <v>332</v>
       </c>
@@ -7469,9 +7469,9 @@
       <c r="M149" s="93"/>
     </row>
     <row r="150" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A150" s="224"/>
-      <c r="B150" s="261"/>
-      <c r="C150" s="205"/>
+      <c r="A150" s="298"/>
+      <c r="B150" s="263"/>
+      <c r="C150" s="259"/>
       <c r="D150" s="121" t="s">
         <v>125</v>
       </c>
@@ -7490,9 +7490,9 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="1:13" ht="38.25">
-      <c r="A151" s="224"/>
-      <c r="B151" s="261"/>
-      <c r="C151" s="204" t="s">
+      <c r="A151" s="298"/>
+      <c r="B151" s="263"/>
+      <c r="C151" s="258" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="137" t="s">
@@ -7516,9 +7516,9 @@
       <c r="M151" s="147"/>
     </row>
     <row r="152" spans="1:13" ht="38.25">
-      <c r="A152" s="224"/>
-      <c r="B152" s="261"/>
-      <c r="C152" s="205"/>
+      <c r="A152" s="298"/>
+      <c r="B152" s="263"/>
+      <c r="C152" s="259"/>
       <c r="D152" s="117" t="s">
         <v>233</v>
       </c>
@@ -7537,9 +7537,9 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="38.25">
-      <c r="A153" s="224"/>
-      <c r="B153" s="261"/>
-      <c r="C153" s="205"/>
+      <c r="A153" s="298"/>
+      <c r="B153" s="263"/>
+      <c r="C153" s="259"/>
       <c r="D153" s="117" t="s">
         <v>234</v>
       </c>
@@ -7558,9 +7558,9 @@
       <c r="M153" s="3"/>
     </row>
     <row r="154" spans="1:13" ht="38.25">
-      <c r="A154" s="224"/>
-      <c r="B154" s="261"/>
-      <c r="C154" s="205"/>
+      <c r="A154" s="298"/>
+      <c r="B154" s="263"/>
+      <c r="C154" s="259"/>
       <c r="D154" s="117" t="s">
         <v>235</v>
       </c>
@@ -7579,9 +7579,9 @@
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="51">
-      <c r="A155" s="224"/>
-      <c r="B155" s="261"/>
-      <c r="C155" s="204" t="s">
+      <c r="A155" s="298"/>
+      <c r="B155" s="263"/>
+      <c r="C155" s="258" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="137" t="s">
@@ -7605,9 +7605,9 @@
       <c r="M155" s="147"/>
     </row>
     <row r="156" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A156" s="224"/>
-      <c r="B156" s="261"/>
-      <c r="C156" s="205"/>
+      <c r="A156" s="298"/>
+      <c r="B156" s="263"/>
+      <c r="C156" s="259"/>
       <c r="D156" s="119" t="s">
         <v>237</v>
       </c>
@@ -7626,9 +7626,9 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="42" customHeight="1">
-      <c r="A157" s="224"/>
-      <c r="B157" s="261"/>
-      <c r="C157" s="205"/>
+      <c r="A157" s="298"/>
+      <c r="B157" s="263"/>
+      <c r="C157" s="259"/>
       <c r="D157" s="117" t="s">
         <v>238</v>
       </c>
@@ -7647,9 +7647,9 @@
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A158" s="224"/>
-      <c r="B158" s="261"/>
-      <c r="C158" s="205"/>
+      <c r="A158" s="298"/>
+      <c r="B158" s="263"/>
+      <c r="C158" s="259"/>
       <c r="D158" s="117" t="s">
         <v>239</v>
       </c>
@@ -7668,9 +7668,9 @@
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="25.5">
-      <c r="A159" s="224"/>
-      <c r="B159" s="261"/>
-      <c r="C159" s="204" t="s">
+      <c r="A159" s="298"/>
+      <c r="B159" s="263"/>
+      <c r="C159" s="258" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="137" t="s">
@@ -7693,10 +7693,10 @@
       <c r="L159" s="146"/>
       <c r="M159" s="147"/>
     </row>
-    <row r="160" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A160" s="224"/>
-      <c r="B160" s="261"/>
-      <c r="C160" s="205"/>
+    <row r="160" spans="1:13" ht="51.75" customHeight="1">
+      <c r="A160" s="298"/>
+      <c r="B160" s="263"/>
+      <c r="C160" s="259"/>
       <c r="D160" s="121" t="s">
         <v>241</v>
       </c>
@@ -7710,8 +7710,8 @@
       <c r="H160" s="75">
         <v>0.08</v>
       </c>
-      <c r="I160" s="310" t="s">
-        <v>372</v>
+      <c r="I160" s="204" t="s">
+        <v>373</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -7719,9 +7719,9 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:18" ht="29.25" customHeight="1">
-      <c r="A161" s="224"/>
-      <c r="B161" s="261"/>
-      <c r="C161" s="205"/>
+      <c r="A161" s="298"/>
+      <c r="B161" s="263"/>
+      <c r="C161" s="259"/>
       <c r="D161" s="121" t="s">
         <v>242</v>
       </c>
@@ -7735,8 +7735,8 @@
       <c r="H161" s="75">
         <v>0.08</v>
       </c>
-      <c r="I161" s="311" t="s">
-        <v>373</v>
+      <c r="I161" s="205" t="s">
+        <v>374</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -7744,9 +7744,9 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A162" s="224"/>
-      <c r="B162" s="261"/>
-      <c r="C162" s="205"/>
+      <c r="A162" s="298"/>
+      <c r="B162" s="263"/>
+      <c r="C162" s="259"/>
       <c r="D162" s="121" t="s">
         <v>243</v>
       </c>
@@ -7760,8 +7760,8 @@
       <c r="H162" s="75">
         <v>0.08</v>
       </c>
-      <c r="I162" s="311" t="s">
-        <v>374</v>
+      <c r="I162" s="205" t="s">
+        <v>372</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -7770,8 +7770,8 @@
     </row>
     <row r="163" spans="1:18" ht="25.5">
       <c r="A163" s="69"/>
-      <c r="B163" s="261"/>
-      <c r="C163" s="226" t="s">
+      <c r="B163" s="263"/>
+      <c r="C163" s="274" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="137" t="s">
@@ -7796,8 +7796,8 @@
     </row>
     <row r="164" spans="1:18" ht="43.5" customHeight="1">
       <c r="A164" s="69"/>
-      <c r="B164" s="261"/>
-      <c r="C164" s="227"/>
+      <c r="B164" s="263"/>
+      <c r="C164" s="275"/>
       <c r="D164" s="119" t="s">
         <v>246</v>
       </c>
@@ -7817,8 +7817,8 @@
     </row>
     <row r="165" spans="1:18" ht="42" customHeight="1">
       <c r="A165" s="69"/>
-      <c r="B165" s="261"/>
-      <c r="C165" s="227"/>
+      <c r="B165" s="263"/>
+      <c r="C165" s="275"/>
       <c r="D165" s="117" t="s">
         <v>247</v>
       </c>
@@ -7838,8 +7838,8 @@
     </row>
     <row r="166" spans="1:18" ht="31.5" customHeight="1">
       <c r="A166" s="69"/>
-      <c r="B166" s="261"/>
-      <c r="C166" s="227"/>
+      <c r="B166" s="263"/>
+      <c r="C166" s="275"/>
       <c r="D166" s="117" t="s">
         <v>248</v>
       </c>
@@ -7858,13 +7858,13 @@
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="208" t="s">
+      <c r="A167" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="222" t="s">
+      <c r="B167" s="296" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="204" t="s">
+      <c r="C167" s="258" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="150" t="s">
@@ -7888,9 +7888,9 @@
       <c r="M167" s="147"/>
     </row>
     <row r="168" spans="1:18" ht="42.75">
-      <c r="A168" s="209"/>
-      <c r="B168" s="202"/>
-      <c r="C168" s="205"/>
+      <c r="A168" s="243"/>
+      <c r="B168" s="262"/>
+      <c r="C168" s="259"/>
       <c r="D168" s="151" t="s">
         <v>342</v>
       </c>
@@ -7898,20 +7898,20 @@
       <c r="F168" s="74">
         <v>1</v>
       </c>
-      <c r="G168" s="276" t="s">
+      <c r="G168" s="206" t="s">
         <v>357</v>
       </c>
-      <c r="H168" s="277"/>
-      <c r="I168" s="278"/>
+      <c r="H168" s="207"/>
+      <c r="I168" s="208"/>
       <c r="J168" s="177"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:18" ht="28.5">
-      <c r="A169" s="209"/>
-      <c r="B169" s="202"/>
-      <c r="C169" s="205"/>
+      <c r="A169" s="243"/>
+      <c r="B169" s="262"/>
+      <c r="C169" s="259"/>
       <c r="D169" s="151" t="s">
         <v>343</v>
       </c>
@@ -7933,28 +7933,28 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="209"/>
-      <c r="B170" s="202"/>
-      <c r="C170" s="205"/>
+      <c r="A170" s="243"/>
+      <c r="B170" s="262"/>
+      <c r="C170" s="259"/>
       <c r="D170" s="152" t="s">
         <v>344</v>
       </c>
       <c r="E170" s="98"/>
       <c r="F170" s="182"/>
       <c r="G170" s="182"/>
-      <c r="H170" s="257" t="s">
+      <c r="H170" s="253" t="s">
         <v>285</v>
       </c>
-      <c r="I170" s="258"/>
+      <c r="I170" s="254"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="209"/>
-      <c r="B171" s="202"/>
-      <c r="C171" s="218" t="s">
+      <c r="A171" s="243"/>
+      <c r="B171" s="262"/>
+      <c r="C171" s="250" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="137" t="s">
@@ -7978,9 +7978,9 @@
       <c r="M171" s="147"/>
     </row>
     <row r="172" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A172" s="209"/>
-      <c r="B172" s="202"/>
-      <c r="C172" s="219"/>
+      <c r="A172" s="243"/>
+      <c r="B172" s="262"/>
+      <c r="C172" s="251"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
@@ -7988,20 +7988,20 @@
       <c r="F172" s="75">
         <v>1</v>
       </c>
-      <c r="G172" s="234" t="s">
+      <c r="G172" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H172" s="235"/>
-      <c r="I172" s="236"/>
+      <c r="H172" s="220"/>
+      <c r="I172" s="221"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="55.5" customHeight="1">
-      <c r="A173" s="209"/>
-      <c r="B173" s="202"/>
-      <c r="C173" s="219"/>
+      <c r="A173" s="243"/>
+      <c r="B173" s="262"/>
+      <c r="C173" s="251"/>
       <c r="D173" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -8010,20 +8010,20 @@
       <c r="F173" s="74">
         <v>1</v>
       </c>
-      <c r="G173" s="276" t="s">
+      <c r="G173" s="206" t="s">
         <v>363</v>
       </c>
-      <c r="H173" s="277"/>
-      <c r="I173" s="278"/>
+      <c r="H173" s="207"/>
+      <c r="I173" s="208"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A174" s="209"/>
-      <c r="B174" s="202"/>
-      <c r="C174" s="219"/>
+      <c r="A174" s="243"/>
+      <c r="B174" s="262"/>
+      <c r="C174" s="251"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
@@ -8042,28 +8042,28 @@
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="42" customHeight="1">
-      <c r="A175" s="209"/>
-      <c r="B175" s="202"/>
-      <c r="C175" s="220"/>
+      <c r="A175" s="243"/>
+      <c r="B175" s="262"/>
+      <c r="C175" s="252"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
       <c r="E175" s="186"/>
       <c r="F175" s="186"/>
-      <c r="G175" s="272" t="s">
+      <c r="G175" s="227" t="s">
         <v>286</v>
       </c>
-      <c r="H175" s="272"/>
-      <c r="I175" s="273"/>
+      <c r="H175" s="227"/>
+      <c r="I175" s="228"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="42" customHeight="1">
-      <c r="A176" s="209"/>
-      <c r="B176" s="202"/>
-      <c r="C176" s="204" t="s">
+      <c r="A176" s="243"/>
+      <c r="B176" s="262"/>
+      <c r="C176" s="258" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="137" t="s">
@@ -8087,9 +8087,9 @@
       <c r="M176" s="147"/>
     </row>
     <row r="177" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A177" s="209"/>
-      <c r="B177" s="202"/>
-      <c r="C177" s="205"/>
+      <c r="A177" s="243"/>
+      <c r="B177" s="262"/>
+      <c r="C177" s="259"/>
       <c r="D177" s="117" t="s">
         <v>129</v>
       </c>
@@ -8108,9 +8108,9 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A178" s="209"/>
-      <c r="B178" s="202"/>
-      <c r="C178" s="205"/>
+      <c r="A178" s="243"/>
+      <c r="B178" s="262"/>
+      <c r="C178" s="259"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
@@ -8129,28 +8129,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="45" customHeight="1">
-      <c r="A179" s="209"/>
-      <c r="B179" s="202"/>
-      <c r="C179" s="205"/>
+      <c r="A179" s="243"/>
+      <c r="B179" s="262"/>
+      <c r="C179" s="259"/>
       <c r="D179" s="117" t="s">
         <v>256</v>
       </c>
       <c r="E179" s="187"/>
       <c r="F179" s="187"/>
-      <c r="G179" s="239" t="s">
+      <c r="G179" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="H179" s="239"/>
-      <c r="I179" s="240"/>
+      <c r="H179" s="235"/>
+      <c r="I179" s="236"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" ht="38.25">
-      <c r="A180" s="209"/>
-      <c r="B180" s="202"/>
-      <c r="C180" s="206" t="s">
+      <c r="A180" s="243"/>
+      <c r="B180" s="262"/>
+      <c r="C180" s="248" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="137" t="s">
@@ -8174,9 +8174,9 @@
       <c r="M180" s="147"/>
     </row>
     <row r="181" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A181" s="209"/>
-      <c r="B181" s="202"/>
-      <c r="C181" s="207"/>
+      <c r="A181" s="243"/>
+      <c r="B181" s="262"/>
+      <c r="C181" s="249"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
@@ -8184,20 +8184,20 @@
       <c r="F181" s="75">
         <v>1</v>
       </c>
-      <c r="G181" s="234" t="s">
+      <c r="G181" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="H181" s="235"/>
-      <c r="I181" s="236"/>
+      <c r="H181" s="220"/>
+      <c r="I181" s="221"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="209"/>
-      <c r="B182" s="202"/>
-      <c r="C182" s="207"/>
+      <c r="A182" s="243"/>
+      <c r="B182" s="262"/>
+      <c r="C182" s="249"/>
       <c r="D182" s="107" t="s">
         <v>259</v>
       </c>
@@ -8216,32 +8216,32 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A183" s="216"/>
-      <c r="B183" s="202"/>
-      <c r="C183" s="207"/>
+      <c r="A183" s="244"/>
+      <c r="B183" s="262"/>
+      <c r="C183" s="249"/>
       <c r="D183" s="117" t="s">
         <v>260</v>
       </c>
       <c r="E183" s="191"/>
       <c r="F183" s="191"/>
-      <c r="G183" s="274" t="s">
+      <c r="G183" s="225" t="s">
         <v>284</v>
       </c>
-      <c r="H183" s="274"/>
-      <c r="I183" s="275"/>
+      <c r="H183" s="225"/>
+      <c r="I183" s="226"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="208" t="s">
+      <c r="A184" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="211" t="s">
+      <c r="B184" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="206" t="s">
+      <c r="C184" s="248" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="137" t="s">
@@ -8265,9 +8265,9 @@
       <c r="M184" s="147"/>
     </row>
     <row r="185" spans="1:13" ht="15.75">
-      <c r="A185" s="209"/>
-      <c r="B185" s="212"/>
-      <c r="C185" s="207"/>
+      <c r="A185" s="243"/>
+      <c r="B185" s="246"/>
+      <c r="C185" s="249"/>
       <c r="D185" s="117" t="s">
         <v>262</v>
       </c>
@@ -8286,9 +8286,9 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="30" customHeight="1">
-      <c r="A186" s="209"/>
-      <c r="B186" s="212"/>
-      <c r="C186" s="207"/>
+      <c r="A186" s="243"/>
+      <c r="B186" s="246"/>
+      <c r="C186" s="249"/>
       <c r="D186" s="117" t="s">
         <v>261</v>
       </c>
@@ -8307,28 +8307,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A187" s="209"/>
-      <c r="B187" s="212"/>
-      <c r="C187" s="207"/>
+      <c r="A187" s="243"/>
+      <c r="B187" s="246"/>
+      <c r="C187" s="249"/>
       <c r="D187" s="117" t="s">
         <v>263</v>
       </c>
       <c r="E187" s="187"/>
       <c r="F187" s="187"/>
-      <c r="G187" s="239" t="s">
+      <c r="G187" s="235" t="s">
         <v>284</v>
       </c>
-      <c r="H187" s="239"/>
-      <c r="I187" s="240"/>
+      <c r="H187" s="235"/>
+      <c r="I187" s="236"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
     <row r="188" spans="1:13" ht="38.25">
-      <c r="A188" s="209"/>
-      <c r="B188" s="212"/>
-      <c r="C188" s="218" t="s">
+      <c r="A188" s="243"/>
+      <c r="B188" s="246"/>
+      <c r="C188" s="250" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="141" t="s">
@@ -8352,9 +8352,9 @@
       <c r="M188" s="147"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="209"/>
-      <c r="B189" s="212"/>
-      <c r="C189" s="219"/>
+      <c r="A189" s="243"/>
+      <c r="B189" s="246"/>
+      <c r="C189" s="251"/>
       <c r="D189" s="107" t="s">
         <v>334</v>
       </c>
@@ -8362,20 +8362,20 @@
       <c r="F189" s="75">
         <v>1</v>
       </c>
-      <c r="G189" s="234" t="s">
+      <c r="G189" s="219" t="s">
         <v>353</v>
       </c>
-      <c r="H189" s="254"/>
-      <c r="I189" s="255"/>
+      <c r="H189" s="240"/>
+      <c r="I189" s="241"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="25.5">
-      <c r="A190" s="209"/>
-      <c r="B190" s="212"/>
-      <c r="C190" s="219"/>
+      <c r="A190" s="243"/>
+      <c r="B190" s="246"/>
+      <c r="C190" s="251"/>
       <c r="D190" s="121" t="s">
         <v>266</v>
       </c>
@@ -8383,20 +8383,20 @@
       <c r="F190" s="75">
         <v>1</v>
       </c>
-      <c r="G190" s="234" t="s">
+      <c r="G190" s="219" t="s">
         <v>357</v>
       </c>
-      <c r="H190" s="235"/>
-      <c r="I190" s="236"/>
+      <c r="H190" s="220"/>
+      <c r="I190" s="221"/>
       <c r="J190" s="80"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="25.5">
-      <c r="A191" s="209"/>
-      <c r="B191" s="212"/>
-      <c r="C191" s="219"/>
+      <c r="A191" s="243"/>
+      <c r="B191" s="246"/>
+      <c r="C191" s="251"/>
       <c r="D191" s="107" t="s">
         <v>335</v>
       </c>
@@ -8415,9 +8415,9 @@
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" ht="25.5">
-      <c r="A192" s="209"/>
-      <c r="B192" s="212"/>
-      <c r="C192" s="220"/>
+      <c r="A192" s="243"/>
+      <c r="B192" s="246"/>
+      <c r="C192" s="252"/>
       <c r="D192" s="117" t="s">
         <v>268</v>
       </c>
@@ -8436,9 +8436,9 @@
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:16" ht="25.5">
-      <c r="A193" s="209"/>
-      <c r="B193" s="212"/>
-      <c r="C193" s="206" t="s">
+      <c r="A193" s="243"/>
+      <c r="B193" s="246"/>
+      <c r="C193" s="248" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="141" t="s">
@@ -8462,9 +8462,9 @@
       <c r="M193" s="147"/>
     </row>
     <row r="194" spans="1:16" ht="25.5">
-      <c r="A194" s="209"/>
-      <c r="B194" s="212"/>
-      <c r="C194" s="207"/>
+      <c r="A194" s="243"/>
+      <c r="B194" s="246"/>
+      <c r="C194" s="249"/>
       <c r="D194" s="107" t="s">
         <v>270</v>
       </c>
@@ -8472,20 +8472,20 @@
       <c r="F194" s="75">
         <v>1</v>
       </c>
-      <c r="G194" s="234" t="s">
+      <c r="G194" s="219" t="s">
         <v>363</v>
       </c>
-      <c r="H194" s="235"/>
-      <c r="I194" s="236"/>
+      <c r="H194" s="220"/>
+      <c r="I194" s="221"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="25.5">
-      <c r="A195" s="209"/>
-      <c r="B195" s="212"/>
-      <c r="C195" s="207"/>
+      <c r="A195" s="243"/>
+      <c r="B195" s="246"/>
+      <c r="C195" s="249"/>
       <c r="D195" s="107" t="s">
         <v>271</v>
       </c>
@@ -8504,28 +8504,28 @@
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="209"/>
-      <c r="B196" s="212"/>
-      <c r="C196" s="207"/>
+      <c r="A196" s="243"/>
+      <c r="B196" s="246"/>
+      <c r="C196" s="249"/>
       <c r="D196" s="107" t="s">
         <v>272</v>
       </c>
       <c r="E196" s="191"/>
       <c r="F196" s="191"/>
-      <c r="G196" s="274" t="s">
+      <c r="G196" s="225" t="s">
         <v>285</v>
       </c>
-      <c r="H196" s="274"/>
-      <c r="I196" s="275"/>
+      <c r="H196" s="225"/>
+      <c r="I196" s="226"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="209"/>
-      <c r="B197" s="212"/>
-      <c r="C197" s="213" t="s">
+      <c r="A197" s="243"/>
+      <c r="B197" s="246"/>
+      <c r="C197" s="255" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="137" t="s">
@@ -8549,9 +8549,9 @@
       <c r="M197" s="147"/>
     </row>
     <row r="198" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A198" s="209"/>
-      <c r="B198" s="212"/>
-      <c r="C198" s="214"/>
+      <c r="A198" s="243"/>
+      <c r="B198" s="246"/>
+      <c r="C198" s="256"/>
       <c r="D198" s="117" t="s">
         <v>274</v>
       </c>
@@ -8559,20 +8559,20 @@
       <c r="F198" s="75">
         <v>1</v>
       </c>
-      <c r="G198" s="234" t="s">
+      <c r="G198" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H198" s="235"/>
-      <c r="I198" s="236"/>
+      <c r="H198" s="220"/>
+      <c r="I198" s="221"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A199" s="209"/>
-      <c r="B199" s="212"/>
-      <c r="C199" s="214"/>
+      <c r="A199" s="243"/>
+      <c r="B199" s="246"/>
+      <c r="C199" s="256"/>
       <c r="D199" s="117" t="s">
         <v>275</v>
       </c>
@@ -8591,9 +8591,9 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A200" s="209"/>
-      <c r="B200" s="212"/>
-      <c r="C200" s="214"/>
+      <c r="A200" s="243"/>
+      <c r="B200" s="246"/>
+      <c r="C200" s="256"/>
       <c r="D200" s="107" t="s">
         <v>276</v>
       </c>
@@ -8612,9 +8612,9 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A201" s="209"/>
-      <c r="B201" s="212"/>
-      <c r="C201" s="215"/>
+      <c r="A201" s="243"/>
+      <c r="B201" s="246"/>
+      <c r="C201" s="257"/>
       <c r="D201" s="122" t="s">
         <v>277</v>
       </c>
@@ -8633,9 +8633,9 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="30" customHeight="1">
-      <c r="A202" s="209"/>
-      <c r="B202" s="212"/>
-      <c r="C202" s="204" t="s">
+      <c r="A202" s="243"/>
+      <c r="B202" s="246"/>
+      <c r="C202" s="258" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="135" t="s">
@@ -8659,9 +8659,9 @@
       <c r="M202" s="147"/>
     </row>
     <row r="203" spans="1:16" ht="54" customHeight="1">
-      <c r="A203" s="209"/>
-      <c r="B203" s="212"/>
-      <c r="C203" s="205"/>
+      <c r="A203" s="243"/>
+      <c r="B203" s="246"/>
+      <c r="C203" s="259"/>
       <c r="D203" s="122" t="s">
         <v>279</v>
       </c>
@@ -8669,20 +8669,20 @@
       <c r="F203" s="75">
         <v>1</v>
       </c>
-      <c r="G203" s="234" t="s">
+      <c r="G203" s="219" t="s">
         <v>354</v>
       </c>
-      <c r="H203" s="235"/>
-      <c r="I203" s="236"/>
+      <c r="H203" s="220"/>
+      <c r="I203" s="221"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A204" s="209"/>
-      <c r="B204" s="212"/>
-      <c r="C204" s="205"/>
+      <c r="A204" s="243"/>
+      <c r="B204" s="246"/>
+      <c r="C204" s="259"/>
       <c r="D204" s="121" t="s">
         <v>280</v>
       </c>
@@ -8701,9 +8701,9 @@
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A205" s="216"/>
-      <c r="B205" s="256"/>
-      <c r="C205" s="205"/>
+      <c r="A205" s="244"/>
+      <c r="B205" s="247"/>
+      <c r="C205" s="259"/>
       <c r="D205" s="107" t="s">
         <v>281</v>
       </c>
@@ -8722,9 +8722,9 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A206" s="252"/>
-      <c r="B206" s="252"/>
-      <c r="C206" s="251" t="s">
+      <c r="A206" s="238"/>
+      <c r="B206" s="238"/>
+      <c r="C206" s="237" t="s">
         <v>345</v>
       </c>
       <c r="D206" s="157" t="s">
@@ -8751,9 +8751,9 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A207" s="252"/>
-      <c r="B207" s="252"/>
-      <c r="C207" s="251"/>
+      <c r="A207" s="238"/>
+      <c r="B207" s="238"/>
+      <c r="C207" s="237"/>
       <c r="D207" s="188" t="s">
         <v>347</v>
       </c>
@@ -8775,9 +8775,9 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="252"/>
-      <c r="B208" s="252"/>
-      <c r="C208" s="251"/>
+      <c r="A208" s="238"/>
+      <c r="B208" s="238"/>
+      <c r="C208" s="237"/>
       <c r="D208" s="188" t="s">
         <v>348</v>
       </c>
@@ -8796,19 +8796,19 @@
       <c r="M208" s="78"/>
     </row>
     <row r="209" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A209" s="252"/>
-      <c r="B209" s="252"/>
-      <c r="C209" s="251"/>
+      <c r="A209" s="238"/>
+      <c r="B209" s="238"/>
+      <c r="C209" s="237"/>
       <c r="D209" s="188" t="s">
         <v>349</v>
       </c>
       <c r="E209" s="165"/>
       <c r="F209" s="165"/>
-      <c r="G209" s="239" t="s">
+      <c r="G209" s="235" t="s">
         <v>350</v>
       </c>
-      <c r="H209" s="239"/>
-      <c r="I209" s="240"/>
+      <c r="H209" s="235"/>
+      <c r="I209" s="236"/>
       <c r="J209" s="159"/>
       <c r="K209" s="160"/>
       <c r="L209" s="160"/>
@@ -8934,33 +8934,66 @@
     <protectedRange sqref="D123" name="Rango1_3_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="111">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="G104:I105"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A26:A75"/>
+    <mergeCell ref="B26:B47"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A167:A183"/>
+    <mergeCell ref="B167:B183"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C179"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="A114:A141"/>
+    <mergeCell ref="B114:B141"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A142:A162"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B90:B113"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="G73:I74"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="G123:I123"/>
     <mergeCell ref="C206:C209"/>
     <mergeCell ref="B206:B209"/>
     <mergeCell ref="A206:A209"/>
@@ -8985,66 +9018,33 @@
     <mergeCell ref="G57:I60"/>
     <mergeCell ref="G66:I66"/>
     <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B90:B113"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="G73:I74"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A167:A183"/>
-    <mergeCell ref="B167:B183"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C179"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="A114:A141"/>
-    <mergeCell ref="B114:B141"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A142:A162"/>
-    <mergeCell ref="B61:B75"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="A90:A113"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A7:A25"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A26:A75"/>
-    <mergeCell ref="B26:B47"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G12:I13"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E34 E39 E44:E45 E48:E56 E61:E62 E68:E69 E72:E74 E76:E77 E79:E81 E84:E85 E87:E91 E93:E95 E98:E99 E102 E106:E130 E133:E139 E142 E147:E172 E176:E178 E180:E181 E184:E186 E188:E189 E193:E194 E197:E199 E202:E203">
     <cfRule type="iconSet" priority="2">
@@ -9120,36 +9120,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="308" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="301"/>
-      <c r="Q5" s="299" t="s">
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="310"/>
+      <c r="Q5" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="300"/>
-      <c r="U5" s="300"/>
-      <c r="V5" s="300"/>
-      <c r="W5" s="300"/>
-      <c r="X5" s="300"/>
-      <c r="Y5" s="300"/>
-      <c r="Z5" s="300"/>
-      <c r="AA5" s="300"/>
-      <c r="AB5" s="300"/>
-      <c r="AC5" s="301"/>
+      <c r="R5" s="309"/>
+      <c r="S5" s="309"/>
+      <c r="T5" s="309"/>
+      <c r="U5" s="309"/>
+      <c r="V5" s="309"/>
+      <c r="W5" s="309"/>
+      <c r="X5" s="309"/>
+      <c r="Y5" s="309"/>
+      <c r="Z5" s="309"/>
+      <c r="AA5" s="309"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="310"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -9343,7 +9343,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="260" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -9414,7 +9414,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="260"/>
+      <c r="A9" s="261"/>
       <c r="B9" s="106" t="s">
         <v>155</v>
       </c>
@@ -9483,7 +9483,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="260"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="107" t="s">
         <v>156</v>
       </c>
@@ -9550,7 +9550,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="260"/>
+      <c r="A11" s="261"/>
       <c r="B11" s="106" t="s">
         <v>157</v>
       </c>
@@ -9618,7 +9618,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="259" t="s">
+      <c r="A12" s="260" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9688,7 +9688,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="260"/>
+      <c r="A13" s="261"/>
       <c r="B13" s="108" t="s">
         <v>158</v>
       </c>
@@ -9756,7 +9756,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="260"/>
+      <c r="A14" s="261"/>
       <c r="B14" s="108" t="s">
         <v>159</v>
       </c>
@@ -9824,7 +9824,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="260"/>
+      <c r="A15" s="261"/>
       <c r="B15" s="107" t="s">
         <v>160</v>
       </c>
@@ -9892,7 +9892,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="259" t="s">
+      <c r="A16" s="260" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -9961,7 +9961,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="260"/>
+      <c r="A17" s="261"/>
       <c r="B17" s="108" t="s">
         <v>75</v>
       </c>
@@ -10028,7 +10028,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="260"/>
+      <c r="A18" s="261"/>
       <c r="B18" s="108" t="s">
         <v>76</v>
       </c>
@@ -10095,7 +10095,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="260"/>
+      <c r="A19" s="261"/>
       <c r="B19" s="108" t="s">
         <v>77</v>
       </c>
@@ -10162,7 +10162,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="260"/>
+      <c r="A20" s="261"/>
       <c r="B20" s="108" t="s">
         <v>78</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="210"/>
+      <c r="A26" s="300"/>
       <c r="B26" s="105" t="s">
         <v>162</v>
       </c>
@@ -10632,7 +10632,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="259" t="s">
+      <c r="A27" s="260" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="259" t="s">
+      <c r="A31" s="260" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -10974,7 +10974,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="260"/>
+      <c r="A32" s="261"/>
       <c r="B32" s="112" t="s">
         <v>167</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="260"/>
+      <c r="A33" s="261"/>
       <c r="B33" s="112" t="s">
         <v>86</v>
       </c>
@@ -11106,7 +11106,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="260"/>
+      <c r="A34" s="261"/>
       <c r="B34" s="112" t="s">
         <v>168</v>
       </c>
@@ -11438,7 +11438,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="210"/>
+      <c r="A39" s="300"/>
       <c r="B39" s="113" t="s">
         <v>90</v>
       </c>
@@ -11504,7 +11504,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="259" t="s">
+      <c r="A40" s="260" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -11572,7 +11572,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="260"/>
+      <c r="A41" s="261"/>
       <c r="B41" s="110" t="s">
         <v>56</v>
       </c>
@@ -11638,7 +11638,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="260"/>
+      <c r="A42" s="261"/>
       <c r="B42" s="110" t="s">
         <v>92</v>
       </c>
@@ -11704,7 +11704,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="260"/>
+      <c r="A43" s="261"/>
       <c r="B43" s="110" t="s">
         <v>57</v>
       </c>
@@ -11772,7 +11772,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="260"/>
+      <c r="A44" s="261"/>
       <c r="B44" s="110" t="s">
         <v>93</v>
       </c>
@@ -11840,7 +11840,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="259" t="s">
+      <c r="A45" s="260" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -11909,7 +11909,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="260"/>
+      <c r="A46" s="261"/>
       <c r="B46" s="113" t="s">
         <v>170</v>
       </c>
@@ -11977,7 +11977,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="260"/>
+      <c r="A47" s="261"/>
       <c r="B47" s="113" t="s">
         <v>171</v>
       </c>
@@ -12045,7 +12045,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="260"/>
+      <c r="A48" s="261"/>
       <c r="B48" s="114" t="s">
         <v>172</v>
       </c>
@@ -12113,7 +12113,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="259" t="s">
+      <c r="A49" s="260" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -12181,7 +12181,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="260"/>
+      <c r="A50" s="261"/>
       <c r="B50" s="116" t="s">
         <v>94</v>
       </c>
@@ -12247,7 +12247,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="260"/>
+      <c r="A51" s="261"/>
       <c r="B51" s="116" t="s">
         <v>95</v>
       </c>
@@ -12313,7 +12313,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="260"/>
+      <c r="A52" s="261"/>
       <c r="B52" s="116" t="s">
         <v>68</v>
       </c>
@@ -12379,7 +12379,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="259" t="s">
+      <c r="A53" s="260" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -12448,7 +12448,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="260"/>
+      <c r="A54" s="261"/>
       <c r="B54" s="115" t="s">
         <v>173</v>
       </c>
@@ -12516,7 +12516,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="260"/>
+      <c r="A55" s="261"/>
       <c r="B55" s="111" t="s">
         <v>174</v>
       </c>
@@ -12582,7 +12582,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="260"/>
+      <c r="A56" s="261"/>
       <c r="B56" s="105" t="s">
         <v>175</v>
       </c>
@@ -12648,7 +12648,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="259" t="s">
+      <c r="A57" s="260" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12718,7 +12718,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="260"/>
+      <c r="A58" s="261"/>
       <c r="B58" s="107" t="s">
         <v>177</v>
       </c>
@@ -12786,7 +12786,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="260"/>
+      <c r="A59" s="261"/>
       <c r="B59" s="107" t="s">
         <v>178</v>
       </c>
@@ -12854,7 +12854,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="260"/>
+      <c r="A60" s="261"/>
       <c r="B60" s="107" t="s">
         <v>97</v>
       </c>
@@ -12922,7 +12922,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="260"/>
+      <c r="A61" s="261"/>
       <c r="B61" s="106" t="s">
         <v>179</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="305"/>
+      <c r="A66" s="311"/>
       <c r="B66" s="107" t="s">
         <v>185</v>
       </c>
@@ -13324,7 +13324,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="305"/>
+      <c r="A67" s="311"/>
       <c r="B67" s="117" t="s">
         <v>186</v>
       </c>
@@ -13392,7 +13392,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="210"/>
+      <c r="A68" s="300"/>
       <c r="B68" s="117" t="s">
         <v>187</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="259" t="s">
+      <c r="A69" s="260" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -13529,7 +13529,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="260"/>
+      <c r="A70" s="261"/>
       <c r="B70" s="118" t="s">
         <v>188</v>
       </c>
@@ -13597,7 +13597,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="260"/>
+      <c r="A71" s="261"/>
       <c r="B71" s="107" t="s">
         <v>99</v>
       </c>
@@ -13665,7 +13665,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="260"/>
+      <c r="A72" s="261"/>
       <c r="B72" s="107" t="s">
         <v>189</v>
       </c>
@@ -13733,7 +13733,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="259" t="s">
+      <c r="A73" s="260" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -13801,7 +13801,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="260"/>
+      <c r="A74" s="261"/>
       <c r="B74" s="107" t="s">
         <v>191</v>
       </c>
@@ -13867,7 +13867,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="260"/>
+      <c r="A75" s="261"/>
       <c r="B75" s="117" t="s">
         <v>186</v>
       </c>
@@ -13933,7 +13933,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="260"/>
+      <c r="A76" s="261"/>
       <c r="B76" s="107" t="s">
         <v>192</v>
       </c>
@@ -13999,7 +13999,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="259" t="s">
+      <c r="A77" s="260" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -14068,7 +14068,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="260"/>
+      <c r="A78" s="261"/>
       <c r="B78" s="119" t="s">
         <v>193</v>
       </c>
@@ -14134,7 +14134,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="260"/>
+      <c r="A79" s="261"/>
       <c r="B79" s="119" t="s">
         <v>103</v>
       </c>
@@ -14201,7 +14201,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="260"/>
+      <c r="A80" s="261"/>
       <c r="B80" s="119" t="s">
         <v>104</v>
       </c>
@@ -14269,7 +14269,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="259" t="s">
+      <c r="A81" s="260" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -14337,7 +14337,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" ht="38.25">
-      <c r="A82" s="260"/>
+      <c r="A82" s="261"/>
       <c r="B82" s="119" t="s">
         <v>59</v>
       </c>
@@ -14403,7 +14403,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="260"/>
+      <c r="A83" s="261"/>
       <c r="B83" s="119" t="s">
         <v>106</v>
       </c>
@@ -14470,7 +14470,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="260"/>
+      <c r="A84" s="261"/>
       <c r="B84" s="119" t="s">
         <v>107</v>
       </c>
@@ -14538,7 +14538,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="259" t="s">
+      <c r="A85" s="260" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -14607,7 +14607,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="260"/>
+      <c r="A86" s="261"/>
       <c r="B86" s="119" t="s">
         <v>108</v>
       </c>
@@ -14673,7 +14673,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="25.5">
-      <c r="A87" s="260"/>
+      <c r="A87" s="261"/>
       <c r="B87" s="119" t="s">
         <v>195</v>
       </c>
@@ -14739,7 +14739,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="260"/>
+      <c r="A88" s="261"/>
       <c r="B88" s="120" t="s">
         <v>196</v>
       </c>
@@ -14805,7 +14805,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="260"/>
+      <c r="A89" s="261"/>
       <c r="B89" s="108" t="s">
         <v>58</v>
       </c>
@@ -14871,7 +14871,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" ht="38.25">
-      <c r="A90" s="260"/>
+      <c r="A90" s="261"/>
       <c r="B90" s="120" t="s">
         <v>197</v>
       </c>
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="259" t="s">
+      <c r="A91" s="260" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -15005,7 +15005,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="260"/>
+      <c r="A92" s="261"/>
       <c r="B92" s="117" t="s">
         <v>110</v>
       </c>
@@ -15071,7 +15071,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="260"/>
+      <c r="A93" s="261"/>
       <c r="B93" s="117" t="s">
         <v>198</v>
       </c>
@@ -15137,7 +15137,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="260"/>
+      <c r="A94" s="261"/>
       <c r="B94" s="117" t="s">
         <v>60</v>
       </c>
@@ -15203,7 +15203,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="259" t="s">
+      <c r="A95" s="260" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -15271,7 +15271,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="260"/>
+      <c r="A96" s="261"/>
       <c r="B96" s="117" t="s">
         <v>200</v>
       </c>
@@ -15337,7 +15337,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="260"/>
+      <c r="A97" s="261"/>
       <c r="B97" s="117" t="s">
         <v>201</v>
       </c>
@@ -15403,7 +15403,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="260"/>
+      <c r="A98" s="261"/>
       <c r="B98" s="117" t="s">
         <v>202</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="259" t="s">
+      <c r="A99" s="260" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -15538,7 +15538,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="260"/>
+      <c r="A100" s="261"/>
       <c r="B100" s="117" t="s">
         <v>61</v>
       </c>
@@ -15606,7 +15606,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="260"/>
+      <c r="A101" s="261"/>
       <c r="B101" s="117" t="s">
         <v>62</v>
       </c>
@@ -15674,7 +15674,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" ht="51">
-      <c r="A102" s="260"/>
+      <c r="A102" s="261"/>
       <c r="B102" s="117" t="s">
         <v>63</v>
       </c>
@@ -15742,7 +15742,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" ht="63.75">
-      <c r="A103" s="259" t="s">
+      <c r="A103" s="260" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -15818,7 +15818,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="260"/>
+      <c r="A104" s="261"/>
       <c r="B104" s="117" t="s">
         <v>204</v>
       </c>
@@ -15888,7 +15888,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="260"/>
+      <c r="A105" s="261"/>
       <c r="B105" s="117" t="s">
         <v>205</v>
       </c>
@@ -15956,7 +15956,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="260"/>
+      <c r="A106" s="261"/>
       <c r="B106" s="117" t="s">
         <v>206</v>
       </c>
@@ -16024,7 +16024,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="259" t="s">
+      <c r="A107" s="260" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -16093,7 +16093,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="260"/>
+      <c r="A108" s="261"/>
       <c r="B108" s="119" t="s">
         <v>112</v>
       </c>
@@ -16160,7 +16160,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="260"/>
+      <c r="A109" s="261"/>
       <c r="B109" s="119" t="s">
         <v>64</v>
       </c>
@@ -16227,7 +16227,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="260"/>
+      <c r="A110" s="261"/>
       <c r="B110" s="119" t="s">
         <v>113</v>
       </c>
@@ -16294,7 +16294,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" ht="51">
-      <c r="A111" s="259" t="s">
+      <c r="A111" s="260" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -16364,7 +16364,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="260"/>
+      <c r="A112" s="261"/>
       <c r="B112" s="107" t="s">
         <v>208</v>
       </c>
@@ -16432,7 +16432,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="260"/>
+      <c r="A113" s="261"/>
       <c r="B113" s="107" t="s">
         <v>209</v>
       </c>
@@ -16500,7 +16500,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="260"/>
+      <c r="A114" s="261"/>
       <c r="B114" s="107" t="s">
         <v>210</v>
       </c>
@@ -16568,7 +16568,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="259" t="s">
+      <c r="A115" s="260" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -16638,7 +16638,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="260"/>
+      <c r="A116" s="261"/>
       <c r="B116" s="119" t="s">
         <v>115</v>
       </c>
@@ -16706,7 +16706,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="260"/>
+      <c r="A117" s="261"/>
       <c r="B117" s="119" t="s">
         <v>211</v>
       </c>
@@ -16774,7 +16774,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="260"/>
+      <c r="A118" s="261"/>
       <c r="B118" s="119" t="s">
         <v>212</v>
       </c>
@@ -16842,7 +16842,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="259" t="s">
+      <c r="A119" s="260" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -16909,7 +16909,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" ht="25.5">
-      <c r="A120" s="260"/>
+      <c r="A120" s="261"/>
       <c r="B120" s="121" t="s">
         <v>117</v>
       </c>
@@ -16977,7 +16977,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="260"/>
+      <c r="A121" s="261"/>
       <c r="B121" s="121" t="s">
         <v>118</v>
       </c>
@@ -17045,7 +17045,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="260"/>
+      <c r="A122" s="261"/>
       <c r="B122" s="117" t="s">
         <v>213</v>
       </c>
@@ -17097,7 +17097,7 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="260"/>
+      <c r="A123" s="261"/>
       <c r="B123" s="198" t="s">
         <v>208</v>
       </c>
@@ -17137,7 +17137,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="260"/>
+      <c r="A124" s="261"/>
       <c r="B124" s="120" t="s">
         <v>209</v>
       </c>
@@ -17463,7 +17463,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="210"/>
+      <c r="A129" s="300"/>
       <c r="B129" s="107" t="s">
         <v>217</v>
       </c>
@@ -17795,7 +17795,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="259" t="s">
+      <c r="A134" s="260" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -17861,7 +17861,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" ht="38.25">
-      <c r="A135" s="260"/>
+      <c r="A135" s="261"/>
       <c r="B135" s="124" t="s">
         <v>222</v>
       </c>
@@ -17929,7 +17929,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="260"/>
+      <c r="A136" s="261"/>
       <c r="B136" s="124" t="s">
         <v>223</v>
       </c>
@@ -17997,7 +17997,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="260"/>
+      <c r="A137" s="261"/>
       <c r="B137" s="124" t="s">
         <v>224</v>
       </c>
@@ -18332,7 +18332,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="210"/>
+      <c r="A142" s="300"/>
       <c r="B142" s="126" t="s">
         <v>229</v>
       </c>
@@ -18398,7 +18398,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="259" t="s">
+      <c r="A143" s="260" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -18466,7 +18466,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="260"/>
+      <c r="A144" s="261"/>
       <c r="B144" s="123" t="s">
         <v>230</v>
       </c>
@@ -18532,7 +18532,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="260"/>
+      <c r="A145" s="261"/>
       <c r="B145" s="121" t="s">
         <v>65</v>
       </c>
@@ -18598,7 +18598,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="260"/>
+      <c r="A146" s="261"/>
       <c r="B146" s="117" t="s">
         <v>66</v>
       </c>
@@ -18664,7 +18664,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="260"/>
+      <c r="A147" s="261"/>
       <c r="B147" s="117" t="s">
         <v>67</v>
       </c>
@@ -18730,7 +18730,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="259" t="s">
+      <c r="A148" s="260" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -18796,7 +18796,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="260"/>
+      <c r="A149" s="261"/>
       <c r="B149" s="121" t="s">
         <v>124</v>
       </c>
@@ -18860,7 +18860,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="260"/>
+      <c r="A150" s="261"/>
       <c r="B150" s="127" t="s">
         <v>231</v>
       </c>
@@ -18927,7 +18927,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="260"/>
+      <c r="A151" s="261"/>
       <c r="B151" s="121" t="s">
         <v>125</v>
       </c>
@@ -18994,7 +18994,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="259" t="s">
+      <c r="A152" s="260" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -19063,7 +19063,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" ht="63.75">
-      <c r="A153" s="260"/>
+      <c r="A153" s="261"/>
       <c r="B153" s="117" t="s">
         <v>233</v>
       </c>
@@ -19130,7 +19130,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="260"/>
+      <c r="A154" s="261"/>
       <c r="B154" s="117" t="s">
         <v>234</v>
       </c>
@@ -19197,7 +19197,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="260"/>
+      <c r="A155" s="261"/>
       <c r="B155" s="117" t="s">
         <v>235</v>
       </c>
@@ -19264,7 +19264,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="259" t="s">
+      <c r="A156" s="260" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -19332,7 +19332,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="260"/>
+      <c r="A157" s="261"/>
       <c r="B157" s="119" t="s">
         <v>237</v>
       </c>
@@ -19399,7 +19399,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="260"/>
+      <c r="A158" s="261"/>
       <c r="B158" s="117" t="s">
         <v>238</v>
       </c>
@@ -19466,7 +19466,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="260"/>
+      <c r="A159" s="261"/>
       <c r="B159" s="117" t="s">
         <v>239</v>
       </c>
@@ -19533,7 +19533,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="259" t="s">
+      <c r="A160" s="260" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -19602,7 +19602,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="260"/>
+      <c r="A161" s="261"/>
       <c r="B161" s="121" t="s">
         <v>241</v>
       </c>
@@ -19669,7 +19669,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="260"/>
+      <c r="A162" s="261"/>
       <c r="B162" s="121" t="s">
         <v>242</v>
       </c>
@@ -19736,7 +19736,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="260"/>
+      <c r="A163" s="261"/>
       <c r="B163" s="121" t="s">
         <v>243</v>
       </c>
@@ -19869,7 +19869,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="307"/>
+      <c r="A165" s="305"/>
       <c r="B165" s="128" t="s">
         <v>246</v>
       </c>
@@ -19933,7 +19933,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="307"/>
+      <c r="A166" s="305"/>
       <c r="B166" s="108" t="s">
         <v>247</v>
       </c>
@@ -20000,7 +20000,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="307"/>
+      <c r="A167" s="305"/>
       <c r="B167" s="108" t="s">
         <v>248</v>
       </c>
@@ -20067,7 +20067,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="259" t="s">
+      <c r="A168" s="260" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -20133,7 +20133,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="260"/>
+      <c r="A169" s="261"/>
       <c r="B169" s="151" t="s">
         <v>342</v>
       </c>
@@ -20197,7 +20197,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="260"/>
+      <c r="A170" s="261"/>
       <c r="B170" s="151" t="s">
         <v>343</v>
       </c>
@@ -20261,7 +20261,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="260"/>
+      <c r="A171" s="261"/>
       <c r="B171" s="152" t="s">
         <v>344</v>
       </c>
@@ -20593,7 +20593,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="210"/>
+      <c r="A176" s="300"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -20661,7 +20661,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="259" t="s">
+      <c r="A177" s="260" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -20727,7 +20727,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="260"/>
+      <c r="A178" s="261"/>
       <c r="B178" s="117" t="s">
         <v>129</v>
       </c>
@@ -20791,7 +20791,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="260"/>
+      <c r="A179" s="261"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -20855,7 +20855,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="260"/>
+      <c r="A180" s="261"/>
       <c r="B180" s="117" t="s">
         <v>256</v>
       </c>
@@ -20919,7 +20919,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" ht="76.5">
-      <c r="A181" s="259" t="s">
+      <c r="A181" s="260" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -20988,7 +20988,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="260"/>
+      <c r="A182" s="261"/>
       <c r="B182" s="129" t="s">
         <v>258</v>
       </c>
@@ -21052,7 +21052,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="260"/>
+      <c r="A183" s="261"/>
       <c r="B183" s="107" t="s">
         <v>259</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="260"/>
+      <c r="A184" s="261"/>
       <c r="B184" s="108" t="s">
         <v>260</v>
       </c>
@@ -21180,7 +21180,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="259" t="s">
+      <c r="A185" s="260" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -21246,7 +21246,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="260"/>
+      <c r="A186" s="261"/>
       <c r="B186" s="117" t="s">
         <v>262</v>
       </c>
@@ -21310,7 +21310,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="260"/>
+      <c r="A187" s="261"/>
       <c r="B187" s="117" t="s">
         <v>261</v>
       </c>
@@ -21374,7 +21374,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="260"/>
+      <c r="A188" s="261"/>
       <c r="B188" s="117" t="s">
         <v>263</v>
       </c>
@@ -21706,7 +21706,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="210"/>
+      <c r="A193" s="300"/>
       <c r="B193" s="108" t="s">
         <v>268</v>
       </c>
@@ -21772,7 +21772,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="259" t="s">
+      <c r="A194" s="260" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -21838,7 +21838,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="260"/>
+      <c r="A195" s="261"/>
       <c r="B195" s="107" t="s">
         <v>270</v>
       </c>
@@ -21902,7 +21902,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="260"/>
+      <c r="A196" s="261"/>
       <c r="B196" s="107" t="s">
         <v>271</v>
       </c>
@@ -21966,7 +21966,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="260"/>
+      <c r="A197" s="261"/>
       <c r="B197" s="107" t="s">
         <v>272</v>
       </c>
@@ -22297,7 +22297,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="210"/>
+      <c r="A202" s="300"/>
       <c r="B202" s="122" t="s">
         <v>277</v>
       </c>
@@ -22363,7 +22363,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="259" t="s">
+      <c r="A203" s="260" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -22431,7 +22431,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="260"/>
+      <c r="A204" s="261"/>
       <c r="B204" s="130" t="s">
         <v>279</v>
       </c>
@@ -22497,7 +22497,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="260"/>
+      <c r="A205" s="261"/>
       <c r="B205" s="121" t="s">
         <v>280</v>
       </c>
@@ -22563,7 +22563,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="260"/>
+      <c r="A206" s="261"/>
       <c r="B206" s="120" t="s">
         <v>281</v>
       </c>
@@ -22629,7 +22629,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="298" t="s">
+      <c r="A207" s="307" t="s">
         <v>345</v>
       </c>
       <c r="B207" s="157" t="s">
@@ -22693,7 +22693,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="298"/>
+      <c r="A208" s="307"/>
       <c r="B208" s="158" t="s">
         <v>347</v>
       </c>
@@ -22755,7 +22755,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="298"/>
+      <c r="A209" s="307"/>
       <c r="B209" s="158" t="s">
         <v>348</v>
       </c>
@@ -22817,7 +22817,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="298"/>
+      <c r="A210" s="307"/>
       <c r="B210" s="158" t="s">
         <v>349</v>
       </c>
@@ -22978,38 +22978,6 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -23026,6 +22994,38 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">

--- a/06_Jun/DGAIGAT_junio_DPCIIT.xlsx
+++ b/06_Jun/DGAIGAT_junio_DPCIIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\06_Jun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A31F73-9F12-4BCB-A0CA-87B22CA972CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890685C-955E-4C1A-B51C-A20E51EBB27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="379">
   <si>
     <t>Dirección de Cartografía y Catastro</t>
   </si>
@@ -1177,25 +1177,38 @@
     <t>SEDATU / El 20 de septiembre del 2023 se formalizó la firma del Convenio Específico de Colaboración SEDATU- INEGI.</t>
   </si>
   <si>
-    <t>Se han desarrollado dos reuniones de coordinación (19 de febrero y 04 de marzo) entre la SEDATU y el INEGI para coordinar las actividades para cumplir los compromisos establecidos en el convenio.</t>
-  </si>
-  <si>
-    <t>SEMARNAT / El pasado 12 de marzo se llevó a cabo una reunión entre la SEMARNAT y el INEGI para conocer a mayor detalle el Subsistema de Información para el Ordenamiento Ecológico (SIORE), con la finalidad de ir definiendo el mecanismo para vincularlo al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano (SCIEGOTDU) del INEGI/SNIEG.</t>
-  </si>
-  <si>
     <t>Se brinda seguimiento puntual a los acuerdos pendientes del Comité. Posterior a la Primera Sesión Ordinaria 2024, se tiene pendiente el siguiente acuerdo CTEIDRU/2.5/2021, para el cual se registró el siguiente avance para continuar en proceso de atención: 
 SEDATU / El 20 de septiembre del 2023 se formalizó la firma del Convenio Específico de Colaboración SEDATU- INEGI.
 Se han desarrollado dos reuniones de coordinación (19 de febrero y 04 de marzo) entre la SEDATU y el INEGI para coordinar las actividades para cumplir los compromisos establecidos en el convenio.
 SEMARNAT / El pasado 12 de marzo se llevó a cabo una reunión entre la SEMARNAT y el INEGI para conocer a mayor detalle el Subsistema de Información para el Ordenamiento Ecológico (SIORE), con la finalidad de ir definiendo el mecanismo para vincularlo al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano (SCIEGOTDU) del INEGI/SNIEG.</t>
   </si>
   <si>
-    <t>Se comenzó con la preparación de los términos del glosario de la letra "A" a la "C", necesarios para la migración de la información de la publicación al instrumento de difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
-  </si>
-  <si>
     <t>Se continuó con el desarrollo del módulo de búsquedas específicas de términos que contendrá el instrumento además, se comenzó con la investigación documental con el fin de ampliar las búsquedas para localizar términos por medio de las letras del alfabeto para la difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
   </si>
   <si>
-    <t>Se comenzaron a realizar pruebas de funcionalidad del módulo de búsquedas específicas desarrollo de los módulos principal y de búsqueda, se realizan las pruebas de funcionalidad de ambos módulos.</t>
+    <t>Se comenzaron a realizar pruebas de funcionalidad del módulo de búsquedas específicas realizando las correcciones necesarias para un mejor desempeño.</t>
+  </si>
+  <si>
+    <t>Se comenzó con la preparación de los términos del glosario de la letra "D" a la "F", necesarios para la migración de la información de la publicación al instrumento de difusión del Glosario de Términos Básicos en materia de OT y DU.</t>
+  </si>
+  <si>
+    <t>Se detectó la publicación "Encuesta Nacional de Ocupación y Empleo (ENOE), población de 15 años y más de edad" en el sitio institucional.</t>
+  </si>
+  <si>
+    <t>Se recopiló la información correspondiente a la publicación "Encuesta Nacional de Ocupación y Empleo (ENOE), población de 15 años y más de edad" del sitio institucional https://www.inegi.org.mx/programas/enoe/15ymas/).</t>
+  </si>
+  <si>
+    <t>Se concentraron los tabulados, en formato XLS, de la información del producto "Encuesta Nacional de Ocupación y Empleo (ENOE), población de 15 años y más de edad"  para su incorporación a la base de datos del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
+  </si>
+  <si>
+    <t>Se está gestionando una segunda reunión con la Dirección General de Comunicación, Servicio Público de Información y Relaciones Institucionales (DGCSPIRI) a fin de obtener el VoBo de la iniciativa, asi mismo, se está elaborando una presentación sobre la gobernanza del proyecto.</t>
+  </si>
+  <si>
+    <t>En base a las reuniones de trabajo realizadas con el personal del Departamento de Diseño Conceptual de Información para la Administración del Territorio, con el fin de generar la propuesta del diseño del aplicativo del Índice Territorial Urbano - Rural (ITUR), se comenzó a analizar el documento prototipo para incorporar los elementos solicitados al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizaron pruebas de funcionamiento a las nuevas restricciones derivadas de la desinstalación del JRE de Oracle, con el fin de determinar su factibilidad de uso en el desarrollo de la Herramienta de Captura de Domicilios Geográficos para su integración al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.
+</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1816,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2320,9 +2333,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2396,6 +2406,224 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2435,15 +2663,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2453,18 +2672,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,202 +2690,17 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2689,25 +2711,13 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4194,19 +4204,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D158" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B147" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I150" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B147" sqref="B147"/>
+      <selection pane="topRight" activeCell="E147" sqref="E147"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <selection pane="bottomRight" activeCell="D152" sqref="D152:I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="81.28515625" style="178" customWidth="1"/>
+    <col min="9" max="9" width="82.140625" style="178" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" style="8" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="4" customWidth="1"/>
@@ -4238,11 +4253,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="295" t="s">
+      <c r="G3" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -4316,13 +4331,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="262" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="207" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -4346,9 +4361,9 @@
       <c r="M7" s="147"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="243"/>
-      <c r="B8" s="276"/>
-      <c r="C8" s="259"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="208"/>
       <c r="D8" s="106" t="s">
         <v>155</v>
       </c>
@@ -4356,20 +4371,20 @@
       <c r="F8" s="74">
         <v>1</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="279" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="207"/>
-      <c r="I8" s="208"/>
+      <c r="H8" s="280"/>
+      <c r="I8" s="281"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
-      <c r="A9" s="243"/>
-      <c r="B9" s="276"/>
-      <c r="C9" s="259"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="208"/>
       <c r="D9" s="107" t="s">
         <v>156</v>
       </c>
@@ -4388,28 +4403,28 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A10" s="243"/>
-      <c r="B10" s="276"/>
-      <c r="C10" s="259"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="208"/>
       <c r="D10" s="106" t="s">
         <v>328</v>
       </c>
       <c r="E10" s="98"/>
-      <c r="F10" s="224" t="s">
+      <c r="F10" s="294" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="225"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="226"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="243"/>
-      <c r="B11" s="276"/>
-      <c r="C11" s="258" t="s">
+      <c r="A11" s="212"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="207" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="136" t="s">
@@ -4433,9 +4448,9 @@
       <c r="M11" s="147"/>
     </row>
     <row r="12" spans="1:17" ht="35.25" customHeight="1">
-      <c r="A12" s="243"/>
-      <c r="B12" s="276"/>
-      <c r="C12" s="259"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="117" t="s">
         <v>158</v>
       </c>
@@ -4443,20 +4458,20 @@
       <c r="F12" s="74">
         <v>1</v>
       </c>
-      <c r="G12" s="229" t="s">
+      <c r="G12" s="295" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="230"/>
-      <c r="I12" s="231"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="297"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1">
-      <c r="A13" s="243"/>
-      <c r="B13" s="276"/>
-      <c r="C13" s="259"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="117" t="s">
         <v>159</v>
       </c>
@@ -4464,18 +4479,18 @@
       <c r="F13" s="74">
         <v>1</v>
       </c>
-      <c r="G13" s="232"/>
-      <c r="H13" s="233"/>
-      <c r="I13" s="234"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="300"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A14" s="243"/>
-      <c r="B14" s="276"/>
-      <c r="C14" s="259"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="208"/>
       <c r="D14" s="107" t="s">
         <v>160</v>
       </c>
@@ -4486,19 +4501,19 @@
       <c r="G14" s="75">
         <v>0.5</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="21.75" customHeight="1">
-      <c r="A15" s="243"/>
-      <c r="B15" s="245" t="s">
+      <c r="A15" s="212"/>
+      <c r="B15" s="214" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="258" t="s">
+      <c r="C15" s="207" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="137" t="s">
@@ -4522,9 +4537,9 @@
       <c r="M15" s="147"/>
     </row>
     <row r="16" spans="1:17" ht="32.25" customHeight="1">
-      <c r="A16" s="243"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="259"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="208"/>
       <c r="D16" s="117" t="s">
         <v>75</v>
       </c>
@@ -4543,9 +4558,9 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A17" s="243"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="259"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="208"/>
       <c r="D17" s="117" t="s">
         <v>76</v>
       </c>
@@ -4564,9 +4579,9 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A18" s="243"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="259"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="208"/>
       <c r="D18" s="117" t="s">
         <v>77</v>
       </c>
@@ -4585,9 +4600,9 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A19" s="243"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="259"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="208"/>
       <c r="D19" s="117" t="s">
         <v>78</v>
       </c>
@@ -4606,9 +4621,9 @@
       <c r="M19" s="93"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="243"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="255" t="s">
+      <c r="A20" s="212"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="216" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="136" t="s">
@@ -4632,9 +4647,9 @@
       <c r="M20" s="147"/>
     </row>
     <row r="21" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A21" s="243"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="256"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="117" t="s">
         <v>80</v>
       </c>
@@ -4653,9 +4668,9 @@
       <c r="M21" s="93"/>
     </row>
     <row r="22" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A22" s="243"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="256"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="217"/>
       <c r="D22" s="117" t="s">
         <v>81</v>
       </c>
@@ -4674,9 +4689,9 @@
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A23" s="243"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="256"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="217"/>
       <c r="D23" s="117" t="s">
         <v>329</v>
       </c>
@@ -4695,9 +4710,9 @@
       <c r="M23" s="93"/>
     </row>
     <row r="24" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A24" s="243"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="256"/>
+      <c r="A24" s="212"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="217"/>
       <c r="D24" s="117" t="s">
         <v>83</v>
       </c>
@@ -4716,9 +4731,9 @@
       <c r="M24" s="93"/>
     </row>
     <row r="25" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A25" s="300"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="257"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="218"/>
       <c r="D25" s="107" t="s">
         <v>162</v>
       </c>
@@ -4729,21 +4744,21 @@
       <c r="G25" s="176">
         <v>0.1</v>
       </c>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="93"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="242" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="245" t="s">
+      <c r="A26" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="209" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="137" t="s">
@@ -4767,9 +4782,9 @@
       <c r="M26" s="147"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="A27" s="243"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="301"/>
+      <c r="A27" s="212"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="220"/>
       <c r="D27" s="112" t="s">
         <v>85</v>
       </c>
@@ -4788,9 +4803,9 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="A28" s="243"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="301"/>
+      <c r="A28" s="212"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="220"/>
       <c r="D28" s="112" t="s">
         <v>164</v>
       </c>
@@ -4809,9 +4824,9 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
-      <c r="A29" s="243"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="301"/>
+      <c r="A29" s="212"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="220"/>
       <c r="D29" s="112" t="s">
         <v>165</v>
       </c>
@@ -4830,9 +4845,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A30" s="243"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="258" t="s">
+      <c r="A30" s="212"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="207" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="137" t="s">
@@ -4856,9 +4871,9 @@
       <c r="M30" s="147"/>
     </row>
     <row r="31" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A31" s="243"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="259"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="112" t="s">
         <v>295</v>
       </c>
@@ -4877,9 +4892,9 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A32" s="243"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="259"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="208"/>
       <c r="D32" s="112" t="s">
         <v>294</v>
       </c>
@@ -4898,9 +4913,9 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="42" customHeight="1">
-      <c r="A33" s="243"/>
-      <c r="B33" s="246"/>
-      <c r="C33" s="259"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="208"/>
       <c r="D33" s="112" t="s">
         <v>330</v>
       </c>
@@ -4919,9 +4934,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="243"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="250" t="s">
+      <c r="A34" s="212"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="221" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="137" t="s">
@@ -4945,93 +4960,93 @@
       <c r="M34" s="147"/>
     </row>
     <row r="35" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A35" s="243"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="251"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="222"/>
       <c r="D35" s="116" t="s">
         <v>296</v>
       </c>
-      <c r="E35" s="184"/>
+      <c r="E35" s="183"/>
       <c r="F35" s="74">
         <v>0.25</v>
       </c>
       <c r="G35" s="74">
         <v>0.25</v>
       </c>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="198"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="243"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="251"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="222"/>
       <c r="D36" s="116" t="s">
         <v>297</v>
       </c>
-      <c r="E36" s="184"/>
+      <c r="E36" s="183"/>
       <c r="F36" s="74">
         <v>0.25</v>
       </c>
       <c r="G36" s="74">
         <v>0.25</v>
       </c>
-      <c r="H36" s="199"/>
-      <c r="I36" s="199"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A37" s="243"/>
-      <c r="B37" s="246"/>
-      <c r="C37" s="251"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="222"/>
       <c r="D37" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="184"/>
+      <c r="E37" s="183"/>
       <c r="F37" s="74">
         <v>0.25</v>
       </c>
       <c r="G37" s="74">
         <v>0.25</v>
       </c>
-      <c r="H37" s="199"/>
-      <c r="I37" s="199"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="198"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="243"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="252"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="223"/>
       <c r="D38" s="116" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="184"/>
+      <c r="E38" s="183"/>
       <c r="F38" s="74">
         <v>0.25</v>
       </c>
       <c r="G38" s="74">
         <v>0.25</v>
       </c>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="198"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A39" s="243"/>
-      <c r="B39" s="246"/>
-      <c r="C39" s="258" t="s">
+      <c r="A39" s="212"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="207" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="137" t="s">
@@ -5055,87 +5070,87 @@
       <c r="M39" s="147"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="243"/>
-      <c r="B40" s="246"/>
-      <c r="C40" s="259"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="208"/>
       <c r="D40" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="184"/>
+      <c r="E40" s="183"/>
       <c r="F40" s="74">
         <v>0.5</v>
       </c>
       <c r="G40" s="74">
         <v>0.5</v>
       </c>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="93"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="243"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="259"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="208"/>
       <c r="D41" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="184"/>
+      <c r="E41" s="183"/>
       <c r="F41" s="74">
         <v>0</v>
       </c>
       <c r="G41" s="74">
         <v>0.33</v>
       </c>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="93"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="243"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="259"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="208"/>
       <c r="D42" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="184"/>
-      <c r="F42" s="209" t="s">
+      <c r="E42" s="183"/>
+      <c r="F42" s="282" t="s">
         <v>364</v>
       </c>
-      <c r="G42" s="210"/>
-      <c r="H42" s="210"/>
-      <c r="I42" s="211"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="283"/>
+      <c r="I42" s="284"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="243"/>
-      <c r="B43" s="246"/>
-      <c r="C43" s="259"/>
+      <c r="A43" s="212"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="208"/>
       <c r="D43" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="184"/>
-      <c r="F43" s="212"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="214"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="286"/>
+      <c r="H43" s="286"/>
+      <c r="I43" s="287"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="93"/>
     </row>
     <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="243"/>
-      <c r="B44" s="246"/>
-      <c r="C44" s="258" t="s">
+      <c r="A44" s="212"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="207" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="149" t="s">
@@ -5159,9 +5174,9 @@
       <c r="M44" s="147"/>
     </row>
     <row r="45" spans="1:13" ht="21" customHeight="1">
-      <c r="A45" s="243"/>
-      <c r="B45" s="246"/>
-      <c r="C45" s="259"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="208"/>
       <c r="D45" s="116" t="s">
         <v>338</v>
       </c>
@@ -5180,49 +5195,49 @@
       <c r="M45" s="93"/>
     </row>
     <row r="46" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A46" s="243"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="259"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="208"/>
       <c r="D46" s="116" t="s">
         <v>339</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="227" t="s">
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="275" t="s">
         <v>283</v>
       </c>
-      <c r="H46" s="227"/>
-      <c r="I46" s="228"/>
+      <c r="H46" s="275"/>
+      <c r="I46" s="276"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A47" s="243"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="259"/>
+      <c r="A47" s="212"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="208"/>
       <c r="D47" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="227" t="s">
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="H47" s="227"/>
-      <c r="I47" s="228"/>
+      <c r="H47" s="275"/>
+      <c r="I47" s="276"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="93"/>
     </row>
     <row r="48" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A48" s="243"/>
-      <c r="B48" s="239" t="s">
+      <c r="A48" s="212"/>
+      <c r="B48" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="258" t="s">
+      <c r="C48" s="207" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="136" t="s">
@@ -5246,9 +5261,9 @@
       <c r="M48" s="147"/>
     </row>
     <row r="49" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A49" s="243"/>
-      <c r="B49" s="239"/>
-      <c r="C49" s="259"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="256"/>
+      <c r="C49" s="208"/>
       <c r="D49" s="116" t="s">
         <v>300</v>
       </c>
@@ -5267,9 +5282,9 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A50" s="243"/>
-      <c r="B50" s="239"/>
-      <c r="C50" s="259"/>
+      <c r="A50" s="212"/>
+      <c r="B50" s="256"/>
+      <c r="C50" s="208"/>
       <c r="D50" s="116" t="s">
         <v>299</v>
       </c>
@@ -5288,9 +5303,9 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A51" s="243"/>
-      <c r="B51" s="239"/>
-      <c r="C51" s="259"/>
+      <c r="A51" s="212"/>
+      <c r="B51" s="256"/>
+      <c r="C51" s="208"/>
       <c r="D51" s="116" t="s">
         <v>68</v>
       </c>
@@ -5309,11 +5324,11 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="243"/>
-      <c r="B52" s="262" t="s">
+      <c r="A52" s="212"/>
+      <c r="B52" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="258" t="s">
+      <c r="C52" s="207" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="136" t="s">
@@ -5337,9 +5352,9 @@
       <c r="M52" s="147"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A53" s="243"/>
-      <c r="B53" s="276"/>
-      <c r="C53" s="259"/>
+      <c r="A53" s="212"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="208"/>
       <c r="D53" s="116" t="s">
         <v>303</v>
       </c>
@@ -5358,9 +5373,9 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A54" s="243"/>
-      <c r="B54" s="276"/>
-      <c r="C54" s="259"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="208"/>
       <c r="D54" s="112" t="s">
         <v>304</v>
       </c>
@@ -5379,9 +5394,9 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="243"/>
-      <c r="B55" s="276"/>
-      <c r="C55" s="259"/>
+      <c r="A55" s="212"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="208"/>
       <c r="D55" s="107" t="s">
         <v>305</v>
       </c>
@@ -5400,9 +5415,9 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13" ht="25.5">
-      <c r="A56" s="243"/>
-      <c r="B56" s="276"/>
-      <c r="C56" s="258" t="s">
+      <c r="A56" s="212"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="207" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="137" t="s">
@@ -5422,81 +5437,81 @@
       <c r="M56" s="96"/>
     </row>
     <row r="57" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A57" s="243"/>
-      <c r="B57" s="276"/>
-      <c r="C57" s="259"/>
+      <c r="A57" s="212"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="208"/>
       <c r="D57" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="264" t="s">
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
+      <c r="G57" s="265" t="s">
         <v>285</v>
       </c>
-      <c r="H57" s="264"/>
-      <c r="I57" s="265"/>
+      <c r="H57" s="265"/>
+      <c r="I57" s="266"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="243"/>
-      <c r="B58" s="276"/>
-      <c r="C58" s="259"/>
+      <c r="A58" s="212"/>
+      <c r="B58" s="206"/>
+      <c r="C58" s="208"/>
       <c r="D58" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="E58" s="187"/>
-      <c r="F58" s="187"/>
-      <c r="G58" s="266"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="267"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="186"/>
+      <c r="G58" s="267"/>
+      <c r="H58" s="267"/>
+      <c r="I58" s="268"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A59" s="243"/>
-      <c r="B59" s="276"/>
-      <c r="C59" s="259"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="206"/>
+      <c r="C59" s="208"/>
       <c r="D59" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="E59" s="187"/>
-      <c r="F59" s="187"/>
-      <c r="G59" s="266"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="267"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="186"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="267"/>
+      <c r="I59" s="268"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="243"/>
-      <c r="B60" s="276"/>
-      <c r="C60" s="259"/>
+      <c r="A60" s="212"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="208"/>
       <c r="D60" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="E60" s="187"/>
-      <c r="F60" s="187"/>
-      <c r="G60" s="268"/>
-      <c r="H60" s="268"/>
-      <c r="I60" s="269"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="269"/>
+      <c r="H60" s="269"/>
+      <c r="I60" s="270"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13" ht="38.25">
-      <c r="A61" s="243"/>
-      <c r="B61" s="262" t="s">
+      <c r="A61" s="212"/>
+      <c r="B61" s="205" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="255" t="s">
+      <c r="C61" s="216" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="135" t="s">
@@ -5520,9 +5535,9 @@
       <c r="M61" s="147"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="243"/>
-      <c r="B62" s="276"/>
-      <c r="C62" s="256"/>
+      <c r="A62" s="212"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="217"/>
       <c r="D62" s="107" t="s">
         <v>312</v>
       </c>
@@ -5530,121 +5545,121 @@
       <c r="F62" s="75">
         <v>1</v>
       </c>
-      <c r="G62" s="219" t="s">
+      <c r="G62" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H62" s="220"/>
-      <c r="I62" s="221"/>
+      <c r="H62" s="238"/>
+      <c r="I62" s="239"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="243"/>
-      <c r="B63" s="276"/>
-      <c r="C63" s="256"/>
+      <c r="A63" s="212"/>
+      <c r="B63" s="206"/>
+      <c r="C63" s="217"/>
       <c r="D63" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="E63" s="192"/>
-      <c r="F63" s="193">
+      <c r="E63" s="191"/>
+      <c r="F63" s="192">
         <v>0.35</v>
       </c>
-      <c r="G63" s="193">
+      <c r="G63" s="192">
         <v>0.32</v>
       </c>
-      <c r="H63" s="192"/>
-      <c r="I63" s="192"/>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="243"/>
-      <c r="B64" s="276"/>
-      <c r="C64" s="256"/>
+      <c r="A64" s="212"/>
+      <c r="B64" s="206"/>
+      <c r="C64" s="217"/>
       <c r="D64" s="107" t="s">
         <v>314</v>
       </c>
-      <c r="E64" s="192"/>
-      <c r="F64" s="193">
+      <c r="E64" s="191"/>
+      <c r="F64" s="192">
         <v>0.35</v>
       </c>
-      <c r="G64" s="193">
+      <c r="G64" s="192">
         <v>0.32</v>
       </c>
-      <c r="H64" s="192"/>
-      <c r="I64" s="192"/>
+      <c r="H64" s="191"/>
+      <c r="I64" s="191"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="243"/>
-      <c r="B65" s="276"/>
-      <c r="C65" s="299"/>
+      <c r="A65" s="212"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="228"/>
       <c r="D65" s="107" t="s">
         <v>315</v>
       </c>
-      <c r="E65" s="185"/>
+      <c r="E65" s="184"/>
       <c r="F65" s="133">
         <v>0</v>
       </c>
       <c r="G65" s="133">
         <v>0.24</v>
       </c>
-      <c r="H65" s="200"/>
-      <c r="I65" s="200"/>
+      <c r="H65" s="199"/>
+      <c r="I65" s="199"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="243"/>
-      <c r="B66" s="276"/>
-      <c r="C66" s="299"/>
+      <c r="A66" s="212"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="228"/>
       <c r="D66" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="E66" s="194"/>
-      <c r="F66" s="194"/>
-      <c r="G66" s="270" t="s">
+      <c r="E66" s="193"/>
+      <c r="F66" s="193"/>
+      <c r="G66" s="271" t="s">
         <v>285</v>
       </c>
-      <c r="H66" s="270"/>
-      <c r="I66" s="271"/>
+      <c r="H66" s="271"/>
+      <c r="I66" s="272"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="243"/>
-      <c r="B67" s="276"/>
-      <c r="C67" s="257"/>
+      <c r="A67" s="212"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="218"/>
       <c r="D67" s="117" t="s">
         <v>317</v>
       </c>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="272" t="s">
+      <c r="E67" s="194"/>
+      <c r="F67" s="194"/>
+      <c r="G67" s="273" t="s">
         <v>285</v>
       </c>
-      <c r="H67" s="272"/>
-      <c r="I67" s="273"/>
+      <c r="H67" s="273"/>
+      <c r="I67" s="274"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="243"/>
-      <c r="B68" s="276"/>
-      <c r="C68" s="260" t="s">
+      <c r="A68" s="212"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="262" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="136" t="s">
@@ -5668,9 +5683,9 @@
       <c r="M68" s="147"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="243"/>
-      <c r="B69" s="276"/>
-      <c r="C69" s="261"/>
+      <c r="A69" s="212"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="263"/>
       <c r="D69" s="106" t="s">
         <v>319</v>
       </c>
@@ -5678,62 +5693,62 @@
       <c r="F69" s="75">
         <v>1</v>
       </c>
-      <c r="G69" s="219" t="s">
+      <c r="G69" s="237" t="s">
         <v>357</v>
       </c>
-      <c r="H69" s="220"/>
-      <c r="I69" s="221"/>
+      <c r="H69" s="238"/>
+      <c r="I69" s="239"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="243"/>
-      <c r="B70" s="276"/>
-      <c r="C70" s="261"/>
+      <c r="A70" s="212"/>
+      <c r="B70" s="206"/>
+      <c r="C70" s="263"/>
       <c r="D70" s="107" t="s">
         <v>320</v>
       </c>
-      <c r="E70" s="185"/>
+      <c r="E70" s="184"/>
       <c r="F70" s="133">
         <v>0.3</v>
       </c>
       <c r="G70" s="133">
         <v>0.3</v>
       </c>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="243"/>
-      <c r="B71" s="276"/>
-      <c r="C71" s="261"/>
+      <c r="A71" s="212"/>
+      <c r="B71" s="206"/>
+      <c r="C71" s="263"/>
       <c r="D71" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="E71" s="185"/>
+      <c r="E71" s="184"/>
       <c r="F71" s="133">
         <v>0.3</v>
       </c>
       <c r="G71" s="133">
         <v>0.3</v>
       </c>
-      <c r="H71" s="185"/>
-      <c r="I71" s="185"/>
+      <c r="H71" s="184"/>
+      <c r="I71" s="184"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="243"/>
-      <c r="B72" s="276"/>
-      <c r="C72" s="258" t="s">
+      <c r="A72" s="212"/>
+      <c r="B72" s="206"/>
+      <c r="C72" s="207" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="137" t="s">
@@ -5757,9 +5772,9 @@
       <c r="M72" s="147"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="243"/>
-      <c r="B73" s="276"/>
-      <c r="C73" s="259"/>
+      <c r="A73" s="212"/>
+      <c r="B73" s="206"/>
+      <c r="C73" s="208"/>
       <c r="D73" s="107" t="s">
         <v>323</v>
       </c>
@@ -5767,20 +5782,20 @@
       <c r="F73" s="133">
         <v>1</v>
       </c>
-      <c r="G73" s="277" t="s">
+      <c r="G73" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="H73" s="278"/>
-      <c r="I73" s="279"/>
+      <c r="H73" s="232"/>
+      <c r="I73" s="233"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1">
-      <c r="A74" s="243"/>
-      <c r="B74" s="276"/>
-      <c r="C74" s="259"/>
+      <c r="A74" s="212"/>
+      <c r="B74" s="206"/>
+      <c r="C74" s="208"/>
       <c r="D74" s="117" t="s">
         <v>316</v>
       </c>
@@ -5788,43 +5803,43 @@
       <c r="F74" s="133">
         <v>1</v>
       </c>
-      <c r="G74" s="280"/>
-      <c r="H74" s="281"/>
-      <c r="I74" s="282"/>
+      <c r="G74" s="234"/>
+      <c r="H74" s="235"/>
+      <c r="I74" s="236"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A75" s="244"/>
-      <c r="B75" s="276"/>
-      <c r="C75" s="259"/>
+      <c r="A75" s="219"/>
+      <c r="B75" s="206"/>
+      <c r="C75" s="208"/>
       <c r="D75" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="E75" s="185"/>
+      <c r="E75" s="184"/>
       <c r="F75" s="133">
         <v>0.5</v>
       </c>
       <c r="G75" s="133">
         <v>0.25</v>
       </c>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
+      <c r="H75" s="184"/>
+      <c r="I75" s="184"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="242" t="s">
+      <c r="A76" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="262" t="s">
+      <c r="B76" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="258" t="s">
+      <c r="C76" s="207" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="136" t="s">
@@ -5848,9 +5863,9 @@
       <c r="M76" s="147"/>
     </row>
     <row r="77" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A77" s="243"/>
-      <c r="B77" s="276"/>
-      <c r="C77" s="259"/>
+      <c r="A77" s="212"/>
+      <c r="B77" s="206"/>
+      <c r="C77" s="208"/>
       <c r="D77" s="119" t="s">
         <v>193</v>
       </c>
@@ -5869,30 +5884,30 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A78" s="243"/>
-      <c r="B78" s="276"/>
-      <c r="C78" s="259"/>
+      <c r="A78" s="212"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="208"/>
       <c r="D78" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="185"/>
+      <c r="E78" s="184"/>
       <c r="F78" s="133">
         <v>0.3</v>
       </c>
       <c r="G78" s="133">
         <v>0.1</v>
       </c>
-      <c r="H78" s="185"/>
-      <c r="I78" s="185"/>
+      <c r="H78" s="184"/>
+      <c r="I78" s="184"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1">
-      <c r="A79" s="243"/>
-      <c r="B79" s="276"/>
-      <c r="C79" s="259"/>
+      <c r="A79" s="212"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="208"/>
       <c r="D79" s="119" t="s">
         <v>104</v>
       </c>
@@ -5911,9 +5926,9 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13" ht="15.75">
-      <c r="A80" s="243"/>
-      <c r="B80" s="276"/>
-      <c r="C80" s="258" t="s">
+      <c r="A80" s="212"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="207" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="136" t="s">
@@ -5937,9 +5952,9 @@
       <c r="M80" s="96"/>
     </row>
     <row r="81" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A81" s="243"/>
-      <c r="B81" s="276"/>
-      <c r="C81" s="259"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="208"/>
       <c r="D81" s="119" t="s">
         <v>59</v>
       </c>
@@ -5958,49 +5973,49 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A82" s="243"/>
-      <c r="B82" s="276"/>
-      <c r="C82" s="259"/>
+      <c r="A82" s="212"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="208"/>
       <c r="D82" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="185"/>
+      <c r="E82" s="184"/>
       <c r="F82" s="133">
         <v>0.75</v>
       </c>
       <c r="G82" s="133">
         <v>0.25</v>
       </c>
-      <c r="H82" s="185"/>
-      <c r="I82" s="185"/>
+      <c r="H82" s="184"/>
+      <c r="I82" s="184"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="93"/>
     </row>
     <row r="83" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A83" s="243"/>
-      <c r="B83" s="276"/>
-      <c r="C83" s="259"/>
+      <c r="A83" s="212"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="208"/>
       <c r="D83" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
-      <c r="G83" s="283" t="s">
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+      <c r="G83" s="240" t="s">
         <v>282</v>
       </c>
-      <c r="H83" s="283"/>
-      <c r="I83" s="284"/>
+      <c r="H83" s="240"/>
+      <c r="I83" s="241"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="93"/>
     </row>
     <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="243"/>
-      <c r="B84" s="276"/>
-      <c r="C84" s="248" t="s">
+      <c r="A84" s="212"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="209" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="138" t="s">
@@ -6024,9 +6039,9 @@
       <c r="M84" s="147"/>
     </row>
     <row r="85" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A85" s="243"/>
-      <c r="B85" s="276"/>
-      <c r="C85" s="249"/>
+      <c r="A85" s="212"/>
+      <c r="B85" s="206"/>
+      <c r="C85" s="210"/>
       <c r="D85" s="119" t="s">
         <v>331</v>
       </c>
@@ -6045,28 +6060,28 @@
       <c r="M85" s="93"/>
     </row>
     <row r="86" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A86" s="243"/>
-      <c r="B86" s="276"/>
-      <c r="C86" s="249"/>
+      <c r="A86" s="212"/>
+      <c r="B86" s="206"/>
+      <c r="C86" s="210"/>
       <c r="D86" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="187"/>
-      <c r="F86" s="187"/>
-      <c r="G86" s="235" t="s">
+      <c r="E86" s="186"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="242" t="s">
         <v>282</v>
       </c>
-      <c r="H86" s="235"/>
-      <c r="I86" s="236"/>
+      <c r="H86" s="242"/>
+      <c r="I86" s="243"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="93"/>
     </row>
     <row r="87" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A87" s="243"/>
-      <c r="B87" s="276"/>
-      <c r="C87" s="249"/>
+      <c r="A87" s="212"/>
+      <c r="B87" s="206"/>
+      <c r="C87" s="210"/>
       <c r="D87" s="107" t="s">
         <v>196</v>
       </c>
@@ -6085,9 +6100,9 @@
       <c r="M87" s="93"/>
     </row>
     <row r="88" spans="1:13" ht="42" customHeight="1">
-      <c r="A88" s="243"/>
-      <c r="B88" s="276"/>
-      <c r="C88" s="249"/>
+      <c r="A88" s="212"/>
+      <c r="B88" s="206"/>
+      <c r="C88" s="210"/>
       <c r="D88" s="117" t="s">
         <v>58</v>
       </c>
@@ -6106,9 +6121,9 @@
       <c r="M88" s="93"/>
     </row>
     <row r="89" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A89" s="243"/>
-      <c r="B89" s="276"/>
-      <c r="C89" s="249"/>
+      <c r="A89" s="212"/>
+      <c r="B89" s="206"/>
+      <c r="C89" s="210"/>
       <c r="D89" s="107" t="s">
         <v>197</v>
       </c>
@@ -6127,13 +6142,13 @@
       <c r="M89" s="93"/>
     </row>
     <row r="90" spans="1:13" ht="25.5">
-      <c r="A90" s="242" t="s">
+      <c r="A90" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="262" t="s">
+      <c r="B90" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="248" t="s">
+      <c r="C90" s="209" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="137" t="s">
@@ -6157,9 +6172,9 @@
       <c r="M90" s="147"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="243"/>
-      <c r="B91" s="276"/>
-      <c r="C91" s="249"/>
+      <c r="A91" s="212"/>
+      <c r="B91" s="206"/>
+      <c r="C91" s="210"/>
       <c r="D91" s="117" t="s">
         <v>110</v>
       </c>
@@ -6167,41 +6182,41 @@
       <c r="F91" s="75">
         <v>1</v>
       </c>
-      <c r="G91" s="219" t="s">
+      <c r="G91" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H91" s="220"/>
-      <c r="I91" s="221"/>
+      <c r="H91" s="238"/>
+      <c r="I91" s="239"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="93"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A92" s="243"/>
-      <c r="B92" s="276"/>
-      <c r="C92" s="249"/>
+      <c r="A92" s="212"/>
+      <c r="B92" s="206"/>
+      <c r="C92" s="210"/>
       <c r="D92" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="187"/>
+      <c r="E92" s="186"/>
       <c r="F92" s="75">
         <v>0.35</v>
       </c>
       <c r="G92" s="75">
         <v>0.2</v>
       </c>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
+      <c r="H92" s="186"/>
+      <c r="I92" s="186"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="93"/>
     </row>
     <row r="93" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A93" s="243"/>
-      <c r="B93" s="276"/>
-      <c r="C93" s="249"/>
+      <c r="A93" s="212"/>
+      <c r="B93" s="206"/>
+      <c r="C93" s="210"/>
       <c r="D93" s="117" t="s">
         <v>60</v>
       </c>
@@ -6220,9 +6235,9 @@
       <c r="M93" s="93"/>
     </row>
     <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="243"/>
-      <c r="B94" s="276"/>
-      <c r="C94" s="248" t="s">
+      <c r="A94" s="212"/>
+      <c r="B94" s="206"/>
+      <c r="C94" s="209" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="137" t="s">
@@ -6246,9 +6261,9 @@
       <c r="M94" s="147"/>
     </row>
     <row r="95" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A95" s="243"/>
-      <c r="B95" s="276"/>
-      <c r="C95" s="249"/>
+      <c r="A95" s="212"/>
+      <c r="B95" s="206"/>
+      <c r="C95" s="210"/>
       <c r="D95" s="117" t="s">
         <v>200</v>
       </c>
@@ -6256,60 +6271,60 @@
       <c r="F95" s="75">
         <v>1</v>
       </c>
-      <c r="G95" s="219" t="s">
+      <c r="G95" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H95" s="220"/>
-      <c r="I95" s="221"/>
+      <c r="H95" s="238"/>
+      <c r="I95" s="239"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="93"/>
     </row>
     <row r="96" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A96" s="243"/>
-      <c r="B96" s="276"/>
-      <c r="C96" s="249"/>
+      <c r="A96" s="212"/>
+      <c r="B96" s="206"/>
+      <c r="C96" s="210"/>
       <c r="D96" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="187"/>
+      <c r="E96" s="186"/>
       <c r="F96" s="75">
         <v>0.3</v>
       </c>
       <c r="G96" s="75">
         <v>0.25</v>
       </c>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
+      <c r="H96" s="186"/>
+      <c r="I96" s="186"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="93"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1">
-      <c r="A97" s="243"/>
-      <c r="B97" s="276"/>
-      <c r="C97" s="249"/>
+      <c r="A97" s="212"/>
+      <c r="B97" s="206"/>
+      <c r="C97" s="210"/>
       <c r="D97" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="187"/>
-      <c r="F97" s="187"/>
-      <c r="G97" s="235" t="s">
+      <c r="E97" s="186"/>
+      <c r="F97" s="186"/>
+      <c r="G97" s="242" t="s">
         <v>286</v>
       </c>
-      <c r="H97" s="235"/>
-      <c r="I97" s="236"/>
+      <c r="H97" s="242"/>
+      <c r="I97" s="243"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="93"/>
     </row>
     <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="243"/>
-      <c r="B98" s="276"/>
-      <c r="C98" s="248" t="s">
+      <c r="A98" s="212"/>
+      <c r="B98" s="206"/>
+      <c r="C98" s="209" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="137" t="s">
@@ -6333,9 +6348,9 @@
       <c r="M98" s="147"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1">
-      <c r="A99" s="243"/>
-      <c r="B99" s="276"/>
-      <c r="C99" s="249"/>
+      <c r="A99" s="212"/>
+      <c r="B99" s="206"/>
+      <c r="C99" s="210"/>
       <c r="D99" s="117" t="s">
         <v>61</v>
       </c>
@@ -6343,60 +6358,60 @@
       <c r="F99" s="75">
         <v>1</v>
       </c>
-      <c r="G99" s="219" t="s">
+      <c r="G99" s="237" t="s">
         <v>357</v>
       </c>
-      <c r="H99" s="220"/>
-      <c r="I99" s="221"/>
+      <c r="H99" s="238"/>
+      <c r="I99" s="239"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="93"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1">
-      <c r="A100" s="243"/>
-      <c r="B100" s="276"/>
-      <c r="C100" s="249"/>
+      <c r="A100" s="212"/>
+      <c r="B100" s="206"/>
+      <c r="C100" s="210"/>
       <c r="D100" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="187"/>
+      <c r="E100" s="186"/>
       <c r="F100" s="75">
         <v>0.25</v>
       </c>
       <c r="G100" s="75">
         <v>0.25</v>
       </c>
-      <c r="H100" s="187"/>
-      <c r="I100" s="187"/>
+      <c r="H100" s="186"/>
+      <c r="I100" s="186"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="93"/>
     </row>
     <row r="101" spans="1:13" ht="42" customHeight="1">
-      <c r="A101" s="243"/>
-      <c r="B101" s="276"/>
-      <c r="C101" s="249"/>
+      <c r="A101" s="212"/>
+      <c r="B101" s="206"/>
+      <c r="C101" s="210"/>
       <c r="D101" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="189"/>
-      <c r="F101" s="189"/>
-      <c r="G101" s="222" t="s">
+      <c r="E101" s="188"/>
+      <c r="F101" s="188"/>
+      <c r="G101" s="292" t="s">
         <v>285</v>
       </c>
-      <c r="H101" s="222"/>
-      <c r="I101" s="223"/>
+      <c r="H101" s="292"/>
+      <c r="I101" s="293"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="1:13" ht="51">
-      <c r="A102" s="243"/>
-      <c r="B102" s="276"/>
-      <c r="C102" s="248" t="s">
+      <c r="A102" s="212"/>
+      <c r="B102" s="206"/>
+      <c r="C102" s="209" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="137" t="s">
@@ -6420,66 +6435,66 @@
       <c r="M102" s="147"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="243"/>
-      <c r="B103" s="276"/>
-      <c r="C103" s="249"/>
+      <c r="A103" s="212"/>
+      <c r="B103" s="206"/>
+      <c r="C103" s="210"/>
       <c r="D103" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="190"/>
+      <c r="E103" s="189"/>
       <c r="F103" s="74">
         <v>0</v>
       </c>
       <c r="G103" s="74">
         <v>0.25</v>
       </c>
-      <c r="H103" s="199"/>
-      <c r="I103" s="199"/>
+      <c r="H103" s="198"/>
+      <c r="I103" s="198"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A104" s="243"/>
-      <c r="B104" s="276"/>
-      <c r="C104" s="249"/>
+      <c r="A104" s="212"/>
+      <c r="B104" s="206"/>
+      <c r="C104" s="210"/>
       <c r="D104" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="190"/>
-      <c r="F104" s="190"/>
-      <c r="G104" s="215" t="s">
+      <c r="E104" s="189"/>
+      <c r="F104" s="189"/>
+      <c r="G104" s="288" t="s">
         <v>364</v>
       </c>
-      <c r="H104" s="210"/>
-      <c r="I104" s="211"/>
+      <c r="H104" s="283"/>
+      <c r="I104" s="284"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="93"/>
     </row>
     <row r="105" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A105" s="243"/>
-      <c r="B105" s="276"/>
-      <c r="C105" s="249"/>
+      <c r="A105" s="212"/>
+      <c r="B105" s="206"/>
+      <c r="C105" s="210"/>
       <c r="D105" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="190"/>
-      <c r="F105" s="190"/>
-      <c r="G105" s="212"/>
-      <c r="H105" s="213"/>
-      <c r="I105" s="214"/>
+      <c r="E105" s="189"/>
+      <c r="F105" s="189"/>
+      <c r="G105" s="285"/>
+      <c r="H105" s="286"/>
+      <c r="I105" s="287"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="93"/>
     </row>
     <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="243"/>
-      <c r="B106" s="276"/>
-      <c r="C106" s="258" t="s">
+      <c r="A106" s="212"/>
+      <c r="B106" s="206"/>
+      <c r="C106" s="207" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="136" t="s">
@@ -6503,9 +6518,9 @@
       <c r="M106" s="147"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="243"/>
-      <c r="B107" s="276"/>
-      <c r="C107" s="259"/>
+      <c r="A107" s="212"/>
+      <c r="B107" s="206"/>
+      <c r="C107" s="208"/>
       <c r="D107" s="119" t="s">
         <v>325</v>
       </c>
@@ -6524,9 +6539,9 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A108" s="243"/>
-      <c r="B108" s="276"/>
-      <c r="C108" s="259"/>
+      <c r="A108" s="212"/>
+      <c r="B108" s="206"/>
+      <c r="C108" s="208"/>
       <c r="D108" s="119" t="s">
         <v>64</v>
       </c>
@@ -6545,9 +6560,9 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A109" s="243"/>
-      <c r="B109" s="276"/>
-      <c r="C109" s="259"/>
+      <c r="A109" s="212"/>
+      <c r="B109" s="206"/>
+      <c r="C109" s="208"/>
       <c r="D109" s="119" t="s">
         <v>113</v>
       </c>
@@ -6566,9 +6581,9 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:13" ht="38.25">
-      <c r="A110" s="243"/>
-      <c r="B110" s="276"/>
-      <c r="C110" s="258" t="s">
+      <c r="A110" s="212"/>
+      <c r="B110" s="206"/>
+      <c r="C110" s="207" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="137" t="s">
@@ -6590,9 +6605,9 @@
       <c r="M110" s="147"/>
     </row>
     <row r="111" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A111" s="243"/>
-      <c r="B111" s="276"/>
-      <c r="C111" s="259"/>
+      <c r="A111" s="212"/>
+      <c r="B111" s="206"/>
+      <c r="C111" s="208"/>
       <c r="D111" s="107" t="s">
         <v>208</v>
       </c>
@@ -6600,20 +6615,20 @@
       <c r="F111" s="75">
         <v>0.1</v>
       </c>
-      <c r="G111" s="285" t="s">
+      <c r="G111" s="244" t="s">
         <v>359</v>
       </c>
-      <c r="H111" s="286"/>
-      <c r="I111" s="287"/>
+      <c r="H111" s="245"/>
+      <c r="I111" s="246"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="42" customHeight="1">
-      <c r="A112" s="243"/>
-      <c r="B112" s="276"/>
-      <c r="C112" s="259"/>
+      <c r="A112" s="212"/>
+      <c r="B112" s="206"/>
+      <c r="C112" s="208"/>
       <c r="D112" s="107" t="s">
         <v>209</v>
       </c>
@@ -6621,18 +6636,18 @@
       <c r="F112" s="75">
         <v>0.1</v>
       </c>
-      <c r="G112" s="288"/>
-      <c r="H112" s="289"/>
-      <c r="I112" s="290"/>
+      <c r="G112" s="247"/>
+      <c r="H112" s="248"/>
+      <c r="I112" s="249"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A113" s="243"/>
-      <c r="B113" s="276"/>
-      <c r="C113" s="259"/>
+      <c r="A113" s="212"/>
+      <c r="B113" s="206"/>
+      <c r="C113" s="208"/>
       <c r="D113" s="107" t="s">
         <v>210</v>
       </c>
@@ -6640,22 +6655,22 @@
       <c r="F113" s="75">
         <v>0.1</v>
       </c>
-      <c r="G113" s="291"/>
-      <c r="H113" s="292"/>
-      <c r="I113" s="293"/>
+      <c r="G113" s="250"/>
+      <c r="H113" s="251"/>
+      <c r="I113" s="252"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="242" t="s">
+      <c r="A114" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="245" t="s">
+      <c r="B114" s="214" t="s">
         <v>355</v>
       </c>
-      <c r="C114" s="258" t="s">
+      <c r="C114" s="207" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="136" t="s">
@@ -6679,9 +6694,9 @@
       <c r="M114" s="147"/>
     </row>
     <row r="115" spans="1:13" ht="33" customHeight="1">
-      <c r="A115" s="243"/>
-      <c r="B115" s="246"/>
-      <c r="C115" s="259"/>
+      <c r="A115" s="212"/>
+      <c r="B115" s="215"/>
+      <c r="C115" s="208"/>
       <c r="D115" s="119" t="s">
         <v>327</v>
       </c>
@@ -6700,9 +6715,9 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A116" s="243"/>
-      <c r="B116" s="246"/>
-      <c r="C116" s="259"/>
+      <c r="A116" s="212"/>
+      <c r="B116" s="215"/>
+      <c r="C116" s="208"/>
       <c r="D116" s="119" t="s">
         <v>211</v>
       </c>
@@ -6721,9 +6736,9 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A117" s="243"/>
-      <c r="B117" s="246"/>
-      <c r="C117" s="259"/>
+      <c r="A117" s="212"/>
+      <c r="B117" s="215"/>
+      <c r="C117" s="208"/>
       <c r="D117" s="119" t="s">
         <v>212</v>
       </c>
@@ -6742,9 +6757,9 @@
       <c r="M117" s="93"/>
     </row>
     <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="243"/>
-      <c r="B118" s="246"/>
-      <c r="C118" s="248" t="s">
+      <c r="A118" s="212"/>
+      <c r="B118" s="215"/>
+      <c r="C118" s="209" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="136" t="s">
@@ -6768,9 +6783,9 @@
       <c r="M118" s="147"/>
     </row>
     <row r="119" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A119" s="243"/>
-      <c r="B119" s="246"/>
-      <c r="C119" s="249"/>
+      <c r="A119" s="212"/>
+      <c r="B119" s="215"/>
+      <c r="C119" s="210"/>
       <c r="D119" s="121" t="s">
         <v>117</v>
       </c>
@@ -6789,9 +6804,9 @@
       <c r="M119" s="93"/>
     </row>
     <row r="120" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A120" s="243"/>
-      <c r="B120" s="246"/>
-      <c r="C120" s="249"/>
+      <c r="A120" s="212"/>
+      <c r="B120" s="215"/>
+      <c r="C120" s="210"/>
       <c r="D120" s="121" t="s">
         <v>118</v>
       </c>
@@ -6810,9 +6825,9 @@
       <c r="M120" s="93"/>
     </row>
     <row r="121" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A121" s="243"/>
-      <c r="B121" s="246"/>
-      <c r="C121" s="249"/>
+      <c r="A121" s="212"/>
+      <c r="B121" s="215"/>
+      <c r="C121" s="210"/>
       <c r="D121" s="117" t="s">
         <v>213</v>
       </c>
@@ -6831,10 +6846,10 @@
       <c r="M121" s="93"/>
     </row>
     <row r="122" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A122" s="243"/>
-      <c r="B122" s="246"/>
-      <c r="C122" s="249"/>
-      <c r="D122" s="198" t="s">
+      <c r="A122" s="212"/>
+      <c r="B122" s="215"/>
+      <c r="C122" s="210"/>
+      <c r="D122" s="197" t="s">
         <v>208</v>
       </c>
       <c r="E122" s="92"/>
@@ -6852,28 +6867,28 @@
       <c r="M122" s="93"/>
     </row>
     <row r="123" spans="1:13" ht="42" customHeight="1">
-      <c r="A123" s="243"/>
-      <c r="B123" s="246"/>
-      <c r="C123" s="249"/>
+      <c r="A123" s="212"/>
+      <c r="B123" s="215"/>
+      <c r="C123" s="210"/>
       <c r="D123" s="120" t="s">
         <v>209</v>
       </c>
       <c r="E123" s="98"/>
       <c r="F123" s="75"/>
-      <c r="G123" s="294" t="s">
+      <c r="G123" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="H123" s="235"/>
-      <c r="I123" s="236"/>
+      <c r="H123" s="242"/>
+      <c r="I123" s="243"/>
       <c r="J123" s="83"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="93"/>
     </row>
     <row r="124" spans="1:13" ht="38.25">
-      <c r="A124" s="243"/>
-      <c r="B124" s="246"/>
-      <c r="C124" s="255" t="s">
+      <c r="A124" s="212"/>
+      <c r="B124" s="215"/>
+      <c r="C124" s="216" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="136" t="s">
@@ -6897,9 +6912,9 @@
       <c r="M124" s="147"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="243"/>
-      <c r="B125" s="246"/>
-      <c r="C125" s="256"/>
+      <c r="A125" s="212"/>
+      <c r="B125" s="215"/>
+      <c r="C125" s="217"/>
       <c r="D125" s="123" t="s">
         <v>215</v>
       </c>
@@ -6907,20 +6922,20 @@
       <c r="F125" s="75">
         <v>1</v>
       </c>
-      <c r="G125" s="219" t="s">
+      <c r="G125" s="237" t="s">
         <v>353</v>
       </c>
-      <c r="H125" s="240"/>
-      <c r="I125" s="241"/>
+      <c r="H125" s="257"/>
+      <c r="I125" s="258"/>
       <c r="J125" s="83"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="93"/>
     </row>
     <row r="126" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A126" s="243"/>
-      <c r="B126" s="246"/>
-      <c r="C126" s="256"/>
+      <c r="A126" s="212"/>
+      <c r="B126" s="215"/>
+      <c r="C126" s="217"/>
       <c r="D126" s="117" t="s">
         <v>216</v>
       </c>
@@ -6939,9 +6954,9 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="243"/>
-      <c r="B127" s="246"/>
-      <c r="C127" s="256"/>
+      <c r="A127" s="212"/>
+      <c r="B127" s="215"/>
+      <c r="C127" s="217"/>
       <c r="D127" s="117" t="s">
         <v>119</v>
       </c>
@@ -6960,9 +6975,9 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A128" s="243"/>
-      <c r="B128" s="246"/>
-      <c r="C128" s="257"/>
+      <c r="A128" s="212"/>
+      <c r="B128" s="215"/>
+      <c r="C128" s="218"/>
       <c r="D128" s="107" t="s">
         <v>217</v>
       </c>
@@ -6981,9 +6996,9 @@
       <c r="M128" s="93"/>
     </row>
     <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="243"/>
-      <c r="B129" s="246"/>
-      <c r="C129" s="255" t="s">
+      <c r="A129" s="212"/>
+      <c r="B129" s="215"/>
+      <c r="C129" s="216" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="148" t="s">
@@ -7007,9 +7022,9 @@
       <c r="M129" s="147"/>
     </row>
     <row r="130" spans="1:13" ht="15.75">
-      <c r="A130" s="243"/>
-      <c r="B130" s="246"/>
-      <c r="C130" s="297"/>
+      <c r="A130" s="212"/>
+      <c r="B130" s="215"/>
+      <c r="C130" s="226"/>
       <c r="D130" s="117" t="s">
         <v>351</v>
       </c>
@@ -7017,60 +7032,60 @@
       <c r="F130" s="134">
         <v>1</v>
       </c>
-      <c r="G130" s="216" t="s">
+      <c r="G130" s="289" t="s">
         <v>363</v>
       </c>
-      <c r="H130" s="217"/>
-      <c r="I130" s="218"/>
+      <c r="H130" s="290"/>
+      <c r="I130" s="291"/>
       <c r="J130" s="85"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="93"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="243"/>
-      <c r="B131" s="246"/>
-      <c r="C131" s="297"/>
+      <c r="A131" s="212"/>
+      <c r="B131" s="215"/>
+      <c r="C131" s="226"/>
       <c r="D131" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="E131" s="187"/>
+      <c r="E131" s="186"/>
       <c r="F131" s="75">
         <v>0.15</v>
       </c>
       <c r="G131" s="75">
         <v>0.1</v>
       </c>
-      <c r="H131" s="187"/>
-      <c r="I131" s="187"/>
+      <c r="H131" s="186"/>
+      <c r="I131" s="186"/>
       <c r="J131" s="85"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="93"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="243"/>
-      <c r="B132" s="246"/>
-      <c r="C132" s="297"/>
+      <c r="A132" s="212"/>
+      <c r="B132" s="215"/>
+      <c r="C132" s="226"/>
       <c r="D132" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="E132" s="187"/>
-      <c r="F132" s="187"/>
-      <c r="G132" s="235" t="s">
+      <c r="E132" s="186"/>
+      <c r="F132" s="186"/>
+      <c r="G132" s="242" t="s">
         <v>285</v>
       </c>
-      <c r="H132" s="235"/>
-      <c r="I132" s="236"/>
+      <c r="H132" s="242"/>
+      <c r="I132" s="243"/>
       <c r="J132" s="85"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="93"/>
     </row>
     <row r="133" spans="1:13" ht="25.5">
-      <c r="A133" s="243"/>
-      <c r="B133" s="246"/>
-      <c r="C133" s="248" t="s">
+      <c r="A133" s="212"/>
+      <c r="B133" s="215"/>
+      <c r="C133" s="209" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="136" t="s">
@@ -7094,9 +7109,9 @@
       <c r="M133" s="147"/>
     </row>
     <row r="134" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A134" s="243"/>
-      <c r="B134" s="246"/>
-      <c r="C134" s="249"/>
+      <c r="A134" s="212"/>
+      <c r="B134" s="215"/>
+      <c r="C134" s="210"/>
       <c r="D134" s="124" t="s">
         <v>222</v>
       </c>
@@ -7115,9 +7130,9 @@
       <c r="M134" s="93"/>
     </row>
     <row r="135" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A135" s="243"/>
-      <c r="B135" s="246"/>
-      <c r="C135" s="249"/>
+      <c r="A135" s="212"/>
+      <c r="B135" s="215"/>
+      <c r="C135" s="210"/>
       <c r="D135" s="124" t="s">
         <v>223</v>
       </c>
@@ -7136,9 +7151,9 @@
       <c r="M135" s="93"/>
     </row>
     <row r="136" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A136" s="243"/>
-      <c r="B136" s="246"/>
-      <c r="C136" s="249"/>
+      <c r="A136" s="212"/>
+      <c r="B136" s="215"/>
+      <c r="C136" s="210"/>
       <c r="D136" s="124" t="s">
         <v>224</v>
       </c>
@@ -7157,9 +7172,9 @@
       <c r="M136" s="93"/>
     </row>
     <row r="137" spans="1:13" ht="38.25">
-      <c r="A137" s="243"/>
-      <c r="B137" s="246"/>
-      <c r="C137" s="250" t="s">
+      <c r="A137" s="212"/>
+      <c r="B137" s="215"/>
+      <c r="C137" s="221" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="139" t="s">
@@ -7183,9 +7198,9 @@
       <c r="M137" s="147"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="243"/>
-      <c r="B138" s="246"/>
-      <c r="C138" s="251"/>
+      <c r="A138" s="212"/>
+      <c r="B138" s="215"/>
+      <c r="C138" s="222"/>
       <c r="D138" s="119" t="s">
         <v>226</v>
       </c>
@@ -7204,9 +7219,9 @@
       <c r="M138" s="93"/>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="243"/>
-      <c r="B139" s="246"/>
-      <c r="C139" s="251"/>
+      <c r="A139" s="212"/>
+      <c r="B139" s="215"/>
+      <c r="C139" s="222"/>
       <c r="D139" s="119" t="s">
         <v>352</v>
       </c>
@@ -7225,53 +7240,53 @@
       <c r="M139" s="93"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="243"/>
-      <c r="B140" s="246"/>
-      <c r="C140" s="251"/>
+      <c r="A140" s="212"/>
+      <c r="B140" s="215"/>
+      <c r="C140" s="222"/>
       <c r="D140" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="E140" s="186"/>
+      <c r="E140" s="185"/>
       <c r="F140" s="74">
         <v>0.25</v>
       </c>
       <c r="G140" s="134">
         <v>0.05</v>
       </c>
-      <c r="H140" s="186"/>
-      <c r="I140" s="186"/>
+      <c r="H140" s="185"/>
+      <c r="I140" s="185"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="93"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1">
-      <c r="A141" s="243"/>
-      <c r="B141" s="246"/>
-      <c r="C141" s="252"/>
+      <c r="A141" s="212"/>
+      <c r="B141" s="215"/>
+      <c r="C141" s="223"/>
       <c r="D141" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="E141" s="186"/>
-      <c r="F141" s="186"/>
-      <c r="G141" s="227" t="s">
+      <c r="E141" s="185"/>
+      <c r="F141" s="185"/>
+      <c r="G141" s="275" t="s">
         <v>284</v>
       </c>
-      <c r="H141" s="227"/>
-      <c r="I141" s="228"/>
+      <c r="H141" s="275"/>
+      <c r="I141" s="276"/>
       <c r="J141" s="86"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="93"/>
     </row>
     <row r="142" spans="1:13" ht="51">
-      <c r="A142" s="298" t="s">
+      <c r="A142" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="262" t="s">
+      <c r="B142" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="258" t="s">
+      <c r="C142" s="207" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="136" t="s">
@@ -7295,13 +7310,13 @@
       <c r="M142" s="147"/>
     </row>
     <row r="143" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A143" s="298"/>
-      <c r="B143" s="263"/>
-      <c r="C143" s="259"/>
+      <c r="A143" s="227"/>
+      <c r="B143" s="264"/>
+      <c r="C143" s="208"/>
       <c r="D143" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="E143" s="187"/>
+      <c r="E143" s="186"/>
       <c r="F143" s="74">
         <v>0.25</v>
       </c>
@@ -7311,7 +7326,7 @@
       <c r="H143" s="74">
         <v>0.25</v>
       </c>
-      <c r="I143" s="202" t="s">
+      <c r="I143" s="201" t="s">
         <v>365</v>
       </c>
       <c r="J143" s="5"/>
@@ -7320,13 +7335,13 @@
       <c r="M143" s="93"/>
     </row>
     <row r="144" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A144" s="298"/>
-      <c r="B144" s="263"/>
-      <c r="C144" s="259"/>
+      <c r="A144" s="227"/>
+      <c r="B144" s="264"/>
+      <c r="C144" s="208"/>
       <c r="D144" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="187"/>
+      <c r="E144" s="186"/>
       <c r="F144" s="74">
         <v>0.25</v>
       </c>
@@ -7336,7 +7351,7 @@
       <c r="H144" s="74">
         <v>0.25</v>
       </c>
-      <c r="I144" s="202" t="s">
+      <c r="I144" s="201" t="s">
         <v>366</v>
       </c>
       <c r="J144" s="86"/>
@@ -7344,14 +7359,14 @@
       <c r="L144" s="5"/>
       <c r="M144" s="93"/>
     </row>
-    <row r="145" spans="1:13" ht="78" customHeight="1">
-      <c r="A145" s="298"/>
-      <c r="B145" s="263"/>
-      <c r="C145" s="259"/>
+    <row r="145" spans="1:13" ht="66.75" customHeight="1">
+      <c r="A145" s="227"/>
+      <c r="B145" s="264"/>
+      <c r="C145" s="208"/>
       <c r="D145" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="E145" s="187"/>
+      <c r="E145" s="186"/>
       <c r="F145" s="74">
         <v>0.25</v>
       </c>
@@ -7361,7 +7376,7 @@
       <c r="H145" s="74">
         <v>0.25</v>
       </c>
-      <c r="I145" s="203" t="s">
+      <c r="I145" s="202" t="s">
         <v>367</v>
       </c>
       <c r="J145" s="5"/>
@@ -7370,13 +7385,13 @@
       <c r="M145" s="93"/>
     </row>
     <row r="146" spans="1:13" ht="143.25" customHeight="1">
-      <c r="A146" s="298"/>
-      <c r="B146" s="263"/>
-      <c r="C146" s="259"/>
+      <c r="A146" s="227"/>
+      <c r="B146" s="264"/>
+      <c r="C146" s="208"/>
       <c r="D146" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="187"/>
+      <c r="E146" s="186"/>
       <c r="F146" s="74">
         <v>0.25</v>
       </c>
@@ -7386,8 +7401,8 @@
       <c r="H146" s="74">
         <v>0.25</v>
       </c>
-      <c r="I146" s="203" t="s">
-        <v>371</v>
+      <c r="I146" s="202" t="s">
+        <v>369</v>
       </c>
       <c r="J146" s="86"/>
       <c r="K146" s="5"/>
@@ -7395,9 +7410,9 @@
       <c r="M146" s="93"/>
     </row>
     <row r="147" spans="1:13" ht="109.5" customHeight="1">
-      <c r="A147" s="298"/>
-      <c r="B147" s="263"/>
-      <c r="C147" s="258" t="s">
+      <c r="A147" s="227"/>
+      <c r="B147" s="264"/>
+      <c r="C147" s="207" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="136" t="s">
@@ -7422,10 +7437,10 @@
       <c r="L147" s="146"/>
       <c r="M147" s="147"/>
     </row>
-    <row r="148" spans="1:13" ht="42" customHeight="1">
-      <c r="A148" s="298"/>
-      <c r="B148" s="263"/>
-      <c r="C148" s="259"/>
+    <row r="148" spans="1:13" ht="53.25" customHeight="1">
+      <c r="A148" s="227"/>
+      <c r="B148" s="264"/>
+      <c r="C148" s="208"/>
       <c r="D148" s="121" t="s">
         <v>124</v>
       </c>
@@ -7436,19 +7451,21 @@
       <c r="G148" s="75">
         <v>0.08</v>
       </c>
-      <c r="H148" s="75"/>
+      <c r="H148" s="75">
+        <v>0.08</v>
+      </c>
       <c r="I148" s="84" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J148" s="86"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="93"/>
     </row>
-    <row r="149" spans="1:13" ht="45" customHeight="1">
-      <c r="A149" s="298"/>
-      <c r="B149" s="263"/>
-      <c r="C149" s="259"/>
+    <row r="149" spans="1:13" ht="58.5" customHeight="1">
+      <c r="A149" s="227"/>
+      <c r="B149" s="264"/>
+      <c r="C149" s="208"/>
       <c r="D149" s="121" t="s">
         <v>332</v>
       </c>
@@ -7459,19 +7476,21 @@
       <c r="G149" s="75">
         <v>0.08</v>
       </c>
-      <c r="H149" s="75"/>
+      <c r="H149" s="75">
+        <v>0.08</v>
+      </c>
       <c r="I149" s="84" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="J149" s="86"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="93"/>
     </row>
-    <row r="150" spans="1:13" ht="54.75" customHeight="1">
-      <c r="A150" s="298"/>
-      <c r="B150" s="263"/>
-      <c r="C150" s="259"/>
+    <row r="150" spans="1:13" ht="67.5" customHeight="1">
+      <c r="A150" s="227"/>
+      <c r="B150" s="264"/>
+      <c r="C150" s="208"/>
       <c r="D150" s="121" t="s">
         <v>125</v>
       </c>
@@ -7482,17 +7501,21 @@
       <c r="G150" s="75">
         <v>0.08</v>
       </c>
-      <c r="H150" s="75"/>
-      <c r="I150" s="77"/>
+      <c r="H150" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I150" s="77" t="s">
+        <v>378</v>
+      </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="1:13" ht="38.25">
-      <c r="A151" s="298"/>
-      <c r="B151" s="263"/>
-      <c r="C151" s="258" t="s">
+    <row r="151" spans="1:13" ht="51">
+      <c r="A151" s="227"/>
+      <c r="B151" s="264"/>
+      <c r="C151" s="207" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="137" t="s">
@@ -7516,9 +7539,9 @@
       <c r="M151" s="147"/>
     </row>
     <row r="152" spans="1:13" ht="38.25">
-      <c r="A152" s="298"/>
-      <c r="B152" s="263"/>
-      <c r="C152" s="259"/>
+      <c r="A152" s="227"/>
+      <c r="B152" s="264"/>
+      <c r="C152" s="208"/>
       <c r="D152" s="117" t="s">
         <v>233</v>
       </c>
@@ -7529,17 +7552,21 @@
       <c r="G152" s="75">
         <v>0.08</v>
       </c>
-      <c r="H152" s="75"/>
-      <c r="I152" s="179"/>
+      <c r="H152" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I152" s="179" t="s">
+        <v>373</v>
+      </c>
       <c r="J152" s="86"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="38.25">
-      <c r="A153" s="298"/>
-      <c r="B153" s="263"/>
-      <c r="C153" s="259"/>
+      <c r="A153" s="227"/>
+      <c r="B153" s="264"/>
+      <c r="C153" s="208"/>
       <c r="D153" s="117" t="s">
         <v>234</v>
       </c>
@@ -7550,17 +7577,21 @@
       <c r="G153" s="75">
         <v>0.08</v>
       </c>
-      <c r="H153" s="75"/>
-      <c r="I153" s="180"/>
+      <c r="H153" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I153" s="204" t="s">
+        <v>374</v>
+      </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="1:13" ht="38.25">
-      <c r="A154" s="298"/>
-      <c r="B154" s="263"/>
-      <c r="C154" s="259"/>
+    <row r="154" spans="1:13" ht="48">
+      <c r="A154" s="227"/>
+      <c r="B154" s="264"/>
+      <c r="C154" s="208"/>
       <c r="D154" s="117" t="s">
         <v>235</v>
       </c>
@@ -7571,17 +7602,21 @@
       <c r="G154" s="75">
         <v>0.08</v>
       </c>
-      <c r="H154" s="75"/>
-      <c r="I154" s="77"/>
+      <c r="H154" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="I154" s="204" t="s">
+        <v>375</v>
+      </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="3"/>
     </row>
     <row r="155" spans="1:13" ht="51">
-      <c r="A155" s="298"/>
-      <c r="B155" s="263"/>
-      <c r="C155" s="258" t="s">
+      <c r="A155" s="227"/>
+      <c r="B155" s="264"/>
+      <c r="C155" s="207" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="137" t="s">
@@ -7605,9 +7640,9 @@
       <c r="M155" s="147"/>
     </row>
     <row r="156" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A156" s="298"/>
-      <c r="B156" s="263"/>
-      <c r="C156" s="259"/>
+      <c r="A156" s="227"/>
+      <c r="B156" s="264"/>
+      <c r="C156" s="208"/>
       <c r="D156" s="119" t="s">
         <v>237</v>
       </c>
@@ -7626,9 +7661,9 @@
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="42" customHeight="1">
-      <c r="A157" s="298"/>
-      <c r="B157" s="263"/>
-      <c r="C157" s="259"/>
+      <c r="A157" s="227"/>
+      <c r="B157" s="264"/>
+      <c r="C157" s="208"/>
       <c r="D157" s="117" t="s">
         <v>238</v>
       </c>
@@ -7647,9 +7682,9 @@
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A158" s="298"/>
-      <c r="B158" s="263"/>
-      <c r="C158" s="259"/>
+      <c r="A158" s="227"/>
+      <c r="B158" s="264"/>
+      <c r="C158" s="208"/>
       <c r="D158" s="117" t="s">
         <v>239</v>
       </c>
@@ -7668,9 +7703,9 @@
       <c r="M158" s="3"/>
     </row>
     <row r="159" spans="1:13" ht="25.5">
-      <c r="A159" s="298"/>
-      <c r="B159" s="263"/>
-      <c r="C159" s="258" t="s">
+      <c r="A159" s="227"/>
+      <c r="B159" s="264"/>
+      <c r="C159" s="207" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="137" t="s">
@@ -7694,9 +7729,9 @@
       <c r="M159" s="147"/>
     </row>
     <row r="160" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A160" s="298"/>
-      <c r="B160" s="263"/>
-      <c r="C160" s="259"/>
+      <c r="A160" s="227"/>
+      <c r="B160" s="264"/>
+      <c r="C160" s="208"/>
       <c r="D160" s="121" t="s">
         <v>241</v>
       </c>
@@ -7710,8 +7745,8 @@
       <c r="H160" s="75">
         <v>0.08</v>
       </c>
-      <c r="I160" s="204" t="s">
-        <v>373</v>
+      <c r="I160" s="203" t="s">
+        <v>370</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -7719,9 +7754,9 @@
       <c r="M160" s="3"/>
     </row>
     <row r="161" spans="1:18" ht="29.25" customHeight="1">
-      <c r="A161" s="298"/>
-      <c r="B161" s="263"/>
-      <c r="C161" s="259"/>
+      <c r="A161" s="227"/>
+      <c r="B161" s="264"/>
+      <c r="C161" s="208"/>
       <c r="D161" s="121" t="s">
         <v>242</v>
       </c>
@@ -7735,8 +7770,8 @@
       <c r="H161" s="75">
         <v>0.08</v>
       </c>
-      <c r="I161" s="205" t="s">
-        <v>374</v>
+      <c r="I161" s="204" t="s">
+        <v>371</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -7744,9 +7779,9 @@
       <c r="M161" s="3"/>
     </row>
     <row r="162" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A162" s="298"/>
-      <c r="B162" s="263"/>
-      <c r="C162" s="259"/>
+      <c r="A162" s="227"/>
+      <c r="B162" s="264"/>
+      <c r="C162" s="208"/>
       <c r="D162" s="121" t="s">
         <v>243</v>
       </c>
@@ -7760,7 +7795,7 @@
       <c r="H162" s="75">
         <v>0.08</v>
       </c>
-      <c r="I162" s="205" t="s">
+      <c r="I162" s="204" t="s">
         <v>372</v>
       </c>
       <c r="J162" s="5"/>
@@ -7770,8 +7805,8 @@
     </row>
     <row r="163" spans="1:18" ht="25.5">
       <c r="A163" s="69"/>
-      <c r="B163" s="263"/>
-      <c r="C163" s="274" t="s">
+      <c r="B163" s="264"/>
+      <c r="C163" s="229" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="137" t="s">
@@ -7796,8 +7831,8 @@
     </row>
     <row r="164" spans="1:18" ht="43.5" customHeight="1">
       <c r="A164" s="69"/>
-      <c r="B164" s="263"/>
-      <c r="C164" s="275"/>
+      <c r="B164" s="264"/>
+      <c r="C164" s="230"/>
       <c r="D164" s="119" t="s">
         <v>246</v>
       </c>
@@ -7817,8 +7852,8 @@
     </row>
     <row r="165" spans="1:18" ht="42" customHeight="1">
       <c r="A165" s="69"/>
-      <c r="B165" s="263"/>
-      <c r="C165" s="275"/>
+      <c r="B165" s="264"/>
+      <c r="C165" s="230"/>
       <c r="D165" s="117" t="s">
         <v>247</v>
       </c>
@@ -7838,8 +7873,8 @@
     </row>
     <row r="166" spans="1:18" ht="31.5" customHeight="1">
       <c r="A166" s="69"/>
-      <c r="B166" s="263"/>
-      <c r="C166" s="275"/>
+      <c r="B166" s="264"/>
+      <c r="C166" s="230"/>
       <c r="D166" s="117" t="s">
         <v>248</v>
       </c>
@@ -7858,13 +7893,13 @@
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="242" t="s">
+      <c r="A167" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="296" t="s">
+      <c r="B167" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="258" t="s">
+      <c r="C167" s="207" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="150" t="s">
@@ -7888,9 +7923,9 @@
       <c r="M167" s="147"/>
     </row>
     <row r="168" spans="1:18" ht="42.75">
-      <c r="A168" s="243"/>
-      <c r="B168" s="262"/>
-      <c r="C168" s="259"/>
+      <c r="A168" s="212"/>
+      <c r="B168" s="205"/>
+      <c r="C168" s="208"/>
       <c r="D168" s="151" t="s">
         <v>342</v>
       </c>
@@ -7898,20 +7933,20 @@
       <c r="F168" s="74">
         <v>1</v>
       </c>
-      <c r="G168" s="206" t="s">
+      <c r="G168" s="279" t="s">
         <v>357</v>
       </c>
-      <c r="H168" s="207"/>
-      <c r="I168" s="208"/>
+      <c r="H168" s="280"/>
+      <c r="I168" s="281"/>
       <c r="J168" s="177"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
     <row r="169" spans="1:18" ht="28.5">
-      <c r="A169" s="243"/>
-      <c r="B169" s="262"/>
-      <c r="C169" s="259"/>
+      <c r="A169" s="212"/>
+      <c r="B169" s="205"/>
+      <c r="C169" s="208"/>
       <c r="D169" s="151" t="s">
         <v>343</v>
       </c>
@@ -7922,8 +7957,8 @@
       <c r="G169" s="75">
         <v>0.25</v>
       </c>
-      <c r="H169" s="197"/>
-      <c r="I169" s="197"/>
+      <c r="H169" s="196"/>
+      <c r="I169" s="196"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
@@ -7933,28 +7968,28 @@
       </c>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="243"/>
-      <c r="B170" s="262"/>
-      <c r="C170" s="259"/>
+      <c r="A170" s="212"/>
+      <c r="B170" s="205"/>
+      <c r="C170" s="208"/>
       <c r="D170" s="152" t="s">
         <v>344</v>
       </c>
       <c r="E170" s="98"/>
-      <c r="F170" s="182"/>
-      <c r="G170" s="182"/>
-      <c r="H170" s="253" t="s">
+      <c r="F170" s="181"/>
+      <c r="G170" s="181"/>
+      <c r="H170" s="260" t="s">
         <v>285</v>
       </c>
-      <c r="I170" s="254"/>
+      <c r="I170" s="261"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="3"/>
     </row>
     <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="243"/>
-      <c r="B171" s="262"/>
-      <c r="C171" s="250" t="s">
+      <c r="A171" s="212"/>
+      <c r="B171" s="205"/>
+      <c r="C171" s="221" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="137" t="s">
@@ -7978,9 +8013,9 @@
       <c r="M171" s="147"/>
     </row>
     <row r="172" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A172" s="243"/>
-      <c r="B172" s="262"/>
-      <c r="C172" s="251"/>
+      <c r="A172" s="212"/>
+      <c r="B172" s="205"/>
+      <c r="C172" s="222"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
@@ -7988,82 +8023,82 @@
       <c r="F172" s="75">
         <v>1</v>
       </c>
-      <c r="G172" s="219" t="s">
+      <c r="G172" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H172" s="220"/>
-      <c r="I172" s="221"/>
+      <c r="H172" s="238"/>
+      <c r="I172" s="239"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="55.5" customHeight="1">
-      <c r="A173" s="243"/>
-      <c r="B173" s="262"/>
-      <c r="C173" s="251"/>
+      <c r="A173" s="212"/>
+      <c r="B173" s="205"/>
+      <c r="C173" s="222"/>
       <c r="D173" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
       </c>
-      <c r="E173" s="186"/>
+      <c r="E173" s="185"/>
       <c r="F173" s="74">
         <v>1</v>
       </c>
-      <c r="G173" s="206" t="s">
+      <c r="G173" s="279" t="s">
         <v>363</v>
       </c>
-      <c r="H173" s="207"/>
-      <c r="I173" s="208"/>
+      <c r="H173" s="280"/>
+      <c r="I173" s="281"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A174" s="243"/>
-      <c r="B174" s="262"/>
-      <c r="C174" s="251"/>
+      <c r="A174" s="212"/>
+      <c r="B174" s="205"/>
+      <c r="C174" s="222"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="E174" s="189"/>
+      <c r="E174" s="188"/>
       <c r="F174" s="134">
         <v>0</v>
       </c>
       <c r="G174" s="134">
         <v>0.25</v>
       </c>
-      <c r="H174" s="201"/>
-      <c r="I174" s="201"/>
+      <c r="H174" s="200"/>
+      <c r="I174" s="200"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="42" customHeight="1">
-      <c r="A175" s="243"/>
-      <c r="B175" s="262"/>
-      <c r="C175" s="252"/>
+      <c r="A175" s="212"/>
+      <c r="B175" s="205"/>
+      <c r="C175" s="223"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="E175" s="186"/>
-      <c r="F175" s="186"/>
-      <c r="G175" s="227" t="s">
+      <c r="E175" s="185"/>
+      <c r="F175" s="185"/>
+      <c r="G175" s="275" t="s">
         <v>286</v>
       </c>
-      <c r="H175" s="227"/>
-      <c r="I175" s="228"/>
+      <c r="H175" s="275"/>
+      <c r="I175" s="276"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="42" customHeight="1">
-      <c r="A176" s="243"/>
-      <c r="B176" s="262"/>
-      <c r="C176" s="258" t="s">
+      <c r="A176" s="212"/>
+      <c r="B176" s="205"/>
+      <c r="C176" s="207" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="137" t="s">
@@ -8087,9 +8122,9 @@
       <c r="M176" s="147"/>
     </row>
     <row r="177" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A177" s="243"/>
-      <c r="B177" s="262"/>
-      <c r="C177" s="259"/>
+      <c r="A177" s="212"/>
+      <c r="B177" s="205"/>
+      <c r="C177" s="208"/>
       <c r="D177" s="117" t="s">
         <v>129</v>
       </c>
@@ -8108,9 +8143,9 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A178" s="243"/>
-      <c r="B178" s="262"/>
-      <c r="C178" s="259"/>
+      <c r="A178" s="212"/>
+      <c r="B178" s="205"/>
+      <c r="C178" s="208"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
@@ -8129,28 +8164,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="45" customHeight="1">
-      <c r="A179" s="243"/>
-      <c r="B179" s="262"/>
-      <c r="C179" s="259"/>
+      <c r="A179" s="212"/>
+      <c r="B179" s="205"/>
+      <c r="C179" s="208"/>
       <c r="D179" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="E179" s="187"/>
-      <c r="F179" s="187"/>
-      <c r="G179" s="235" t="s">
+      <c r="E179" s="186"/>
+      <c r="F179" s="186"/>
+      <c r="G179" s="242" t="s">
         <v>284</v>
       </c>
-      <c r="H179" s="235"/>
-      <c r="I179" s="236"/>
+      <c r="H179" s="242"/>
+      <c r="I179" s="243"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
     <row r="180" spans="1:13" ht="38.25">
-      <c r="A180" s="243"/>
-      <c r="B180" s="262"/>
-      <c r="C180" s="248" t="s">
+      <c r="A180" s="212"/>
+      <c r="B180" s="205"/>
+      <c r="C180" s="209" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="137" t="s">
@@ -8174,9 +8209,9 @@
       <c r="M180" s="147"/>
     </row>
     <row r="181" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A181" s="243"/>
-      <c r="B181" s="262"/>
-      <c r="C181" s="249"/>
+      <c r="A181" s="212"/>
+      <c r="B181" s="205"/>
+      <c r="C181" s="210"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
@@ -8184,64 +8219,64 @@
       <c r="F181" s="75">
         <v>1</v>
       </c>
-      <c r="G181" s="219" t="s">
+      <c r="G181" s="237" t="s">
         <v>357</v>
       </c>
-      <c r="H181" s="220"/>
-      <c r="I181" s="221"/>
+      <c r="H181" s="238"/>
+      <c r="I181" s="239"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="243"/>
-      <c r="B182" s="262"/>
-      <c r="C182" s="249"/>
+      <c r="A182" s="212"/>
+      <c r="B182" s="205"/>
+      <c r="C182" s="210"/>
       <c r="D182" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="E182" s="191"/>
+      <c r="E182" s="190"/>
       <c r="F182" s="176">
         <v>0.16</v>
       </c>
       <c r="G182" s="176">
         <v>0.16</v>
       </c>
-      <c r="H182" s="191"/>
-      <c r="I182" s="191"/>
+      <c r="H182" s="190"/>
+      <c r="I182" s="190"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A183" s="244"/>
-      <c r="B183" s="262"/>
-      <c r="C183" s="249"/>
+      <c r="A183" s="219"/>
+      <c r="B183" s="205"/>
+      <c r="C183" s="210"/>
       <c r="D183" s="117" t="s">
         <v>260</v>
       </c>
-      <c r="E183" s="191"/>
-      <c r="F183" s="191"/>
-      <c r="G183" s="225" t="s">
+      <c r="E183" s="190"/>
+      <c r="F183" s="190"/>
+      <c r="G183" s="277" t="s">
         <v>284</v>
       </c>
-      <c r="H183" s="225"/>
-      <c r="I183" s="226"/>
+      <c r="H183" s="277"/>
+      <c r="I183" s="278"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
     <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="242" t="s">
+      <c r="A184" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="245" t="s">
+      <c r="B184" s="214" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="248" t="s">
+      <c r="C184" s="209" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="137" t="s">
@@ -8265,9 +8300,9 @@
       <c r="M184" s="147"/>
     </row>
     <row r="185" spans="1:13" ht="15.75">
-      <c r="A185" s="243"/>
-      <c r="B185" s="246"/>
-      <c r="C185" s="249"/>
+      <c r="A185" s="212"/>
+      <c r="B185" s="215"/>
+      <c r="C185" s="210"/>
       <c r="D185" s="117" t="s">
         <v>262</v>
       </c>
@@ -8286,9 +8321,9 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="30" customHeight="1">
-      <c r="A186" s="243"/>
-      <c r="B186" s="246"/>
-      <c r="C186" s="249"/>
+      <c r="A186" s="212"/>
+      <c r="B186" s="215"/>
+      <c r="C186" s="210"/>
       <c r="D186" s="117" t="s">
         <v>261</v>
       </c>
@@ -8307,28 +8342,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A187" s="243"/>
-      <c r="B187" s="246"/>
-      <c r="C187" s="249"/>
+      <c r="A187" s="212"/>
+      <c r="B187" s="215"/>
+      <c r="C187" s="210"/>
       <c r="D187" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="E187" s="187"/>
-      <c r="F187" s="187"/>
-      <c r="G187" s="235" t="s">
+      <c r="E187" s="186"/>
+      <c r="F187" s="186"/>
+      <c r="G187" s="242" t="s">
         <v>284</v>
       </c>
-      <c r="H187" s="235"/>
-      <c r="I187" s="236"/>
+      <c r="H187" s="242"/>
+      <c r="I187" s="243"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
     <row r="188" spans="1:13" ht="38.25">
-      <c r="A188" s="243"/>
-      <c r="B188" s="246"/>
-      <c r="C188" s="250" t="s">
+      <c r="A188" s="212"/>
+      <c r="B188" s="215"/>
+      <c r="C188" s="221" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="141" t="s">
@@ -8352,9 +8387,9 @@
       <c r="M188" s="147"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="243"/>
-      <c r="B189" s="246"/>
-      <c r="C189" s="251"/>
+      <c r="A189" s="212"/>
+      <c r="B189" s="215"/>
+      <c r="C189" s="222"/>
       <c r="D189" s="107" t="s">
         <v>334</v>
       </c>
@@ -8362,83 +8397,83 @@
       <c r="F189" s="75">
         <v>1</v>
       </c>
-      <c r="G189" s="219" t="s">
+      <c r="G189" s="237" t="s">
         <v>353</v>
       </c>
-      <c r="H189" s="240"/>
-      <c r="I189" s="241"/>
+      <c r="H189" s="257"/>
+      <c r="I189" s="258"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="25.5">
-      <c r="A190" s="243"/>
-      <c r="B190" s="246"/>
-      <c r="C190" s="251"/>
+      <c r="A190" s="212"/>
+      <c r="B190" s="215"/>
+      <c r="C190" s="222"/>
       <c r="D190" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="E190" s="187"/>
+      <c r="E190" s="186"/>
       <c r="F190" s="75">
         <v>1</v>
       </c>
-      <c r="G190" s="219" t="s">
+      <c r="G190" s="237" t="s">
         <v>357</v>
       </c>
-      <c r="H190" s="220"/>
-      <c r="I190" s="221"/>
+      <c r="H190" s="238"/>
+      <c r="I190" s="239"/>
       <c r="J190" s="80"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="25.5">
-      <c r="A191" s="243"/>
-      <c r="B191" s="246"/>
-      <c r="C191" s="251"/>
+      <c r="A191" s="212"/>
+      <c r="B191" s="215"/>
+      <c r="C191" s="222"/>
       <c r="D191" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="E191" s="187"/>
+      <c r="E191" s="186"/>
       <c r="F191" s="75">
         <v>0.5</v>
       </c>
       <c r="G191" s="75">
         <v>0.5</v>
       </c>
-      <c r="H191" s="187"/>
-      <c r="I191" s="187"/>
+      <c r="H191" s="186"/>
+      <c r="I191" s="186"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="3"/>
     </row>
     <row r="192" spans="1:13" ht="25.5">
-      <c r="A192" s="243"/>
-      <c r="B192" s="246"/>
-      <c r="C192" s="252"/>
+      <c r="A192" s="212"/>
+      <c r="B192" s="215"/>
+      <c r="C192" s="223"/>
       <c r="D192" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="187"/>
+      <c r="E192" s="186"/>
       <c r="F192" s="75">
         <v>0.22</v>
       </c>
       <c r="G192" s="75">
         <v>0.11</v>
       </c>
-      <c r="H192" s="187"/>
-      <c r="I192" s="187"/>
+      <c r="H192" s="186"/>
+      <c r="I192" s="186"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
       <c r="M192" s="3"/>
     </row>
     <row r="193" spans="1:16" ht="25.5">
-      <c r="A193" s="243"/>
-      <c r="B193" s="246"/>
-      <c r="C193" s="248" t="s">
+      <c r="A193" s="212"/>
+      <c r="B193" s="215"/>
+      <c r="C193" s="209" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="141" t="s">
@@ -8462,9 +8497,9 @@
       <c r="M193" s="147"/>
     </row>
     <row r="194" spans="1:16" ht="25.5">
-      <c r="A194" s="243"/>
-      <c r="B194" s="246"/>
-      <c r="C194" s="249"/>
+      <c r="A194" s="212"/>
+      <c r="B194" s="215"/>
+      <c r="C194" s="210"/>
       <c r="D194" s="107" t="s">
         <v>270</v>
       </c>
@@ -8472,60 +8507,60 @@
       <c r="F194" s="75">
         <v>1</v>
       </c>
-      <c r="G194" s="219" t="s">
+      <c r="G194" s="237" t="s">
         <v>363</v>
       </c>
-      <c r="H194" s="220"/>
-      <c r="I194" s="221"/>
+      <c r="H194" s="238"/>
+      <c r="I194" s="239"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="25.5">
-      <c r="A195" s="243"/>
-      <c r="B195" s="246"/>
-      <c r="C195" s="249"/>
+      <c r="A195" s="212"/>
+      <c r="B195" s="215"/>
+      <c r="C195" s="210"/>
       <c r="D195" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="E195" s="189"/>
+      <c r="E195" s="188"/>
       <c r="F195" s="134">
         <v>0</v>
       </c>
       <c r="G195" s="134">
         <v>0.33</v>
       </c>
-      <c r="H195" s="201"/>
-      <c r="I195" s="201"/>
+      <c r="H195" s="200"/>
+      <c r="I195" s="200"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="243"/>
-      <c r="B196" s="246"/>
-      <c r="C196" s="249"/>
+      <c r="A196" s="212"/>
+      <c r="B196" s="215"/>
+      <c r="C196" s="210"/>
       <c r="D196" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="E196" s="191"/>
-      <c r="F196" s="191"/>
-      <c r="G196" s="225" t="s">
+      <c r="E196" s="190"/>
+      <c r="F196" s="190"/>
+      <c r="G196" s="277" t="s">
         <v>285</v>
       </c>
-      <c r="H196" s="225"/>
-      <c r="I196" s="226"/>
+      <c r="H196" s="277"/>
+      <c r="I196" s="278"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="3"/>
     </row>
     <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="243"/>
-      <c r="B197" s="246"/>
-      <c r="C197" s="255" t="s">
+      <c r="A197" s="212"/>
+      <c r="B197" s="215"/>
+      <c r="C197" s="216" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="137" t="s">
@@ -8549,9 +8584,9 @@
       <c r="M197" s="147"/>
     </row>
     <row r="198" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A198" s="243"/>
-      <c r="B198" s="246"/>
-      <c r="C198" s="256"/>
+      <c r="A198" s="212"/>
+      <c r="B198" s="215"/>
+      <c r="C198" s="217"/>
       <c r="D198" s="117" t="s">
         <v>274</v>
       </c>
@@ -8559,20 +8594,20 @@
       <c r="F198" s="75">
         <v>1</v>
       </c>
-      <c r="G198" s="219" t="s">
+      <c r="G198" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H198" s="220"/>
-      <c r="I198" s="221"/>
+      <c r="H198" s="238"/>
+      <c r="I198" s="239"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A199" s="243"/>
-      <c r="B199" s="246"/>
-      <c r="C199" s="256"/>
+      <c r="A199" s="212"/>
+      <c r="B199" s="215"/>
+      <c r="C199" s="217"/>
       <c r="D199" s="117" t="s">
         <v>275</v>
       </c>
@@ -8591,51 +8626,51 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A200" s="243"/>
-      <c r="B200" s="246"/>
-      <c r="C200" s="256"/>
+      <c r="A200" s="212"/>
+      <c r="B200" s="215"/>
+      <c r="C200" s="217"/>
       <c r="D200" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="E200" s="187"/>
+      <c r="E200" s="186"/>
       <c r="F200" s="75">
         <v>0.3</v>
       </c>
       <c r="G200" s="75">
         <v>0.15</v>
       </c>
-      <c r="H200" s="187"/>
-      <c r="I200" s="187"/>
+      <c r="H200" s="186"/>
+      <c r="I200" s="186"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="42.75" customHeight="1">
-      <c r="A201" s="243"/>
-      <c r="B201" s="246"/>
-      <c r="C201" s="257"/>
+      <c r="A201" s="212"/>
+      <c r="B201" s="215"/>
+      <c r="C201" s="218"/>
       <c r="D201" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="E201" s="187"/>
+      <c r="E201" s="186"/>
       <c r="F201" s="75">
         <v>0.22</v>
       </c>
       <c r="G201" s="75">
         <v>0.11</v>
       </c>
-      <c r="H201" s="187"/>
-      <c r="I201" s="187"/>
+      <c r="H201" s="186"/>
+      <c r="I201" s="186"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="30" customHeight="1">
-      <c r="A202" s="243"/>
-      <c r="B202" s="246"/>
-      <c r="C202" s="258" t="s">
+      <c r="A202" s="212"/>
+      <c r="B202" s="215"/>
+      <c r="C202" s="207" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="135" t="s">
@@ -8659,9 +8694,9 @@
       <c r="M202" s="147"/>
     </row>
     <row r="203" spans="1:16" ht="54" customHeight="1">
-      <c r="A203" s="243"/>
-      <c r="B203" s="246"/>
-      <c r="C203" s="259"/>
+      <c r="A203" s="212"/>
+      <c r="B203" s="215"/>
+      <c r="C203" s="208"/>
       <c r="D203" s="122" t="s">
         <v>279</v>
       </c>
@@ -8669,62 +8704,62 @@
       <c r="F203" s="75">
         <v>1</v>
       </c>
-      <c r="G203" s="219" t="s">
+      <c r="G203" s="237" t="s">
         <v>354</v>
       </c>
-      <c r="H203" s="220"/>
-      <c r="I203" s="221"/>
+      <c r="H203" s="238"/>
+      <c r="I203" s="239"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="55.5" customHeight="1">
-      <c r="A204" s="243"/>
-      <c r="B204" s="246"/>
-      <c r="C204" s="259"/>
+      <c r="A204" s="212"/>
+      <c r="B204" s="215"/>
+      <c r="C204" s="208"/>
       <c r="D204" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="E204" s="187"/>
+      <c r="E204" s="186"/>
       <c r="F204" s="75">
         <v>0.67</v>
       </c>
       <c r="G204" s="75">
         <v>0.33</v>
       </c>
-      <c r="H204" s="187"/>
-      <c r="I204" s="187"/>
+      <c r="H204" s="186"/>
+      <c r="I204" s="186"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="54.75" customHeight="1">
-      <c r="A205" s="244"/>
-      <c r="B205" s="247"/>
-      <c r="C205" s="259"/>
+      <c r="A205" s="219"/>
+      <c r="B205" s="259"/>
+      <c r="C205" s="208"/>
       <c r="D205" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="E205" s="187"/>
+      <c r="E205" s="186"/>
       <c r="F205" s="75">
         <v>0.22</v>
       </c>
       <c r="G205" s="75">
         <v>0.11</v>
       </c>
-      <c r="H205" s="187"/>
-      <c r="I205" s="187"/>
+      <c r="H205" s="186"/>
+      <c r="I205" s="186"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A206" s="238"/>
-      <c r="B206" s="238"/>
-      <c r="C206" s="237" t="s">
+      <c r="A206" s="255"/>
+      <c r="B206" s="255"/>
+      <c r="C206" s="254" t="s">
         <v>345</v>
       </c>
       <c r="D206" s="157" t="s">
@@ -8741,7 +8776,7 @@
         <v>0.09</v>
       </c>
       <c r="H206" s="162"/>
-      <c r="I206" s="181"/>
+      <c r="I206" s="180"/>
       <c r="J206" s="154"/>
       <c r="K206" s="155"/>
       <c r="L206" s="155"/>
@@ -8751,10 +8786,10 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A207" s="238"/>
-      <c r="B207" s="238"/>
-      <c r="C207" s="237"/>
-      <c r="D207" s="188" t="s">
+      <c r="A207" s="255"/>
+      <c r="B207" s="255"/>
+      <c r="C207" s="254"/>
+      <c r="D207" s="187" t="s">
         <v>347</v>
       </c>
       <c r="E207" s="153"/>
@@ -8775,10 +8810,10 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="238"/>
-      <c r="B208" s="238"/>
-      <c r="C208" s="237"/>
-      <c r="D208" s="188" t="s">
+      <c r="A208" s="255"/>
+      <c r="B208" s="255"/>
+      <c r="C208" s="254"/>
+      <c r="D208" s="187" t="s">
         <v>348</v>
       </c>
       <c r="E208" s="165"/>
@@ -8796,19 +8831,19 @@
       <c r="M208" s="78"/>
     </row>
     <row r="209" spans="1:13" ht="27.75" customHeight="1">
-      <c r="A209" s="238"/>
-      <c r="B209" s="238"/>
-      <c r="C209" s="237"/>
-      <c r="D209" s="188" t="s">
+      <c r="A209" s="255"/>
+      <c r="B209" s="255"/>
+      <c r="C209" s="254"/>
+      <c r="D209" s="187" t="s">
         <v>349</v>
       </c>
       <c r="E209" s="165"/>
       <c r="F209" s="165"/>
-      <c r="G209" s="235" t="s">
+      <c r="G209" s="242" t="s">
         <v>350</v>
       </c>
-      <c r="H209" s="235"/>
-      <c r="I209" s="236"/>
+      <c r="H209" s="242"/>
+      <c r="I209" s="243"/>
       <c r="J209" s="159"/>
       <c r="K209" s="160"/>
       <c r="L209" s="160"/>
@@ -8934,26 +8969,73 @@
     <protectedRange sqref="D123" name="Rango1_3_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="111">
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="A7:A25"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A26:A75"/>
-    <mergeCell ref="B26:B47"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="G187:I187"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A184:A205"/>
+    <mergeCell ref="B184:B205"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B142:B166"/>
+    <mergeCell ref="G57:I60"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B90:B113"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="G73:I74"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="G123:I123"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A167:A183"/>
     <mergeCell ref="B167:B183"/>
@@ -8978,73 +9060,26 @@
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="A76:A89"/>
     <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B90:B113"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="G73:I74"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="A184:A205"/>
-    <mergeCell ref="B184:B205"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B142:B166"/>
-    <mergeCell ref="G57:I60"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="G187:I187"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="G104:I105"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="A7:A25"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A26:A75"/>
+    <mergeCell ref="B26:B47"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C60"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E34 E39 E44:E45 E48:E56 E61:E62 E68:E69 E72:E74 E76:E77 E79:E81 E84:E85 E87:E91 E93:E95 E98:E99 E102 E106:E130 E133:E139 E142 E147:E172 E176:E178 E180:E181 E184:E186 E188:E189 E193:E194 E197:E199 E202:E203">
     <cfRule type="iconSet" priority="2">
@@ -9120,36 +9155,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="308" t="s">
+      <c r="C5" s="302" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="310"/>
-      <c r="Q5" s="308" t="s">
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="303"/>
+      <c r="I5" s="303"/>
+      <c r="J5" s="303"/>
+      <c r="K5" s="303"/>
+      <c r="L5" s="303"/>
+      <c r="M5" s="303"/>
+      <c r="N5" s="303"/>
+      <c r="O5" s="304"/>
+      <c r="Q5" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="309"/>
-      <c r="S5" s="309"/>
-      <c r="T5" s="309"/>
-      <c r="U5" s="309"/>
-      <c r="V5" s="309"/>
-      <c r="W5" s="309"/>
-      <c r="X5" s="309"/>
-      <c r="Y5" s="309"/>
-      <c r="Z5" s="309"/>
-      <c r="AA5" s="309"/>
-      <c r="AB5" s="309"/>
-      <c r="AC5" s="310"/>
+      <c r="R5" s="303"/>
+      <c r="S5" s="303"/>
+      <c r="T5" s="303"/>
+      <c r="U5" s="303"/>
+      <c r="V5" s="303"/>
+      <c r="W5" s="303"/>
+      <c r="X5" s="303"/>
+      <c r="Y5" s="303"/>
+      <c r="Z5" s="303"/>
+      <c r="AA5" s="303"/>
+      <c r="AB5" s="303"/>
+      <c r="AC5" s="304"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -9343,7 +9378,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="260" t="s">
+      <c r="A8" s="262" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -9414,7 +9449,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="261"/>
+      <c r="A9" s="263"/>
       <c r="B9" s="106" t="s">
         <v>155</v>
       </c>
@@ -9483,7 +9518,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="261"/>
+      <c r="A10" s="263"/>
       <c r="B10" s="107" t="s">
         <v>156</v>
       </c>
@@ -9550,7 +9585,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="261"/>
+      <c r="A11" s="263"/>
       <c r="B11" s="106" t="s">
         <v>157</v>
       </c>
@@ -9618,7 +9653,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="260" t="s">
+      <c r="A12" s="262" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9688,7 +9723,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="261"/>
+      <c r="A13" s="263"/>
       <c r="B13" s="108" t="s">
         <v>158</v>
       </c>
@@ -9756,7 +9791,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="261"/>
+      <c r="A14" s="263"/>
       <c r="B14" s="108" t="s">
         <v>159</v>
       </c>
@@ -9824,7 +9859,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="261"/>
+      <c r="A15" s="263"/>
       <c r="B15" s="107" t="s">
         <v>160</v>
       </c>
@@ -9892,7 +9927,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="262" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -9961,7 +9996,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="261"/>
+      <c r="A17" s="263"/>
       <c r="B17" s="108" t="s">
         <v>75</v>
       </c>
@@ -10028,7 +10063,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="261"/>
+      <c r="A18" s="263"/>
       <c r="B18" s="108" t="s">
         <v>76</v>
       </c>
@@ -10095,7 +10130,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="261"/>
+      <c r="A19" s="263"/>
       <c r="B19" s="108" t="s">
         <v>77</v>
       </c>
@@ -10162,7 +10197,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="261"/>
+      <c r="A20" s="263"/>
       <c r="B20" s="108" t="s">
         <v>78</v>
       </c>
@@ -10229,7 +10264,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="38.25">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="305" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -10297,7 +10332,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="38.25">
-      <c r="A22" s="303"/>
+      <c r="A22" s="306"/>
       <c r="B22" s="109" t="s">
         <v>80</v>
       </c>
@@ -10364,7 +10399,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="51">
-      <c r="A23" s="303"/>
+      <c r="A23" s="306"/>
       <c r="B23" s="109" t="s">
         <v>81</v>
       </c>
@@ -10431,7 +10466,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="76.5">
-      <c r="A24" s="303"/>
+      <c r="A24" s="306"/>
       <c r="B24" s="109" t="s">
         <v>82</v>
       </c>
@@ -10498,7 +10533,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="38.25">
-      <c r="A25" s="303"/>
+      <c r="A25" s="306"/>
       <c r="B25" s="109" t="s">
         <v>83</v>
       </c>
@@ -10565,7 +10600,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="300"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="105" t="s">
         <v>162</v>
       </c>
@@ -10632,7 +10667,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="260" t="s">
+      <c r="A27" s="262" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10702,7 +10737,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="51">
-      <c r="A28" s="304"/>
+      <c r="A28" s="307"/>
       <c r="B28" s="110" t="s">
         <v>85</v>
       </c>
@@ -10770,7 +10805,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="25.5">
-      <c r="A29" s="304"/>
+      <c r="A29" s="307"/>
       <c r="B29" s="110" t="s">
         <v>164</v>
       </c>
@@ -10838,7 +10873,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="25.5">
-      <c r="A30" s="304"/>
+      <c r="A30" s="307"/>
       <c r="B30" s="110" t="s">
         <v>165</v>
       </c>
@@ -10906,7 +10941,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="260" t="s">
+      <c r="A31" s="262" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -10974,7 +11009,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="261"/>
+      <c r="A32" s="263"/>
       <c r="B32" s="112" t="s">
         <v>167</v>
       </c>
@@ -11040,7 +11075,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="261"/>
+      <c r="A33" s="263"/>
       <c r="B33" s="112" t="s">
         <v>86</v>
       </c>
@@ -11106,7 +11141,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="261"/>
+      <c r="A34" s="263"/>
       <c r="B34" s="112" t="s">
         <v>168</v>
       </c>
@@ -11172,7 +11207,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="89.25">
-      <c r="A35" s="302" t="s">
+      <c r="A35" s="305" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -11240,7 +11275,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="39">
-      <c r="A36" s="303"/>
+      <c r="A36" s="306"/>
       <c r="B36" s="113" t="s">
         <v>88</v>
       </c>
@@ -11306,7 +11341,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="51">
-      <c r="A37" s="303"/>
+      <c r="A37" s="306"/>
       <c r="B37" s="114" t="s">
         <v>89</v>
       </c>
@@ -11372,7 +11407,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="63.75">
-      <c r="A38" s="303"/>
+      <c r="A38" s="306"/>
       <c r="B38" s="114" t="s">
         <v>55</v>
       </c>
@@ -11438,7 +11473,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="300"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="113" t="s">
         <v>90</v>
       </c>
@@ -11504,7 +11539,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="260" t="s">
+      <c r="A40" s="262" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -11572,7 +11607,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="261"/>
+      <c r="A41" s="263"/>
       <c r="B41" s="110" t="s">
         <v>56</v>
       </c>
@@ -11638,7 +11673,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="261"/>
+      <c r="A42" s="263"/>
       <c r="B42" s="110" t="s">
         <v>92</v>
       </c>
@@ -11704,7 +11739,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="261"/>
+      <c r="A43" s="263"/>
       <c r="B43" s="110" t="s">
         <v>57</v>
       </c>
@@ -11772,7 +11807,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="261"/>
+      <c r="A44" s="263"/>
       <c r="B44" s="110" t="s">
         <v>93</v>
       </c>
@@ -11840,7 +11875,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="260" t="s">
+      <c r="A45" s="262" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -11909,7 +11944,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="261"/>
+      <c r="A46" s="263"/>
       <c r="B46" s="113" t="s">
         <v>170</v>
       </c>
@@ -11977,7 +12012,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="261"/>
+      <c r="A47" s="263"/>
       <c r="B47" s="113" t="s">
         <v>171</v>
       </c>
@@ -12045,7 +12080,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="261"/>
+      <c r="A48" s="263"/>
       <c r="B48" s="114" t="s">
         <v>172</v>
       </c>
@@ -12113,7 +12148,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="260" t="s">
+      <c r="A49" s="262" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -12181,7 +12216,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="261"/>
+      <c r="A50" s="263"/>
       <c r="B50" s="116" t="s">
         <v>94</v>
       </c>
@@ -12247,7 +12282,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="261"/>
+      <c r="A51" s="263"/>
       <c r="B51" s="116" t="s">
         <v>95</v>
       </c>
@@ -12313,7 +12348,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="261"/>
+      <c r="A52" s="263"/>
       <c r="B52" s="116" t="s">
         <v>68</v>
       </c>
@@ -12379,7 +12414,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="260" t="s">
+      <c r="A53" s="262" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -12448,7 +12483,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="261"/>
+      <c r="A54" s="263"/>
       <c r="B54" s="115" t="s">
         <v>173</v>
       </c>
@@ -12516,7 +12551,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="261"/>
+      <c r="A55" s="263"/>
       <c r="B55" s="111" t="s">
         <v>174</v>
       </c>
@@ -12582,7 +12617,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="261"/>
+      <c r="A56" s="263"/>
       <c r="B56" s="105" t="s">
         <v>175</v>
       </c>
@@ -12648,7 +12683,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="260" t="s">
+      <c r="A57" s="262" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12718,7 +12753,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="261"/>
+      <c r="A58" s="263"/>
       <c r="B58" s="107" t="s">
         <v>177</v>
       </c>
@@ -12786,7 +12821,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="261"/>
+      <c r="A59" s="263"/>
       <c r="B59" s="107" t="s">
         <v>178</v>
       </c>
@@ -12854,7 +12889,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="261"/>
+      <c r="A60" s="263"/>
       <c r="B60" s="107" t="s">
         <v>97</v>
       </c>
@@ -12922,7 +12957,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="261"/>
+      <c r="A61" s="263"/>
       <c r="B61" s="106" t="s">
         <v>179</v>
       </c>
@@ -12990,7 +13025,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="51">
-      <c r="A62" s="302" t="s">
+      <c r="A62" s="305" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -13058,7 +13093,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="38.25">
-      <c r="A63" s="303"/>
+      <c r="A63" s="306"/>
       <c r="B63" s="107" t="s">
         <v>182</v>
       </c>
@@ -13124,7 +13159,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="25.5">
-      <c r="A64" s="303"/>
+      <c r="A64" s="306"/>
       <c r="B64" s="117" t="s">
         <v>183</v>
       </c>
@@ -13190,7 +13225,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" ht="25.5">
-      <c r="A65" s="303"/>
+      <c r="A65" s="306"/>
       <c r="B65" s="107" t="s">
         <v>184</v>
       </c>
@@ -13256,7 +13291,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="311"/>
+      <c r="A66" s="308"/>
       <c r="B66" s="107" t="s">
         <v>185</v>
       </c>
@@ -13324,7 +13359,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="311"/>
+      <c r="A67" s="308"/>
       <c r="B67" s="117" t="s">
         <v>186</v>
       </c>
@@ -13392,7 +13427,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="300"/>
+      <c r="A68" s="213"/>
       <c r="B68" s="117" t="s">
         <v>187</v>
       </c>
@@ -13460,7 +13495,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="260" t="s">
+      <c r="A69" s="262" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -13529,7 +13564,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="261"/>
+      <c r="A70" s="263"/>
       <c r="B70" s="118" t="s">
         <v>188</v>
       </c>
@@ -13597,7 +13632,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="261"/>
+      <c r="A71" s="263"/>
       <c r="B71" s="107" t="s">
         <v>99</v>
       </c>
@@ -13665,7 +13700,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="261"/>
+      <c r="A72" s="263"/>
       <c r="B72" s="107" t="s">
         <v>189</v>
       </c>
@@ -13733,7 +13768,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="260" t="s">
+      <c r="A73" s="262" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -13801,7 +13836,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="261"/>
+      <c r="A74" s="263"/>
       <c r="B74" s="107" t="s">
         <v>191</v>
       </c>
@@ -13867,7 +13902,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="261"/>
+      <c r="A75" s="263"/>
       <c r="B75" s="117" t="s">
         <v>186</v>
       </c>
@@ -13933,7 +13968,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="261"/>
+      <c r="A76" s="263"/>
       <c r="B76" s="107" t="s">
         <v>192</v>
       </c>
@@ -13999,7 +14034,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="260" t="s">
+      <c r="A77" s="262" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -14068,7 +14103,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="261"/>
+      <c r="A78" s="263"/>
       <c r="B78" s="119" t="s">
         <v>193</v>
       </c>
@@ -14134,7 +14169,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="261"/>
+      <c r="A79" s="263"/>
       <c r="B79" s="119" t="s">
         <v>103</v>
       </c>
@@ -14201,7 +14236,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="261"/>
+      <c r="A80" s="263"/>
       <c r="B80" s="119" t="s">
         <v>104</v>
       </c>
@@ -14269,7 +14304,7 @@
       </c>
     </row>
     <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="260" t="s">
+      <c r="A81" s="262" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -14337,7 +14372,7 @@
       </c>
     </row>
     <row r="82" spans="1:32" ht="38.25">
-      <c r="A82" s="261"/>
+      <c r="A82" s="263"/>
       <c r="B82" s="119" t="s">
         <v>59</v>
       </c>
@@ -14403,7 +14438,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="261"/>
+      <c r="A83" s="263"/>
       <c r="B83" s="119" t="s">
         <v>106</v>
       </c>
@@ -14470,7 +14505,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="261"/>
+      <c r="A84" s="263"/>
       <c r="B84" s="119" t="s">
         <v>107</v>
       </c>
@@ -14538,7 +14573,7 @@
       </c>
     </row>
     <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="260" t="s">
+      <c r="A85" s="262" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -14607,7 +14642,7 @@
       </c>
     </row>
     <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="261"/>
+      <c r="A86" s="263"/>
       <c r="B86" s="119" t="s">
         <v>108</v>
       </c>
@@ -14673,7 +14708,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="25.5">
-      <c r="A87" s="261"/>
+      <c r="A87" s="263"/>
       <c r="B87" s="119" t="s">
         <v>195</v>
       </c>
@@ -14739,7 +14774,7 @@
       </c>
     </row>
     <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="261"/>
+      <c r="A88" s="263"/>
       <c r="B88" s="120" t="s">
         <v>196</v>
       </c>
@@ -14805,7 +14840,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="261"/>
+      <c r="A89" s="263"/>
       <c r="B89" s="108" t="s">
         <v>58</v>
       </c>
@@ -14871,7 +14906,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" ht="38.25">
-      <c r="A90" s="261"/>
+      <c r="A90" s="263"/>
       <c r="B90" s="120" t="s">
         <v>197</v>
       </c>
@@ -14937,7 +14972,7 @@
       </c>
     </row>
     <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="260" t="s">
+      <c r="A91" s="262" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -15005,7 +15040,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="261"/>
+      <c r="A92" s="263"/>
       <c r="B92" s="117" t="s">
         <v>110</v>
       </c>
@@ -15071,7 +15106,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="261"/>
+      <c r="A93" s="263"/>
       <c r="B93" s="117" t="s">
         <v>198</v>
       </c>
@@ -15137,7 +15172,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="261"/>
+      <c r="A94" s="263"/>
       <c r="B94" s="117" t="s">
         <v>60</v>
       </c>
@@ -15203,7 +15238,7 @@
       </c>
     </row>
     <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="260" t="s">
+      <c r="A95" s="262" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -15271,7 +15306,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="261"/>
+      <c r="A96" s="263"/>
       <c r="B96" s="117" t="s">
         <v>200</v>
       </c>
@@ -15337,7 +15372,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="261"/>
+      <c r="A97" s="263"/>
       <c r="B97" s="117" t="s">
         <v>201</v>
       </c>
@@ -15403,7 +15438,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="261"/>
+      <c r="A98" s="263"/>
       <c r="B98" s="117" t="s">
         <v>202</v>
       </c>
@@ -15469,7 +15504,7 @@
       </c>
     </row>
     <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="260" t="s">
+      <c r="A99" s="262" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -15538,7 +15573,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="261"/>
+      <c r="A100" s="263"/>
       <c r="B100" s="117" t="s">
         <v>61</v>
       </c>
@@ -15606,7 +15641,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="261"/>
+      <c r="A101" s="263"/>
       <c r="B101" s="117" t="s">
         <v>62</v>
       </c>
@@ -15674,7 +15709,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" ht="51">
-      <c r="A102" s="261"/>
+      <c r="A102" s="263"/>
       <c r="B102" s="117" t="s">
         <v>63</v>
       </c>
@@ -15742,7 +15777,7 @@
       </c>
     </row>
     <row r="103" spans="1:32" ht="63.75">
-      <c r="A103" s="260" t="s">
+      <c r="A103" s="262" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -15818,7 +15853,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="261"/>
+      <c r="A104" s="263"/>
       <c r="B104" s="117" t="s">
         <v>204</v>
       </c>
@@ -15888,7 +15923,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="261"/>
+      <c r="A105" s="263"/>
       <c r="B105" s="117" t="s">
         <v>205</v>
       </c>
@@ -15956,7 +15991,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="261"/>
+      <c r="A106" s="263"/>
       <c r="B106" s="117" t="s">
         <v>206</v>
       </c>
@@ -16024,7 +16059,7 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="260" t="s">
+      <c r="A107" s="262" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -16093,7 +16128,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="261"/>
+      <c r="A108" s="263"/>
       <c r="B108" s="119" t="s">
         <v>112</v>
       </c>
@@ -16160,7 +16195,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="261"/>
+      <c r="A109" s="263"/>
       <c r="B109" s="119" t="s">
         <v>64</v>
       </c>
@@ -16227,7 +16262,7 @@
       </c>
     </row>
     <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="261"/>
+      <c r="A110" s="263"/>
       <c r="B110" s="119" t="s">
         <v>113</v>
       </c>
@@ -16294,7 +16329,7 @@
       </c>
     </row>
     <row r="111" spans="1:32" ht="51">
-      <c r="A111" s="260" t="s">
+      <c r="A111" s="262" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -16364,7 +16399,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="261"/>
+      <c r="A112" s="263"/>
       <c r="B112" s="107" t="s">
         <v>208</v>
       </c>
@@ -16432,7 +16467,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="261"/>
+      <c r="A113" s="263"/>
       <c r="B113" s="107" t="s">
         <v>209</v>
       </c>
@@ -16500,7 +16535,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="261"/>
+      <c r="A114" s="263"/>
       <c r="B114" s="107" t="s">
         <v>210</v>
       </c>
@@ -16568,7 +16603,7 @@
       </c>
     </row>
     <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="260" t="s">
+      <c r="A115" s="262" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -16638,7 +16673,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="261"/>
+      <c r="A116" s="263"/>
       <c r="B116" s="119" t="s">
         <v>115</v>
       </c>
@@ -16706,7 +16741,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="261"/>
+      <c r="A117" s="263"/>
       <c r="B117" s="119" t="s">
         <v>211</v>
       </c>
@@ -16774,7 +16809,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="261"/>
+      <c r="A118" s="263"/>
       <c r="B118" s="119" t="s">
         <v>212</v>
       </c>
@@ -16842,7 +16877,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="260" t="s">
+      <c r="A119" s="262" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -16909,7 +16944,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" ht="25.5">
-      <c r="A120" s="261"/>
+      <c r="A120" s="263"/>
       <c r="B120" s="121" t="s">
         <v>117</v>
       </c>
@@ -16977,7 +17012,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="261"/>
+      <c r="A121" s="263"/>
       <c r="B121" s="121" t="s">
         <v>118</v>
       </c>
@@ -17045,7 +17080,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="261"/>
+      <c r="A122" s="263"/>
       <c r="B122" s="117" t="s">
         <v>213</v>
       </c>
@@ -17097,8 +17132,8 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="261"/>
-      <c r="B123" s="198" t="s">
+      <c r="A123" s="263"/>
+      <c r="B123" s="197" t="s">
         <v>208</v>
       </c>
       <c r="C123" s="41"/>
@@ -17137,7 +17172,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="261"/>
+      <c r="A124" s="263"/>
       <c r="B124" s="120" t="s">
         <v>209</v>
       </c>
@@ -17201,7 +17236,7 @@
       </c>
     </row>
     <row r="125" spans="1:32" ht="51">
-      <c r="A125" s="302" t="s">
+      <c r="A125" s="305" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="59" t="s">
@@ -17269,7 +17304,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" ht="51">
-      <c r="A126" s="303"/>
+      <c r="A126" s="306"/>
       <c r="B126" s="123" t="s">
         <v>215</v>
       </c>
@@ -17331,7 +17366,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" ht="25.5">
-      <c r="A127" s="303"/>
+      <c r="A127" s="306"/>
       <c r="B127" s="117" t="s">
         <v>216</v>
       </c>
@@ -17397,7 +17432,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" ht="25.5">
-      <c r="A128" s="303"/>
+      <c r="A128" s="306"/>
       <c r="B128" s="117" t="s">
         <v>119</v>
       </c>
@@ -17463,7 +17498,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="300"/>
+      <c r="A129" s="213"/>
       <c r="B129" s="107" t="s">
         <v>217</v>
       </c>
@@ -17529,7 +17564,7 @@
       </c>
     </row>
     <row r="130" spans="1:32" ht="30">
-      <c r="A130" s="302" t="s">
+      <c r="A130" s="305" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -17597,7 +17632,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" ht="25.5">
-      <c r="A131" s="306"/>
+      <c r="A131" s="309"/>
       <c r="B131" s="117" t="s">
         <v>219</v>
       </c>
@@ -17663,7 +17698,7 @@
       </c>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="306"/>
+      <c r="A132" s="309"/>
       <c r="B132" s="117" t="s">
         <v>220</v>
       </c>
@@ -17729,7 +17764,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" ht="25.5">
-      <c r="A133" s="306"/>
+      <c r="A133" s="309"/>
       <c r="B133" s="117" t="s">
         <v>221</v>
       </c>
@@ -17795,7 +17830,7 @@
       </c>
     </row>
     <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="260" t="s">
+      <c r="A134" s="262" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -17861,7 +17896,7 @@
       </c>
     </row>
     <row r="135" spans="1:32" ht="38.25">
-      <c r="A135" s="261"/>
+      <c r="A135" s="263"/>
       <c r="B135" s="124" t="s">
         <v>222</v>
       </c>
@@ -17929,7 +17964,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="261"/>
+      <c r="A136" s="263"/>
       <c r="B136" s="124" t="s">
         <v>223</v>
       </c>
@@ -17997,7 +18032,7 @@
       </c>
     </row>
     <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="261"/>
+      <c r="A137" s="263"/>
       <c r="B137" s="124" t="s">
         <v>224</v>
       </c>
@@ -18065,7 +18100,7 @@
       </c>
     </row>
     <row r="138" spans="1:32" ht="60">
-      <c r="A138" s="302" t="s">
+      <c r="A138" s="305" t="s">
         <v>34</v>
       </c>
       <c r="B138" s="68" t="s">
@@ -18133,7 +18168,7 @@
       </c>
     </row>
     <row r="139" spans="1:32" ht="42.75">
-      <c r="A139" s="303"/>
+      <c r="A139" s="306"/>
       <c r="B139" s="125" t="s">
         <v>226</v>
       </c>
@@ -18200,7 +18235,7 @@
       </c>
     </row>
     <row r="140" spans="1:32" ht="28.5">
-      <c r="A140" s="303"/>
+      <c r="A140" s="306"/>
       <c r="B140" s="125" t="s">
         <v>227</v>
       </c>
@@ -18266,7 +18301,7 @@
       </c>
     </row>
     <row r="141" spans="1:32" ht="28.5">
-      <c r="A141" s="303"/>
+      <c r="A141" s="306"/>
       <c r="B141" s="125" t="s">
         <v>228</v>
       </c>
@@ -18332,7 +18367,7 @@
       </c>
     </row>
     <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="300"/>
+      <c r="A142" s="213"/>
       <c r="B142" s="126" t="s">
         <v>229</v>
       </c>
@@ -18398,7 +18433,7 @@
       </c>
     </row>
     <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="260" t="s">
+      <c r="A143" s="262" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -18466,7 +18501,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="261"/>
+      <c r="A144" s="263"/>
       <c r="B144" s="123" t="s">
         <v>230</v>
       </c>
@@ -18532,7 +18567,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="261"/>
+      <c r="A145" s="263"/>
       <c r="B145" s="121" t="s">
         <v>65</v>
       </c>
@@ -18598,7 +18633,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="261"/>
+      <c r="A146" s="263"/>
       <c r="B146" s="117" t="s">
         <v>66</v>
       </c>
@@ -18664,7 +18699,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="261"/>
+      <c r="A147" s="263"/>
       <c r="B147" s="117" t="s">
         <v>67</v>
       </c>
@@ -18730,7 +18765,7 @@
       </c>
     </row>
     <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="260" t="s">
+      <c r="A148" s="262" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -18796,7 +18831,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="261"/>
+      <c r="A149" s="263"/>
       <c r="B149" s="121" t="s">
         <v>124</v>
       </c>
@@ -18860,7 +18895,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="261"/>
+      <c r="A150" s="263"/>
       <c r="B150" s="127" t="s">
         <v>231</v>
       </c>
@@ -18927,7 +18962,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="261"/>
+      <c r="A151" s="263"/>
       <c r="B151" s="121" t="s">
         <v>125</v>
       </c>
@@ -18994,7 +19029,7 @@
       </c>
     </row>
     <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="260" t="s">
+      <c r="A152" s="262" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -19063,7 +19098,7 @@
       </c>
     </row>
     <row r="153" spans="1:32" ht="63.75">
-      <c r="A153" s="261"/>
+      <c r="A153" s="263"/>
       <c r="B153" s="117" t="s">
         <v>233</v>
       </c>
@@ -19130,7 +19165,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="261"/>
+      <c r="A154" s="263"/>
       <c r="B154" s="117" t="s">
         <v>234</v>
       </c>
@@ -19197,7 +19232,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="261"/>
+      <c r="A155" s="263"/>
       <c r="B155" s="117" t="s">
         <v>235</v>
       </c>
@@ -19264,7 +19299,7 @@
       </c>
     </row>
     <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="260" t="s">
+      <c r="A156" s="262" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -19332,7 +19367,7 @@
       </c>
     </row>
     <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="261"/>
+      <c r="A157" s="263"/>
       <c r="B157" s="119" t="s">
         <v>237</v>
       </c>
@@ -19399,7 +19434,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="261"/>
+      <c r="A158" s="263"/>
       <c r="B158" s="117" t="s">
         <v>238</v>
       </c>
@@ -19466,7 +19501,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="261"/>
+      <c r="A159" s="263"/>
       <c r="B159" s="117" t="s">
         <v>239</v>
       </c>
@@ -19533,7 +19568,7 @@
       </c>
     </row>
     <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="260" t="s">
+      <c r="A160" s="262" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -19602,7 +19637,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="261"/>
+      <c r="A161" s="263"/>
       <c r="B161" s="121" t="s">
         <v>241</v>
       </c>
@@ -19669,7 +19704,7 @@
       </c>
     </row>
     <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="261"/>
+      <c r="A162" s="263"/>
       <c r="B162" s="121" t="s">
         <v>242</v>
       </c>
@@ -19736,7 +19771,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="261"/>
+      <c r="A163" s="263"/>
       <c r="B163" s="121" t="s">
         <v>243</v>
       </c>
@@ -19803,7 +19838,7 @@
       </c>
     </row>
     <row r="164" spans="1:32" ht="38.25">
-      <c r="A164" s="304" t="s">
+      <c r="A164" s="307" t="s">
         <v>244</v>
       </c>
       <c r="B164" s="64" t="s">
@@ -19869,7 +19904,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="305"/>
+      <c r="A165" s="310"/>
       <c r="B165" s="128" t="s">
         <v>246</v>
       </c>
@@ -19933,7 +19968,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="305"/>
+      <c r="A166" s="310"/>
       <c r="B166" s="108" t="s">
         <v>247</v>
       </c>
@@ -20000,7 +20035,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="305"/>
+      <c r="A167" s="310"/>
       <c r="B167" s="108" t="s">
         <v>248</v>
       </c>
@@ -20067,7 +20102,7 @@
       </c>
     </row>
     <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="260" t="s">
+      <c r="A168" s="262" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -20133,7 +20168,7 @@
       </c>
     </row>
     <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="261"/>
+      <c r="A169" s="263"/>
       <c r="B169" s="151" t="s">
         <v>342</v>
       </c>
@@ -20197,7 +20232,7 @@
       </c>
     </row>
     <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="261"/>
+      <c r="A170" s="263"/>
       <c r="B170" s="151" t="s">
         <v>343</v>
       </c>
@@ -20261,7 +20296,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="261"/>
+      <c r="A171" s="263"/>
       <c r="B171" s="152" t="s">
         <v>344</v>
       </c>
@@ -20325,7 +20360,7 @@
       </c>
     </row>
     <row r="172" spans="1:32" ht="51">
-      <c r="A172" s="302" t="s">
+      <c r="A172" s="305" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -20391,7 +20426,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" ht="38.25">
-      <c r="A173" s="303"/>
+      <c r="A173" s="306"/>
       <c r="B173" s="70" t="s">
         <v>251</v>
       </c>
@@ -20457,7 +20492,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" ht="76.5">
-      <c r="A174" s="303"/>
+      <c r="A174" s="306"/>
       <c r="B174" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -20525,7 +20560,7 @@
       </c>
     </row>
     <row r="175" spans="1:32" ht="25.5">
-      <c r="A175" s="303"/>
+      <c r="A175" s="306"/>
       <c r="B175" s="70" t="s">
         <v>252</v>
       </c>
@@ -20593,7 +20628,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="300"/>
+      <c r="A176" s="213"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -20661,7 +20696,7 @@
       </c>
     </row>
     <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="260" t="s">
+      <c r="A177" s="262" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -20727,7 +20762,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="261"/>
+      <c r="A178" s="263"/>
       <c r="B178" s="117" t="s">
         <v>129</v>
       </c>
@@ -20791,7 +20826,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="261"/>
+      <c r="A179" s="263"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -20855,7 +20890,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="261"/>
+      <c r="A180" s="263"/>
       <c r="B180" s="117" t="s">
         <v>256</v>
       </c>
@@ -20919,7 +20954,7 @@
       </c>
     </row>
     <row r="181" spans="1:32" ht="76.5">
-      <c r="A181" s="260" t="s">
+      <c r="A181" s="262" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -20988,7 +21023,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="261"/>
+      <c r="A182" s="263"/>
       <c r="B182" s="129" t="s">
         <v>258</v>
       </c>
@@ -21052,7 +21087,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="261"/>
+      <c r="A183" s="263"/>
       <c r="B183" s="107" t="s">
         <v>259</v>
       </c>
@@ -21116,7 +21151,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="261"/>
+      <c r="A184" s="263"/>
       <c r="B184" s="108" t="s">
         <v>260</v>
       </c>
@@ -21180,7 +21215,7 @@
       </c>
     </row>
     <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="260" t="s">
+      <c r="A185" s="262" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -21246,7 +21281,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="261"/>
+      <c r="A186" s="263"/>
       <c r="B186" s="117" t="s">
         <v>262</v>
       </c>
@@ -21310,7 +21345,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="261"/>
+      <c r="A187" s="263"/>
       <c r="B187" s="117" t="s">
         <v>261</v>
       </c>
@@ -21374,7 +21409,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="261"/>
+      <c r="A188" s="263"/>
       <c r="B188" s="117" t="s">
         <v>263</v>
       </c>
@@ -21441,7 +21476,7 @@
       </c>
     </row>
     <row r="189" spans="1:32" ht="51">
-      <c r="A189" s="302" t="s">
+      <c r="A189" s="305" t="s">
         <v>45</v>
       </c>
       <c r="B189" s="71" t="s">
@@ -21507,7 +21542,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" ht="25.5">
-      <c r="A190" s="303"/>
+      <c r="A190" s="306"/>
       <c r="B190" s="107" t="s">
         <v>265</v>
       </c>
@@ -21574,7 +21609,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" ht="38.25">
-      <c r="A191" s="303"/>
+      <c r="A191" s="306"/>
       <c r="B191" s="121" t="s">
         <v>266</v>
       </c>
@@ -21638,7 +21673,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" ht="38.25">
-      <c r="A192" s="303"/>
+      <c r="A192" s="306"/>
       <c r="B192" s="107" t="s">
         <v>267</v>
       </c>
@@ -21706,7 +21741,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="300"/>
+      <c r="A193" s="213"/>
       <c r="B193" s="108" t="s">
         <v>268</v>
       </c>
@@ -21772,7 +21807,7 @@
       </c>
     </row>
     <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="260" t="s">
+      <c r="A194" s="262" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -21838,7 +21873,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="261"/>
+      <c r="A195" s="263"/>
       <c r="B195" s="107" t="s">
         <v>270</v>
       </c>
@@ -21902,7 +21937,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="261"/>
+      <c r="A196" s="263"/>
       <c r="B196" s="107" t="s">
         <v>271</v>
       </c>
@@ -21966,7 +22001,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="261"/>
+      <c r="A197" s="263"/>
       <c r="B197" s="107" t="s">
         <v>272</v>
       </c>
@@ -22030,7 +22065,7 @@
       </c>
     </row>
     <row r="198" spans="1:32" ht="38.25">
-      <c r="A198" s="302" t="s">
+      <c r="A198" s="305" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="63" t="s">
@@ -22098,7 +22133,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" ht="63.75">
-      <c r="A199" s="303"/>
+      <c r="A199" s="306"/>
       <c r="B199" s="108" t="s">
         <v>274</v>
       </c>
@@ -22164,7 +22199,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" ht="38.25">
-      <c r="A200" s="303"/>
+      <c r="A200" s="306"/>
       <c r="B200" s="108" t="s">
         <v>275</v>
       </c>
@@ -22231,7 +22266,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" ht="76.5">
-      <c r="A201" s="303"/>
+      <c r="A201" s="306"/>
       <c r="B201" s="120" t="s">
         <v>276</v>
       </c>
@@ -22297,7 +22332,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="300"/>
+      <c r="A202" s="213"/>
       <c r="B202" s="122" t="s">
         <v>277</v>
       </c>
@@ -22363,7 +22398,7 @@
       </c>
     </row>
     <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="260" t="s">
+      <c r="A203" s="262" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -22431,7 +22466,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="261"/>
+      <c r="A204" s="263"/>
       <c r="B204" s="130" t="s">
         <v>279</v>
       </c>
@@ -22497,7 +22532,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="261"/>
+      <c r="A205" s="263"/>
       <c r="B205" s="121" t="s">
         <v>280</v>
       </c>
@@ -22563,7 +22598,7 @@
       </c>
     </row>
     <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="261"/>
+      <c r="A206" s="263"/>
       <c r="B206" s="120" t="s">
         <v>281</v>
       </c>
@@ -22629,7 +22664,7 @@
       </c>
     </row>
     <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="307" t="s">
+      <c r="A207" s="301" t="s">
         <v>345</v>
       </c>
       <c r="B207" s="157" t="s">
@@ -22693,7 +22728,7 @@
       </c>
     </row>
     <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="307"/>
+      <c r="A208" s="301"/>
       <c r="B208" s="158" t="s">
         <v>347</v>
       </c>
@@ -22755,7 +22790,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="307"/>
+      <c r="A209" s="301"/>
       <c r="B209" s="158" t="s">
         <v>348</v>
       </c>
@@ -22817,7 +22852,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="307"/>
+      <c r="A210" s="301"/>
       <c r="B210" s="158" t="s">
         <v>349</v>
       </c>
@@ -22978,6 +23013,38 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -22994,38 +23061,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
